--- a/code/COSA_Data/electricity_price_data.xlsx
+++ b/code/COSA_Data/electricity_price_data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="337">
   <si>
     <t>Rohdaten Tariferhebung ElCom 2020</t>
   </si>
@@ -999,12 +999,54 @@
   </si>
   <si>
     <t>DATA FROM historical_data.xlsx file and electricity_price_XX series (incl. taxes)</t>
+  </si>
+  <si>
+    <t>fit_high</t>
+  </si>
+  <si>
+    <t>fit_low</t>
+  </si>
+  <si>
+    <t>ewz_high_large</t>
+  </si>
+  <si>
+    <t>ewz_low_large</t>
+  </si>
+  <si>
+    <t>ewz_high_small</t>
+  </si>
+  <si>
+    <t>ewz_low_small</t>
+  </si>
+  <si>
+    <t>ewz_solarsplit_fee</t>
+  </si>
+  <si>
+    <t>ratio_high_low</t>
+  </si>
+  <si>
+    <t>2018_high</t>
+  </si>
+  <si>
+    <t>2018_low</t>
+  </si>
+  <si>
+    <t>av_price = (6/24) * low_price + (18/24) * high_price</t>
+  </si>
+  <si>
+    <t>high_price = ratio_high_low &amp; low_price</t>
+  </si>
+  <si>
+    <t>low_price = av_price / ((6/24) + (18/24) * ratio_high_low)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1094,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1120,9 +1162,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1130,6 +1169,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9110,7 +9153,7 @@
       <c r="I203" s="3"/>
     </row>
     <row r="204" spans="1:9" ht="28">
-      <c r="A204" s="11"/>
+      <c r="A204" s="16"/>
       <c r="B204" s="6" t="s">
         <v>72</v>
       </c>
@@ -9128,7 +9171,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="28">
-      <c r="A205" s="11"/>
+      <c r="A205" s="16"/>
       <c r="B205" s="6" t="s">
         <v>73</v>
       </c>
@@ -9257,7 +9300,7 @@
       <c r="A213" s="5"/>
     </row>
     <row r="214" spans="1:5" ht="28">
-      <c r="A214" s="11"/>
+      <c r="A214" s="16"/>
       <c r="B214" s="6" t="s">
         <v>72</v>
       </c>
@@ -9272,7 +9315,7 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="28">
-      <c r="A215" s="11"/>
+      <c r="A215" s="16"/>
       <c r="B215" s="6" t="s">
         <v>73</v>
       </c>
@@ -9380,7 +9423,7 @@
       <c r="A222" s="5"/>
     </row>
     <row r="223" spans="1:5" ht="28">
-      <c r="A223" s="11"/>
+      <c r="A223" s="16"/>
       <c r="B223" s="6" t="s">
         <v>72</v>
       </c>
@@ -9395,7 +9438,7 @@
       </c>
     </row>
     <row r="224" spans="1:5" ht="28">
-      <c r="A224" s="11"/>
+      <c r="A224" s="16"/>
       <c r="B224" s="6" t="s">
         <v>73</v>
       </c>
@@ -9511,10 +9554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK186"/>
+  <dimension ref="A1:AR186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4:AK14"/>
+      <selection activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9530,34 +9573,46 @@
     <col min="26" max="26" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="99.54296875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="8.90625" customWidth="1"/>
+    <col min="41" max="41" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:44">
       <c r="AC1" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
         <v>122</v>
       </c>
       <c r="Q2" t="s">
         <v>282</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="12" t="s">
         <v>286</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14" t="s">
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AL2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -9585,16 +9640,16 @@
       <c r="V3" t="s">
         <v>285</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AB3" s="14" t="s">
         <v>318</v>
       </c>
       <c r="AC3" s="1">
@@ -9624,8 +9679,24 @@
       <c r="AK3" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="4" spans="1:37">
+      <c r="AL3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AP3" s="17">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AQ3">
+        <f>AP3/AP4</f>
+        <v>1.910112359550562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
       <c r="O4" t="s">
         <v>14</v>
       </c>
@@ -9644,17 +9715,17 @@
       <c r="V4" t="s">
         <v>285</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="Y4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="Z4" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AA4" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="AB4" s="14">
-        <f>VLOOKUP(Y4,$O$4:$Q$18,3,0)</f>
+      <c r="AB4" s="13">
+        <f t="shared" ref="AB4:AB14" si="0">VLOOKUP(Y4,$O$4:$Q$18,3,0)</f>
         <v>1.6</v>
       </c>
       <c r="AC4">
@@ -9684,8 +9755,22 @@
       <c r="AK4">
         <v>23.463214285714297</v>
       </c>
-    </row>
-    <row r="5" spans="1:37">
+      <c r="AL4" s="17">
+        <f>AM4*$AQ$7</f>
+        <v>26.123991163475711</v>
+      </c>
+      <c r="AM4" s="17">
+        <f>AK4/(0.25+0.75*$AQ$7)</f>
+        <v>15.480883652430052</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AP4" s="17">
+        <v>4.4499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -9707,17 +9792,17 @@
       <c r="V5" t="s">
         <v>285</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="14" t="s">
+      <c r="Z5" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AA5" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="AB5" s="14">
-        <f>VLOOKUP(Y5,$O$4:$Q$18,3,0)</f>
+      <c r="AB5" s="13">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="AC5">
@@ -9747,8 +9832,26 @@
       <c r="AK5">
         <v>23.075494285714299</v>
       </c>
-    </row>
-    <row r="6" spans="1:37">
+      <c r="AL5" s="17">
+        <f t="shared" ref="AL5:AL14" si="1">AM5*$AQ$7</f>
+        <v>25.692302916053034</v>
+      </c>
+      <c r="AM5" s="17">
+        <f t="shared" ref="AM5:AM14" si="2">AK5/(0.25+0.75*$AQ$7)</f>
+        <v>15.225068394698095</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AP5" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="AQ5">
+        <f>AP5/AP6</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
       <c r="O6" t="s">
         <v>16</v>
       </c>
@@ -9770,17 +9873,17 @@
       <c r="V6" t="s">
         <v>285</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="Y6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Z6" s="14" t="s">
+      <c r="Z6" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="AA6" s="16" t="s">
+      <c r="AA6" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="AB6" s="14">
-        <f>VLOOKUP(Y6,$O$4:$Q$18,3,0)</f>
+      <c r="AB6" s="13">
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="AC6">
@@ -9810,8 +9913,22 @@
       <c r="AK6">
         <v>22.919585714285734</v>
       </c>
-    </row>
-    <row r="7" spans="1:37">
+      <c r="AL6" s="17">
+        <f t="shared" si="1"/>
+        <v>25.518713991163498</v>
+      </c>
+      <c r="AM6" s="17">
+        <f t="shared" si="2"/>
+        <v>15.122200883652443</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AP6" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -9833,17 +9950,17 @@
       <c r="V7" t="s">
         <v>285</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Y7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Z7" s="14" t="s">
+      <c r="Z7" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="AA7" s="16" t="s">
+      <c r="AA7" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="AB7" s="14">
-        <f>VLOOKUP(Y7,$O$4:$Q$18,3,0)</f>
+      <c r="AB7" s="13">
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="AC7">
@@ -9873,8 +9990,30 @@
       <c r="AK7">
         <v>22.921637142857097</v>
       </c>
-    </row>
-    <row r="8" spans="1:37">
+      <c r="AL7" s="17">
+        <f t="shared" si="1"/>
+        <v>25.520998055964604</v>
+      </c>
+      <c r="AM7" s="17">
+        <f t="shared" si="2"/>
+        <v>15.12355440353458</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP7" s="17">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AQ7" s="13">
+        <f>AP7/AP8</f>
+        <v>1.6875</v>
+      </c>
+      <c r="AR7">
+        <f>0.25*AP8+0.75*AP7</f>
+        <v>0.21825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
       <c r="O8" t="s">
         <v>18</v>
       </c>
@@ -9896,17 +10035,17 @@
       <c r="V8" t="s">
         <v>284</v>
       </c>
-      <c r="Y8" s="14" t="s">
+      <c r="Y8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="14" t="s">
+      <c r="Z8" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="AA8" s="16" t="s">
+      <c r="AA8" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="AB8" s="14">
-        <f>VLOOKUP(Y8,$O$4:$Q$18,3,0)</f>
+      <c r="AB8" s="13">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="AC8">
@@ -9936,8 +10075,22 @@
       <c r="AK8">
         <v>20.757695604395632</v>
       </c>
-    </row>
-    <row r="9" spans="1:37">
+      <c r="AL8" s="17">
+        <f t="shared" si="1"/>
+        <v>23.111661085306476</v>
+      </c>
+      <c r="AM8" s="17">
+        <f t="shared" si="2"/>
+        <v>13.695799161663098</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AP8" s="17">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -9962,17 +10115,17 @@
       <c r="V9" t="s">
         <v>285</v>
       </c>
-      <c r="Y9" s="14" t="s">
+      <c r="Y9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="14" t="s">
+      <c r="Z9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="AA9" s="16" t="s">
+      <c r="AA9" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="AB9" s="14">
-        <f>VLOOKUP(Y9,$O$4:$Q$18,3,0)</f>
+      <c r="AB9" s="13">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="AC9">
@@ -10002,8 +10155,22 @@
       <c r="AK9">
         <v>16.953210857142903</v>
       </c>
-    </row>
-    <row r="10" spans="1:37">
+      <c r="AL9" s="17">
+        <f t="shared" si="1"/>
+        <v>18.875739923416837</v>
+      </c>
+      <c r="AM9" s="17">
+        <f t="shared" si="2"/>
+        <v>11.18562365832109</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AP9" s="17">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
       <c r="O10" t="s">
         <v>20</v>
       </c>
@@ -10022,17 +10189,17 @@
       <c r="V10" t="s">
         <v>285</v>
       </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Y10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Z10" s="14" t="s">
+      <c r="Z10" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="AA10" s="16" t="s">
+      <c r="AA10" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="AB10" s="14">
-        <f>VLOOKUP(Y10,$O$4:$Q$18,3,0)</f>
+      <c r="AB10" s="13">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AC10">
@@ -10062,8 +10229,16 @@
       <c r="AK10">
         <v>25.080637500000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AL10" s="17">
+        <f t="shared" si="1"/>
+        <v>27.924833505154641</v>
+      </c>
+      <c r="AM10" s="17">
+        <f t="shared" si="2"/>
+        <v>16.548049484536083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -10085,17 +10260,17 @@
       <c r="V11" t="s">
         <v>285</v>
       </c>
-      <c r="Y11" s="14" t="s">
+      <c r="Y11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Z11" s="14" t="s">
+      <c r="Z11" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="AA11" s="16" t="s">
+      <c r="AA11" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="AB11" s="14">
-        <f>VLOOKUP(Y11,$O$4:$Q$18,3,0)</f>
+      <c r="AB11" s="13">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AC11">
@@ -10125,8 +10300,16 @@
       <c r="AK11">
         <v>24.911009999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:37">
+      <c r="AL11" s="17">
+        <f t="shared" si="1"/>
+        <v>27.735969896907211</v>
+      </c>
+      <c r="AM11" s="17">
+        <f t="shared" si="2"/>
+        <v>16.436130309278347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
       <c r="O12" t="s">
         <v>22</v>
       </c>
@@ -10145,17 +10328,17 @@
       <c r="V12" t="s">
         <v>285</v>
       </c>
-      <c r="Y12" s="14" t="s">
+      <c r="Y12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z12" s="14" t="s">
+      <c r="Z12" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="AA12" s="16" t="s">
+      <c r="AA12" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="AB12" s="14">
-        <f>VLOOKUP(Y12,$O$4:$Q$18,3,0)</f>
+      <c r="AB12" s="13">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="AC12">
@@ -10185,8 +10368,16 @@
       <c r="AK12">
         <v>25.381300000000032</v>
       </c>
-    </row>
-    <row r="13" spans="1:37">
+      <c r="AL12" s="17">
+        <f t="shared" si="1"/>
+        <v>28.259591752577354</v>
+      </c>
+      <c r="AM12" s="17">
+        <f t="shared" si="2"/>
+        <v>16.746424742268061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -10211,17 +10402,17 @@
       <c r="V13" t="s">
         <v>285</v>
       </c>
-      <c r="Y13" s="14" t="s">
+      <c r="Y13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Z13" s="14" t="s">
+      <c r="Z13" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="AA13" s="16" t="s">
+      <c r="AA13" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="AB13" s="14">
-        <f>VLOOKUP(Y13,$O$4:$Q$18,3,0)</f>
+      <c r="AB13" s="13">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="AC13">
@@ -10251,8 +10442,16 @@
       <c r="AK13">
         <v>23.332343399999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:37">
+      <c r="AL13" s="17">
+        <f t="shared" si="1"/>
+        <v>25.978279249484537</v>
+      </c>
+      <c r="AM13" s="17">
+        <f t="shared" si="2"/>
+        <v>15.394535851546392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
       <c r="B14" t="s">
         <v>130</v>
       </c>
@@ -10274,17 +10473,17 @@
       <c r="V14" t="s">
         <v>284</v>
       </c>
-      <c r="Y14" s="14" t="s">
+      <c r="Y14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Z14" s="14" t="s">
+      <c r="Z14" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="AA14" s="16" t="s">
+      <c r="AA14" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="AB14" s="14">
-        <f>VLOOKUP(Y14,$O$4:$Q$18,3,0)</f>
+      <c r="AB14" s="13">
+        <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="AC14">
@@ -10314,8 +10513,16 @@
       <c r="AK14">
         <v>18.536480383564523</v>
       </c>
-    </row>
-    <row r="15" spans="1:37">
+      <c r="AL14" s="17">
+        <f t="shared" si="1"/>
+        <v>20.638555478607923</v>
+      </c>
+      <c r="AM14" s="17">
+        <f t="shared" si="2"/>
+        <v>12.230255098434325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
       <c r="B15" t="s">
         <v>131</v>
       </c>
@@ -10338,7 +10545,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="43.5">
+    <row r="16" spans="1:44" ht="43.5">
       <c r="C16" t="s">
         <v>134</v>
       </c>
@@ -10357,8 +10564,11 @@
       <c r="R16" t="s">
         <v>301</v>
       </c>
-      <c r="S16" s="12" t="s">
+      <c r="S16" s="11" t="s">
         <v>304</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -10896,7 +11106,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="43.5">
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="11" t="s">
         <v>175</v>
       </c>
     </row>

--- a/code/COSA_Data/electricity_price_data.xlsx
+++ b/code/COSA_Data/electricity_price_data.xlsx
@@ -1045,7 +1045,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1169,10 +1169,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3056,7 +3056,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9153,7 +9152,7 @@
       <c r="I203" s="3"/>
     </row>
     <row r="204" spans="1:9" ht="28">
-      <c r="A204" s="16"/>
+      <c r="A204" s="17"/>
       <c r="B204" s="6" t="s">
         <v>72</v>
       </c>
@@ -9171,7 +9170,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="28">
-      <c r="A205" s="16"/>
+      <c r="A205" s="17"/>
       <c r="B205" s="6" t="s">
         <v>73</v>
       </c>
@@ -9300,7 +9299,7 @@
       <c r="A213" s="5"/>
     </row>
     <row r="214" spans="1:5" ht="28">
-      <c r="A214" s="16"/>
+      <c r="A214" s="17"/>
       <c r="B214" s="6" t="s">
         <v>72</v>
       </c>
@@ -9315,7 +9314,7 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="28">
-      <c r="A215" s="16"/>
+      <c r="A215" s="17"/>
       <c r="B215" s="6" t="s">
         <v>73</v>
       </c>
@@ -9423,7 +9422,7 @@
       <c r="A222" s="5"/>
     </row>
     <row r="223" spans="1:5" ht="28">
-      <c r="A223" s="16"/>
+      <c r="A223" s="17"/>
       <c r="B223" s="6" t="s">
         <v>72</v>
       </c>
@@ -9438,7 +9437,7 @@
       </c>
     </row>
     <row r="224" spans="1:5" ht="28">
-      <c r="A224" s="16"/>
+      <c r="A224" s="17"/>
       <c r="B224" s="6" t="s">
         <v>73</v>
       </c>
@@ -9557,7 +9556,7 @@
   <dimension ref="A1:AR186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AJ18" sqref="AJ18"/>
+      <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9688,7 +9687,7 @@
       <c r="AO3" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AP3" s="17">
+      <c r="AP3" s="16">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="AQ3">
@@ -9755,18 +9754,18 @@
       <c r="AK4">
         <v>23.463214285714297</v>
       </c>
-      <c r="AL4" s="17">
+      <c r="AL4" s="16">
         <f>AM4*$AQ$7</f>
         <v>26.123991163475711</v>
       </c>
-      <c r="AM4" s="17">
+      <c r="AM4" s="16">
         <f>AK4/(0.25+0.75*$AQ$7)</f>
         <v>15.480883652430052</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AP4" s="17">
+      <c r="AP4" s="16">
         <v>4.4499999999999998E-2</v>
       </c>
     </row>
@@ -9832,18 +9831,18 @@
       <c r="AK5">
         <v>23.075494285714299</v>
       </c>
-      <c r="AL5" s="17">
+      <c r="AL5" s="16">
         <f t="shared" ref="AL5:AL14" si="1">AM5*$AQ$7</f>
         <v>25.692302916053034</v>
       </c>
-      <c r="AM5" s="17">
+      <c r="AM5" s="16">
         <f t="shared" ref="AM5:AM14" si="2">AK5/(0.25+0.75*$AQ$7)</f>
         <v>15.225068394698095</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AP5" s="17">
+      <c r="AP5" s="16">
         <v>0.06</v>
       </c>
       <c r="AQ5">
@@ -9913,18 +9912,18 @@
       <c r="AK6">
         <v>22.919585714285734</v>
       </c>
-      <c r="AL6" s="17">
+      <c r="AL6" s="16">
         <f t="shared" si="1"/>
         <v>25.518713991163498</v>
       </c>
-      <c r="AM6" s="17">
+      <c r="AM6" s="16">
         <f t="shared" si="2"/>
         <v>15.122200883652443</v>
       </c>
       <c r="AO6" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AP6" s="17">
+      <c r="AP6" s="16">
         <v>0.05</v>
       </c>
     </row>
@@ -9990,18 +9989,18 @@
       <c r="AK7">
         <v>22.921637142857097</v>
       </c>
-      <c r="AL7" s="17">
+      <c r="AL7" s="16">
         <f t="shared" si="1"/>
         <v>25.520998055964604</v>
       </c>
-      <c r="AM7" s="17">
+      <c r="AM7" s="16">
         <f t="shared" si="2"/>
         <v>15.12355440353458</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AP7" s="17">
+      <c r="AP7" s="16">
         <v>0.24299999999999999</v>
       </c>
       <c r="AQ7" s="13">
@@ -10075,18 +10074,18 @@
       <c r="AK8">
         <v>20.757695604395632</v>
       </c>
-      <c r="AL8" s="17">
+      <c r="AL8" s="16">
         <f t="shared" si="1"/>
         <v>23.111661085306476</v>
       </c>
-      <c r="AM8" s="17">
+      <c r="AM8" s="16">
         <f t="shared" si="2"/>
         <v>13.695799161663098</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AP8" s="17">
+      <c r="AP8" s="16">
         <v>0.14399999999999999</v>
       </c>
     </row>
@@ -10155,18 +10154,18 @@
       <c r="AK9">
         <v>16.953210857142903</v>
       </c>
-      <c r="AL9" s="17">
+      <c r="AL9" s="16">
         <f t="shared" si="1"/>
         <v>18.875739923416837</v>
       </c>
-      <c r="AM9" s="17">
+      <c r="AM9" s="16">
         <f t="shared" si="2"/>
         <v>11.18562365832109</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AP9" s="17">
+      <c r="AP9" s="16">
         <v>0.04</v>
       </c>
     </row>
@@ -10229,11 +10228,11 @@
       <c r="AK10">
         <v>25.080637500000002</v>
       </c>
-      <c r="AL10" s="17">
+      <c r="AL10" s="16">
         <f t="shared" si="1"/>
         <v>27.924833505154641</v>
       </c>
-      <c r="AM10" s="17">
+      <c r="AM10" s="16">
         <f t="shared" si="2"/>
         <v>16.548049484536083</v>
       </c>
@@ -10300,11 +10299,11 @@
       <c r="AK11">
         <v>24.911009999999997</v>
       </c>
-      <c r="AL11" s="17">
+      <c r="AL11" s="16">
         <f t="shared" si="1"/>
         <v>27.735969896907211</v>
       </c>
-      <c r="AM11" s="17">
+      <c r="AM11" s="16">
         <f t="shared" si="2"/>
         <v>16.436130309278347</v>
       </c>
@@ -10368,11 +10367,11 @@
       <c r="AK12">
         <v>25.381300000000032</v>
       </c>
-      <c r="AL12" s="17">
+      <c r="AL12" s="16">
         <f t="shared" si="1"/>
         <v>28.259591752577354</v>
       </c>
-      <c r="AM12" s="17">
+      <c r="AM12" s="16">
         <f t="shared" si="2"/>
         <v>16.746424742268061</v>
       </c>
@@ -10442,11 +10441,11 @@
       <c r="AK13">
         <v>23.332343399999999</v>
       </c>
-      <c r="AL13" s="17">
+      <c r="AL13" s="16">
         <f t="shared" si="1"/>
         <v>25.978279249484537</v>
       </c>
-      <c r="AM13" s="17">
+      <c r="AM13" s="16">
         <f t="shared" si="2"/>
         <v>15.394535851546392</v>
       </c>
@@ -10513,11 +10512,11 @@
       <c r="AK14">
         <v>18.536480383564523</v>
       </c>
-      <c r="AL14" s="17">
+      <c r="AL14" s="16">
         <f t="shared" si="1"/>
         <v>20.638555478607923</v>
       </c>
-      <c r="AM14" s="17">
+      <c r="AM14" s="16">
         <f t="shared" si="2"/>
         <v>12.230255098434325</v>
       </c>

--- a/code/COSA_Data/electricity_price_data.xlsx
+++ b/code/COSA_Data/electricity_price_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="350">
   <si>
     <t>Rohdaten Tariferhebung ElCom 2020</t>
   </si>
@@ -1066,16 +1066,29 @@
   </si>
   <si>
     <t>av_last_10_years</t>
+  </si>
+  <si>
+    <t>yoy_abs_chg</t>
+  </si>
+  <si>
+    <t>yoy_chg</t>
+  </si>
+  <si>
+    <t>lin_projection</t>
+  </si>
+  <si>
+    <t>av_last_2_years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1123,6 +1136,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1185,7 +1205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1222,10 +1242,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6930,6 +6954,3971 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000016-8C62-4ECC-8378-97956865FA67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="671572463"/>
+        <c:axId val="671564143"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="671572463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671564143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="671564143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Electricity price [CHF/kWh]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671572463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="11"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="12"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="13"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="14"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="15"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="16"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="17"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="18"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="19"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="20"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="21"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="36000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$47:$AE$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.14241786428571399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14241786428571399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15498991607142903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17707033928571397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17849890285714298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21629237142857097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23147807142857096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23160115714285698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23463214285714298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="42000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$48:$AE$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.13945180628571396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13945180628571396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15172606757142904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17349362228571397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.174895691657143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21213084342857094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22704513942857096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.227607641142857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23075494285714299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="48000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$49:$AE$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.13825910571428601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13825910571428601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15050023642857133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17205536571428603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17346900514285696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21047964857142901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22528480857142827</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22600178285714334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22919585714285734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$50:$AE$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.13827479914285698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13827479914285698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15051636578571398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17207429014285697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17348636022857097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21049995771428601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22530655371428601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22602291257142906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22921637142857099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$51:$AE$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.11297115754945088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11297115754945088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1229038728956048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15043983369230784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15189181905494539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1808316138461539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20053787340659388</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20373431472527506</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20757695604395632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="66000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$52:$AE$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>9.2616338057142894E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2616338057142894E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1007894141142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.117015557657143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11847007385142902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14636688479999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15701847634285696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16454812182857098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16953210857142903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="72000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$53:$AE$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.154791151875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.154791151875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16846080609375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1919910684375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19347470324999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23370496124999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25002285749999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24826061624999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25080637500000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$54:$AE$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.15349350149999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15349350149999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.167019409875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19042625474999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19193195459999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.231810249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24800940599999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24651345299999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24911009999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="84000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$55:$AE$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.16096662499999964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16096662499999964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17515834375000036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18695373749999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20345606999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23670664999999963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25305910000000037</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25331039999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25381300000000029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$56:$AE$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.14768954849999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14768954849999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16067480287499999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16429392674999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18073933980000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.213207228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23034445199999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23219904599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.233323434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="96000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$57:$AE$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.10388235462194061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10388235462194061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11306148052331044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13572641458359089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15041692208222007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17571001342468898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17786401342468897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17946909493153651</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18536480383564524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="97000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$58:$AE$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.24390323670372993</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>0.25317433055031691</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>0.26244542439690388</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.27171651824349086</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.28098761209007783</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>0.29025870593666481</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>0.29952979978325178</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>0.30880089362983876</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>0.31807198747642573</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>0.32734308132301271</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>0.33661417516959968</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000">
+                  <c:v>0.34588526901618666</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000">
+                  <c:v>0.35515636286277363</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000">
+                  <c:v>0.36442745670936061</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000">
+                  <c:v>0.37369855055594758</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.38296964440253456</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>0.39224073824912153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="91000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$59:$AE$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.24002603670372993</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>0.24929713055031688</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>0.25856822439690386</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.26783931824349083</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.27711041209007781</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>0.28638150593666478</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>0.29565259978325176</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>0.30492369362983873</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>0.31419478747642571</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>0.32346588132301268</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>0.33273697516959966</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000">
+                  <c:v>0.34200806901618663</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000">
+                  <c:v>0.35127916286277361</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000">
+                  <c:v>0.36055025670936058</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000">
+                  <c:v>0.36982135055594756</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.37909244440253453</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>0.38836353824912151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$60:$AE$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.23846695098944429</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>0.24773804483603123</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>0.25700913868261821</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.26628023252920519</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.27555132637579216</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>0.28482242022237914</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>0.29409351406896611</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>0.30336460791555309</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>0.31263570176214006</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>0.32190679560872704</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>0.33117788945531401</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000">
+                  <c:v>0.34044898330190099</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000">
+                  <c:v>0.34972007714848796</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000">
+                  <c:v>0.35899117099507494</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000">
+                  <c:v>0.36826226484166191</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.37753335868824889</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>0.38680445253483586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="79000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$61:$AE$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.23848746527515793</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>0.24775855912174488</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>0.25702965296833186</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.26630074681491883</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.27557184066150581</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>0.28484293450809278</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>0.29411402835467976</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>0.30338512220126673</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>0.31265621604785371</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>0.32192730989444068</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>0.33119840374102766</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000">
+                  <c:v>0.34046949758761463</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000">
+                  <c:v>0.34974059143420161</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000">
+                  <c:v>0.35901168528078858</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000">
+                  <c:v>0.36828277912737556</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.37755387297396253</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>0.38682496682054951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$62:$AE$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.21684804989054327</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>0.22611914373713021</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>0.23539023758371716</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.24466133143030411</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.25393242527689108</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>0.26320351912347806</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>0.27247461297006503</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>0.28174570681665201</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>0.29101680066323898</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>0.30028789450982596</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>0.30955898835641293</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000">
+                  <c:v>0.31883008220299991</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000">
+                  <c:v>0.32810117604958688</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000">
+                  <c:v>0.33737226989617386</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000">
+                  <c:v>0.34664336374276083</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.35591445758934781</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>0.36518555143593479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$63:$AE$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.17880320241801598</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>0.18807429626460292</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>0.19734539011118987</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.20661648395777682</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.21588757780436377</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>0.22515867165095071</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>0.23442976549753766</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>0.24370085934412461</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>0.25297195319071158</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>0.26224304703729856</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>0.27151414088388554</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000">
+                  <c:v>0.28078523473047251</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000">
+                  <c:v>0.29005632857705949</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000">
+                  <c:v>0.29932742242364646</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000">
+                  <c:v>0.30859851627023344</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.31786961011682041</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>0.32714070396340739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="61000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$64:$AE$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.260077468846587</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>0.26934856269317398</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>0.27861965653976095</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.28789075038634793</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.2971618442329349</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>0.30643293807952188</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>0.31570403192610885</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>0.32497512577269583</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>0.3342462196192828</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>0.34351731346586978</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>0.35278840731245675</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000">
+                  <c:v>0.36205950115904373</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000">
+                  <c:v>0.3713305950056307</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000">
+                  <c:v>0.38060168885221768</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000">
+                  <c:v>0.38987278269880465</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.39914387654539163</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>0.4084149703919786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$65:$AE$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.25838119384658692</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>0.2676522876931739</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>0.27692338153976087</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.28619447538634785</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.29546556923293482</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>0.3047366630795218</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>0.31400775692610877</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>0.32327885077269575</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>0.33254994461928272</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>0.3418210384658697</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>0.35109213231245667</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000">
+                  <c:v>0.36036322615904365</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000">
+                  <c:v>0.36963432000563062</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000">
+                  <c:v>0.3789054138522176</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000">
+                  <c:v>0.38817650769880457</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.39744760154539155</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>0.40671869539197852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="49000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$66:$AE$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.26308409384658726</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>0.27235518769317424</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>0.28162628153976121</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.29089737538634819</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.30016846923293516</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>0.30943956307952214</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>0.31871065692610911</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>0.32798175077269609</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>0.33725284461928307</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>0.34652393846587004</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>0.35579503231245702</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000">
+                  <c:v>0.36506612615904399</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000">
+                  <c:v>0.37433722000563097</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000">
+                  <c:v>0.38360831385221794</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000">
+                  <c:v>0.39287940769880492</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.40215050154539189</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>0.41142159539197887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="43000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$67:$AE$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.24259452784658694</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>0.25186562169317389</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>0.26113671553976087</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.27040780938634784</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.27967890323293482</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>0.28894999707952179</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>0.29822109092610877</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>0.30749218477269574</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>0.31676327861928272</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>0.32603437246586969</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>0.33530546631245667</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000">
+                  <c:v>0.34457656015904364</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000">
+                  <c:v>0.35384765400563062</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000">
+                  <c:v>0.36311874785221759</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000">
+                  <c:v>0.37238984169880457</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.38166093554539154</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>0.39093202939197852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-B951-41E4-86A6-F54EF52B170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="37000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$68:$AE$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.19463589768223219</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>0.20390699152881914</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>0.21317808537540608</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.22244917922199303</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.23172027306857998</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>0.24099136691516693</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>0.2502624607617539</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>0.25953355460834088</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>0.26880464845492785</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>0.27807574230151483</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>0.2873468361481018</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000">
+                  <c:v>0.29661792999468878</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000">
+                  <c:v>0.30588902384127575</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000">
+                  <c:v>0.31516011768786273</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000">
+                  <c:v>0.3244312115344497</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.33370230538103668</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>0.34297339922762365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-B951-41E4-86A6-F54EF52B170E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7245,6 +11234,12 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
 </cs:colorStyle>
@@ -8282,6 +12277,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8344,6 +12855,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>536400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>109450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15071,7 +19614,7 @@
       <c r="K203" s="3"/>
     </row>
     <row r="204" spans="1:11" ht="28">
-      <c r="C204" s="20"/>
+      <c r="C204" s="21"/>
       <c r="D204" s="6" t="s">
         <v>72</v>
       </c>
@@ -15089,7 +19632,7 @@
       </c>
     </row>
     <row r="205" spans="1:11" ht="28">
-      <c r="C205" s="20"/>
+      <c r="C205" s="21"/>
       <c r="D205" s="6" t="s">
         <v>73</v>
       </c>
@@ -15218,7 +19761,7 @@
       <c r="C213" s="5"/>
     </row>
     <row r="214" spans="3:7" ht="28">
-      <c r="C214" s="20"/>
+      <c r="C214" s="21"/>
       <c r="D214" s="6" t="s">
         <v>72</v>
       </c>
@@ -15233,7 +19776,7 @@
       </c>
     </row>
     <row r="215" spans="3:7" ht="28">
-      <c r="C215" s="20"/>
+      <c r="C215" s="21"/>
       <c r="D215" s="6" t="s">
         <v>73</v>
       </c>
@@ -15341,7 +19884,7 @@
       <c r="C222" s="5"/>
     </row>
     <row r="223" spans="3:7" ht="28">
-      <c r="C223" s="20"/>
+      <c r="C223" s="21"/>
       <c r="D223" s="6" t="s">
         <v>72</v>
       </c>
@@ -15356,7 +19899,7 @@
       </c>
     </row>
     <row r="224" spans="3:7" ht="28">
-      <c r="C224" s="20"/>
+      <c r="C224" s="21"/>
       <c r="D224" s="6" t="s">
         <v>73</v>
       </c>
@@ -18541,10 +23084,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU37"/>
+  <dimension ref="A1:AU73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+    <sheetView tabSelected="1" topLeftCell="G46" workbookViewId="0">
+      <selection activeCell="AG66" sqref="AG66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -18554,7 +23097,9 @@
     <col min="3" max="3" width="99.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="16" customWidth="1"/>
-    <col min="15" max="31" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.26953125" customWidth="1"/>
+    <col min="18" max="31" width="6.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -18749,11 +23294,11 @@
       </c>
       <c r="O3" s="19"/>
       <c r="AL3" s="15">
-        <f>AM3*$AQ$6</f>
+        <f t="shared" ref="AL3:AL13" si="0">AM3*$AQ$6</f>
         <v>0.27458498452012398</v>
       </c>
       <c r="AM3" s="15">
-        <f>N3/($AT$5+$AT$6*$AQ$6)</f>
+        <f t="shared" ref="AM3:AM13" si="1">N3/($AT$5+$AT$6*$AQ$6)</f>
         <v>0.16271702786377717</v>
       </c>
       <c r="AO3" s="1" t="s">
@@ -18818,11 +23363,11 @@
       </c>
       <c r="O4" s="19"/>
       <c r="AL4" s="15">
-        <f>AM4*$AQ$6</f>
+        <f t="shared" si="0"/>
         <v>0.27004758018575864</v>
       </c>
       <c r="AM4" s="15">
-        <f>N4/($AT$5+$AT$6*$AQ$6)</f>
+        <f t="shared" si="1"/>
         <v>0.16002819566563475</v>
       </c>
       <c r="AO4" s="1" t="s">
@@ -18894,11 +23439,11 @@
       </c>
       <c r="O5" s="19"/>
       <c r="AL5" s="15">
-        <f>AM5*$AQ$6</f>
+        <f t="shared" si="0"/>
         <v>0.26822301547987637</v>
       </c>
       <c r="AM5" s="15">
-        <f>N5/($AT$5+$AT$6*$AQ$6)</f>
+        <f t="shared" si="1"/>
         <v>0.15894697213622302</v>
       </c>
       <c r="AO5" s="1" t="s">
@@ -18974,11 +23519,11 @@
       </c>
       <c r="O6" s="19"/>
       <c r="AL6" s="15">
-        <f>AM6*$AQ$6</f>
+        <f t="shared" si="0"/>
         <v>0.26824702291021618</v>
       </c>
       <c r="AM6" s="15">
-        <f>N6/($AT$5+$AT$6*$AQ$6)</f>
+        <f t="shared" si="1"/>
         <v>0.15896119876160958</v>
       </c>
       <c r="AO6" s="1" t="s">
@@ -19062,11 +23607,11 @@
       </c>
       <c r="O7" s="19"/>
       <c r="AL7" s="15">
-        <f>AM7*$AQ$6</f>
+        <f t="shared" si="0"/>
         <v>0.24292287735175072</v>
       </c>
       <c r="AM7" s="15">
-        <f>N7/($AT$5+$AT$6*$AQ$6)</f>
+        <f t="shared" si="1"/>
         <v>0.14395429768992635</v>
       </c>
       <c r="AO7" s="1" t="s">
@@ -19131,11 +23676,11 @@
       </c>
       <c r="O8" s="19"/>
       <c r="AL8" s="15">
-        <f>AM8*$AQ$6</f>
+        <f t="shared" si="0"/>
         <v>0.1983998050773999</v>
       </c>
       <c r="AM8" s="15">
-        <f>N8/($AT$5+$AT$6*$AQ$6)</f>
+        <f t="shared" si="1"/>
         <v>0.11757025486068143</v>
       </c>
       <c r="AO8" s="1" t="s">
@@ -19200,11 +23745,11 @@
       </c>
       <c r="O9" s="19"/>
       <c r="AL9" s="15">
-        <f>AM9*$AQ$6</f>
+        <f t="shared" si="0"/>
         <v>0.29351334287925696</v>
       </c>
       <c r="AM9" s="15">
-        <f>N9/($AT$5+$AT$6*$AQ$6)</f>
+        <f t="shared" si="1"/>
         <v>0.17393383281733746</v>
       </c>
     </row>
@@ -19263,11 +23808,11 @@
       </c>
       <c r="O10" s="19"/>
       <c r="AL10" s="15">
-        <f>AM10*$AQ$6</f>
+        <f t="shared" si="0"/>
         <v>0.29152822848297211</v>
       </c>
       <c r="AM10" s="15">
-        <f>N10/($AT$5+$AT$6*$AQ$6)</f>
+        <f t="shared" si="1"/>
         <v>0.17275746873065012</v>
       </c>
     </row>
@@ -19326,11 +23871,11 @@
       </c>
       <c r="O11" s="19"/>
       <c r="AL11" s="15">
-        <f>AM11*$AQ$6</f>
+        <f t="shared" si="0"/>
         <v>0.29703193188854521</v>
       </c>
       <c r="AM11" s="15">
-        <f>N11/($AT$5+$AT$6*$AQ$6)</f>
+        <f t="shared" si="1"/>
         <v>0.17601892260061938</v>
       </c>
     </row>
@@ -19389,11 +23934,11 @@
       </c>
       <c r="O12" s="19"/>
       <c r="AL12" s="15">
-        <f>AM12*$AQ$6</f>
+        <f t="shared" si="0"/>
         <v>0.27305343050154796</v>
       </c>
       <c r="AM12" s="15">
-        <f>N12/($AT$5+$AT$6*$AQ$6)</f>
+        <f t="shared" si="1"/>
         <v>0.16180944029721361</v>
       </c>
       <c r="AO12" s="1" t="s">
@@ -19458,11 +24003,11 @@
       </c>
       <c r="O13" s="19"/>
       <c r="AL13" s="15">
-        <f>AM13*$AQ$6</f>
+        <f t="shared" si="0"/>
         <v>0.21692847012344857</v>
       </c>
       <c r="AM13" s="15">
-        <f>N13/($AT$5+$AT$6*$AQ$6)</f>
+        <f t="shared" si="1"/>
         <v>0.12855020451759916</v>
       </c>
     </row>
@@ -19472,71 +24017,71 @@
         <v>341</v>
       </c>
       <c r="O14" s="15">
-        <f>N3*(1+$O$37)</f>
+        <f>N3*(1+$P$72)</f>
         <v>0.24989848768785899</v>
       </c>
       <c r="P14" s="15">
-        <f>O14*(1+$O$37)</f>
+        <f>O14*(1+$P$72)</f>
         <v>0.26615813753489681</v>
       </c>
       <c r="Q14" s="15">
-        <f t="shared" ref="Q14:AE14" si="0">P14*(1+$O$37)</f>
+        <f>P14*(1+$P$72)</f>
         <v>0.28347572180800645</v>
       </c>
       <c r="R14" s="15">
-        <f t="shared" si="0"/>
+        <f>Q14*(1+$P$72)</f>
         <v>0.30192007503071072</v>
       </c>
       <c r="S14" s="15">
-        <f t="shared" si="0"/>
+        <f>R14*(1+$P$72)</f>
         <v>0.32156451044611256</v>
       </c>
       <c r="T14" s="15">
-        <f t="shared" si="0"/>
+        <f>S14*(1+$P$72)</f>
         <v>0.34248711142486965</v>
       </c>
       <c r="U14" s="15">
-        <f t="shared" si="0"/>
+        <f>T14*(1+$P$72)</f>
         <v>0.3647710418336344</v>
       </c>
       <c r="V14" s="15">
-        <f t="shared" si="0"/>
+        <f>U14*(1+$P$72)</f>
         <v>0.38850487659762217</v>
       </c>
       <c r="W14" s="15">
-        <f t="shared" si="0"/>
+        <f>V14*(1+$P$72)</f>
         <v>0.41378295377123953</v>
       </c>
       <c r="X14" s="15">
-        <f t="shared" si="0"/>
+        <f>W14*(1+$P$72)</f>
         <v>0.44070574951619457</v>
       </c>
       <c r="Y14" s="15">
-        <f t="shared" si="0"/>
+        <f>X14*(1+$P$72)</f>
         <v>0.46938027747756489</v>
       </c>
       <c r="Z14" s="15">
-        <f t="shared" si="0"/>
+        <f>Y14*(1+$P$72)</f>
         <v>0.49992051414527738</v>
       </c>
       <c r="AA14" s="15">
-        <f t="shared" si="0"/>
+        <f>Z14*(1+$P$72)</f>
         <v>0.53244785189174038</v>
       </c>
       <c r="AB14" s="15">
-        <f t="shared" si="0"/>
+        <f>AA14*(1+$P$72)</f>
         <v>0.56709158148637828</v>
       </c>
       <c r="AC14" s="15">
-        <f t="shared" si="0"/>
+        <f>AB14*(1+$P$72)</f>
         <v>0.60398940600498341</v>
       </c>
       <c r="AD14" s="15">
-        <f t="shared" si="0"/>
+        <f>AC14*(1+$P$72)</f>
         <v>0.64328798817658939</v>
       </c>
       <c r="AE14" s="15">
-        <f t="shared" si="0"/>
+        <f>AD14*(1+$P$72)</f>
         <v>0.68514353334347955</v>
       </c>
     </row>
@@ -19546,71 +24091,71 @@
         <v>341</v>
       </c>
       <c r="O15" s="15">
-        <f t="shared" ref="O15:O24" si="1">N4*(1+$O$37)</f>
+        <f>N4*(1+$P$72)</f>
         <v>0.24576901759623013</v>
       </c>
       <c r="P15" s="15">
-        <f t="shared" ref="P15:AE15" si="2">O15*(1+$O$37)</f>
+        <f>O15*(1+$P$72)</f>
         <v>0.26175998339333656</v>
       </c>
       <c r="Q15" s="15">
-        <f t="shared" si="2"/>
+        <f>P15*(1+$P$72)</f>
         <v>0.2787914016837037</v>
       </c>
       <c r="R15" s="15">
-        <f t="shared" si="2"/>
+        <f>Q15*(1+$P$72)</f>
         <v>0.2969309695285639</v>
       </c>
       <c r="S15" s="15">
-        <f t="shared" si="2"/>
+        <f>R15*(1+$P$72)</f>
         <v>0.31625078869972434</v>
       </c>
       <c r="T15" s="15">
-        <f t="shared" si="2"/>
+        <f>S15*(1+$P$72)</f>
         <v>0.33682765227214395</v>
       </c>
       <c r="U15" s="15">
-        <f t="shared" si="2"/>
+        <f>T15*(1+$P$72)</f>
         <v>0.35874334986366219</v>
       </c>
       <c r="V15" s="15">
-        <f t="shared" si="2"/>
+        <f>U15*(1+$P$72)</f>
         <v>0.3820849927351565</v>
       </c>
       <c r="W15" s="15">
-        <f t="shared" si="2"/>
+        <f>V15*(1+$P$72)</f>
         <v>0.40694536004334753</v>
       </c>
       <c r="X15" s="15">
-        <f t="shared" si="2"/>
+        <f>W15*(1+$P$72)</f>
         <v>0.43342326762254985</v>
       </c>
       <c r="Y15" s="15">
-        <f t="shared" si="2"/>
+        <f>X15*(1+$P$72)</f>
         <v>0.46162396076121426</v>
       </c>
       <c r="Z15" s="15">
-        <f t="shared" si="2"/>
+        <f>Y15*(1+$P$72)</f>
         <v>0.49165953253448325</v>
       </c>
       <c r="AA15" s="15">
-        <f t="shared" si="2"/>
+        <f>Z15*(1+$P$72)</f>
         <v>0.52364936935556206</v>
       </c>
       <c r="AB15" s="15">
-        <f t="shared" si="2"/>
+        <f>AA15*(1+$P$72)</f>
         <v>0.55772062551689838</v>
       </c>
       <c r="AC15" s="15">
-        <f t="shared" si="2"/>
+        <f>AB15*(1+$P$72)</f>
         <v>0.59400872860739273</v>
       </c>
       <c r="AD15" s="15">
-        <f t="shared" si="2"/>
+        <f>AC15*(1+$P$72)</f>
         <v>0.63265791781458913</v>
       </c>
       <c r="AE15" s="15">
-        <f t="shared" si="2"/>
+        <f>AD15*(1+$P$72)</f>
         <v>0.67382181725150836</v>
       </c>
     </row>
@@ -19620,71 +24165,71 @@
         <v>341</v>
       </c>
       <c r="O16" s="15">
-        <f t="shared" si="1"/>
+        <f>N5*(1+$P$72)</f>
         <v>0.2441084899403371</v>
       </c>
       <c r="P16" s="15">
-        <f t="shared" ref="P16:AE16" si="3">O16*(1+$O$37)</f>
+        <f>O16*(1+$P$72)</f>
         <v>0.25999141347397908</v>
       </c>
       <c r="Q16" s="15">
-        <f t="shared" si="3"/>
+        <f>P16*(1+$P$72)</f>
         <v>0.27690775972895765</v>
       </c>
       <c r="R16" s="15">
-        <f t="shared" si="3"/>
+        <f>Q16*(1+$P$72)</f>
         <v>0.29492476837426157</v>
       </c>
       <c r="S16" s="15">
-        <f t="shared" si="3"/>
+        <f>R16*(1+$P$72)</f>
         <v>0.31411405402921916</v>
       </c>
       <c r="T16" s="15">
-        <f t="shared" si="3"/>
+        <f>S16*(1+$P$72)</f>
         <v>0.33455189091972531</v>
       </c>
       <c r="U16" s="15">
-        <f t="shared" si="3"/>
+        <f>T16*(1+$P$72)</f>
         <v>0.35631951605563122</v>
       </c>
       <c r="V16" s="15">
-        <f t="shared" si="3"/>
+        <f>U16*(1+$P$72)</f>
         <v>0.37950345213437686</v>
       </c>
       <c r="W16" s="15">
-        <f t="shared" si="3"/>
+        <f>V16*(1+$P$72)</f>
         <v>0.40419585145435416</v>
       </c>
       <c r="X16" s="15">
-        <f t="shared" si="3"/>
+        <f>W16*(1+$P$72)</f>
         <v>0.43049486220499983</v>
       </c>
       <c r="Y16" s="15">
-        <f t="shared" si="3"/>
+        <f>X16*(1+$P$72)</f>
         <v>0.45850501858956028</v>
       </c>
       <c r="Z16" s="15">
-        <f t="shared" si="3"/>
+        <f>Y16*(1+$P$72)</f>
         <v>0.48833765633120119</v>
       </c>
       <c r="AA16" s="15">
-        <f t="shared" si="3"/>
+        <f>Z16*(1+$P$72)</f>
         <v>0.52011135521403029</v>
       </c>
       <c r="AB16" s="15">
-        <f t="shared" si="3"/>
+        <f>AA16*(1+$P$72)</f>
         <v>0.5539524104180602</v>
       </c>
       <c r="AC16" s="15">
-        <f t="shared" si="3"/>
+        <f>AB16*(1+$P$72)</f>
         <v>0.58999533452158948</v>
       </c>
       <c r="AD16" s="15">
-        <f t="shared" si="3"/>
+        <f>AC16*(1+$P$72)</f>
         <v>0.62838339216637784</v>
       </c>
       <c r="AE16" s="15">
-        <f t="shared" si="3"/>
+        <f>AD16*(1+$P$72)</f>
         <v>0.66926916951082205</v>
       </c>
     </row>
@@ -19694,71 +24239,71 @@
         <v>341</v>
       </c>
       <c r="O17" s="15">
-        <f t="shared" si="1"/>
+        <f>N6*(1+$P$72)</f>
         <v>0.24413033898844028</v>
       </c>
       <c r="P17" s="15">
-        <f t="shared" ref="P17:AE17" si="4">O17*(1+$O$37)</f>
+        <f>O17*(1+$P$72)</f>
         <v>0.26001468413081197</v>
       </c>
       <c r="Q17" s="15">
-        <f t="shared" si="4"/>
+        <f>P17*(1+$P$72)</f>
         <v>0.27693254449151933</v>
       </c>
       <c r="R17" s="15">
-        <f t="shared" si="4"/>
+        <f>Q17*(1+$P$72)</f>
         <v>0.29495116575786995</v>
       </c>
       <c r="S17" s="15">
-        <f t="shared" si="4"/>
+        <f>R17*(1+$P$72)</f>
         <v>0.3141421689590933</v>
       </c>
       <c r="T17" s="15">
-        <f t="shared" si="4"/>
+        <f>S17*(1+$P$72)</f>
         <v>0.33458183514804563</v>
       </c>
       <c r="U17" s="15">
-        <f t="shared" si="4"/>
+        <f>T17*(1+$P$72)</f>
         <v>0.35635140860573589</v>
       </c>
       <c r="V17" s="15">
-        <f t="shared" si="4"/>
+        <f>U17*(1+$P$72)</f>
         <v>0.37953741977385974</v>
       </c>
       <c r="W17" s="15">
-        <f t="shared" si="4"/>
+        <f>V17*(1+$P$72)</f>
         <v>0.40423202919894502</v>
       </c>
       <c r="X17" s="15">
-        <f t="shared" si="4"/>
+        <f>W17*(1+$P$72)</f>
         <v>0.43053339385522954</v>
       </c>
       <c r="Y17" s="15">
-        <f t="shared" si="4"/>
+        <f>X17*(1+$P$72)</f>
         <v>0.45854605730234393</v>
       </c>
       <c r="Z17" s="15">
-        <f t="shared" si="4"/>
+        <f>Y17*(1+$P$72)</f>
         <v>0.48838136522861147</v>
       </c>
       <c r="AA17" s="15">
-        <f t="shared" si="4"/>
+        <f>Z17*(1+$P$72)</f>
         <v>0.5201579080316806</v>
       </c>
       <c r="AB17" s="15">
-        <f t="shared" si="4"/>
+        <f>AA17*(1+$P$72)</f>
         <v>0.55400199219567503</v>
       </c>
       <c r="AC17" s="15">
-        <f t="shared" si="4"/>
+        <f>AB17*(1+$P$72)</f>
         <v>0.59004814233850633</v>
       </c>
       <c r="AD17" s="15">
-        <f t="shared" si="4"/>
+        <f>AC17*(1+$P$72)</f>
         <v>0.62843963592490526</v>
       </c>
       <c r="AE17" s="15">
-        <f t="shared" si="4"/>
+        <f>AD17*(1+$P$72)</f>
         <v>0.66932907277056619</v>
       </c>
     </row>
@@ -19768,71 +24313,71 @@
         <v>341</v>
       </c>
       <c r="O18" s="15">
-        <f t="shared" si="1"/>
+        <f>N7*(1+$P$72)</f>
         <v>0.2210829546308884</v>
       </c>
       <c r="P18" s="15">
-        <f t="shared" ref="P18:AE18" si="5">O18*(1+$O$37)</f>
+        <f>O18*(1+$P$72)</f>
         <v>0.2354677212723611</v>
       </c>
       <c r="Q18" s="15">
-        <f t="shared" si="5"/>
+        <f>P18*(1+$P$72)</f>
         <v>0.2507884330285311</v>
       </c>
       <c r="R18" s="15">
-        <f t="shared" si="5"/>
+        <f>Q18*(1+$P$72)</f>
         <v>0.26710598718605999</v>
       </c>
       <c r="S18" s="15">
-        <f t="shared" si="5"/>
+        <f>R18*(1+$P$72)</f>
         <v>0.28448524331472241</v>
       </c>
       <c r="T18" s="15">
-        <f t="shared" si="5"/>
+        <f>S18*(1+$P$72)</f>
         <v>0.30299528107343221</v>
       </c>
       <c r="U18" s="15">
-        <f t="shared" si="5"/>
+        <f>T18*(1+$P$72)</f>
         <v>0.32270967479042212</v>
       </c>
       <c r="V18" s="15">
-        <f t="shared" si="5"/>
+        <f>U18*(1+$P$72)</f>
         <v>0.34370678590898868</v>
       </c>
       <c r="W18" s="15">
-        <f t="shared" si="5"/>
+        <f>V18*(1+$P$72)</f>
         <v>0.36607007446122453</v>
       </c>
       <c r="X18" s="15">
-        <f t="shared" si="5"/>
+        <f>W18*(1+$P$72)</f>
         <v>0.38988843080779534</v>
       </c>
       <c r="Y18" s="15">
-        <f t="shared" si="5"/>
+        <f>X18*(1+$P$72)</f>
         <v>0.41525652896237164</v>
       </c>
       <c r="Z18" s="15">
-        <f t="shared" si="5"/>
+        <f>Y18*(1+$P$72)</f>
         <v>0.44227520290512118</v>
       </c>
       <c r="AA18" s="15">
-        <f t="shared" si="5"/>
+        <f>Z18*(1+$P$72)</f>
         <v>0.47105184738104627</v>
       </c>
       <c r="AB18" s="15">
-        <f t="shared" si="5"/>
+        <f>AA18*(1+$P$72)</f>
         <v>0.5017008447762723</v>
       </c>
       <c r="AC18" s="15">
-        <f t="shared" si="5"/>
+        <f>AB18*(1+$P$72)</f>
         <v>0.53434401976904988</v>
       </c>
       <c r="AD18" s="15">
-        <f t="shared" si="5"/>
+        <f>AC18*(1+$P$72)</f>
         <v>0.5691111235626336</v>
       </c>
       <c r="AE18" s="15">
-        <f t="shared" si="5"/>
+        <f>AD18*(1+$P$72)</f>
         <v>0.6061403496247818</v>
       </c>
     </row>
@@ -19842,71 +24387,71 @@
         <v>341</v>
       </c>
       <c r="O19" s="15">
-        <f t="shared" si="1"/>
+        <f>N8*(1+$P$72)</f>
         <v>0.18056271843508109</v>
       </c>
       <c r="P19" s="15">
-        <f t="shared" ref="P19:AE19" si="6">O19*(1+$O$37)</f>
+        <f>O19*(1+$P$72)</f>
         <v>0.1923110351389854</v>
       </c>
       <c r="Q19" s="15">
-        <f t="shared" si="6"/>
+        <f>P19*(1+$P$72)</f>
         <v>0.20482375629233235</v>
       </c>
       <c r="R19" s="15">
-        <f t="shared" si="6"/>
+        <f>Q19*(1+$P$72)</f>
         <v>0.21815061788514115</v>
       </c>
       <c r="S19" s="15">
-        <f t="shared" si="6"/>
+        <f>R19*(1+$P$72)</f>
         <v>0.23234459198056609</v>
       </c>
       <c r="T19" s="15">
-        <f t="shared" si="6"/>
+        <f>S19*(1+$P$72)</f>
         <v>0.24746209727005652</v>
       </c>
       <c r="U19" s="15">
-        <f t="shared" si="6"/>
+        <f>T19*(1+$P$72)</f>
         <v>0.26356322332829241</v>
       </c>
       <c r="V19" s="15">
-        <f t="shared" si="6"/>
+        <f>U19*(1+$P$72)</f>
         <v>0.28071196945927135</v>
       </c>
       <c r="W19" s="15">
-        <f t="shared" si="6"/>
+        <f>V19*(1+$P$72)</f>
         <v>0.2989764990829209</v>
       </c>
       <c r="X19" s="15">
-        <f t="shared" si="6"/>
+        <f>W19*(1+$P$72)</f>
         <v>0.31842941067338065</v>
       </c>
       <c r="Y19" s="15">
-        <f t="shared" si="6"/>
+        <f>X19*(1+$P$72)</f>
         <v>0.33914802632588875</v>
       </c>
       <c r="Z19" s="15">
-        <f t="shared" si="6"/>
+        <f>Y19*(1+$P$72)</f>
         <v>0.36121469909927834</v>
       </c>
       <c r="AA19" s="15">
-        <f t="shared" si="6"/>
+        <f>Z19*(1+$P$72)</f>
         <v>0.38471714035571947</v>
       </c>
       <c r="AB19" s="15">
-        <f t="shared" si="6"/>
+        <f>AA19*(1+$P$72)</f>
         <v>0.40974876839882746</v>
       </c>
       <c r="AC19" s="15">
-        <f t="shared" si="6"/>
+        <f>AB19*(1+$P$72)</f>
         <v>0.43640907979591642</v>
       </c>
       <c r="AD19" s="15">
-        <f t="shared" si="6"/>
+        <f>AC19*(1+$P$72)</f>
         <v>0.46480404486034216</v>
       </c>
       <c r="AE19" s="15">
-        <f t="shared" si="6"/>
+        <f>AD19*(1+$P$72)</f>
         <v>0.49504652886591138</v>
       </c>
     </row>
@@ -19916,71 +24461,71 @@
         <v>341</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="1"/>
+        <f>N9*(1+$P$72)</f>
         <v>0.26712509655224326</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" ref="P20:AE20" si="7">O20*(1+$O$37)</f>
+        <f>O20*(1+$P$72)</f>
         <v>0.28450559603217929</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="7"/>
+        <f>P20*(1+$P$72)</f>
         <v>0.30301695804083689</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="7"/>
+        <f>Q20*(1+$P$72)</f>
         <v>0.32273276217012264</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="7"/>
+        <f>R20*(1+$P$72)</f>
         <v>0.34373137546948784</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="7"/>
+        <f>S20*(1+$P$72)</f>
         <v>0.3660962639419445</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="7"/>
+        <f>T20*(1+$P$72)</f>
         <v>0.38991632430757572</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="7"/>
+        <f>U20*(1+$P$72)</f>
         <v>0.41528623735324494</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="7"/>
+        <f>V20*(1+$P$72)</f>
         <v>0.44230684427301081</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" si="7"/>
+        <f>W20*(1+$P$72)</f>
         <v>0.47108554749513853</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" si="7"/>
+        <f>X20*(1+$P$72)</f>
         <v>0.50173673758892789</v>
       </c>
       <c r="Z20" s="15">
-        <f t="shared" si="7"/>
+        <f>Y20*(1+$P$72)</f>
         <v>0.53438224794824252</v>
       </c>
       <c r="AA20" s="15">
-        <f t="shared" si="7"/>
+        <f>Z20*(1+$P$72)</f>
         <v>0.56915183905903133</v>
       </c>
       <c r="AB20" s="15">
-        <f t="shared" si="7"/>
+        <f>AA20*(1+$P$72)</f>
         <v>0.60618371427572582</v>
       </c>
       <c r="AC20" s="15">
-        <f t="shared" si="7"/>
+        <f>AB20*(1+$P$72)</f>
         <v>0.64562506915663798</v>
       </c>
       <c r="AD20" s="15">
-        <f t="shared" si="7"/>
+        <f>AC20*(1+$P$72)</f>
         <v>0.68763267654187676</v>
       </c>
       <c r="AE20" s="15">
-        <f t="shared" si="7"/>
+        <f>AD20*(1+$P$72)</f>
         <v>0.73237350969936976</v>
       </c>
     </row>
@@ -19990,71 +24535,71 @@
         <v>341</v>
       </c>
       <c r="O21" s="15">
-        <f t="shared" si="1"/>
+        <f>N10*(1+$P$72)</f>
         <v>0.2653184533871556</v>
       </c>
       <c r="P21" s="15">
-        <f t="shared" ref="P21:AE21" si="8">O21*(1+$O$37)</f>
+        <f>O21*(1+$P$72)</f>
         <v>0.28258140359524669</v>
       </c>
       <c r="Q21" s="15">
-        <f t="shared" si="8"/>
+        <f>P21*(1+$P$72)</f>
         <v>0.30096756798645447</v>
       </c>
       <c r="R21" s="15">
-        <f t="shared" si="8"/>
+        <f>Q21*(1+$P$72)</f>
         <v>0.32055002851293346</v>
       </c>
       <c r="S21" s="15">
-        <f t="shared" si="8"/>
+        <f>R21*(1+$P$72)</f>
         <v>0.34140662220544304</v>
       </c>
       <c r="T21" s="15">
-        <f t="shared" si="8"/>
+        <f>S21*(1+$P$72)</f>
         <v>0.36362025056262703</v>
       </c>
       <c r="U21" s="15">
-        <f t="shared" si="8"/>
+        <f>T21*(1+$P$72)</f>
         <v>0.38727920907071289</v>
       </c>
       <c r="V21" s="15">
-        <f t="shared" si="8"/>
+        <f>U21*(1+$P$72)</f>
         <v>0.4124775381634162</v>
       </c>
       <c r="W21" s="15">
-        <f t="shared" si="8"/>
+        <f>V21*(1+$P$72)</f>
         <v>0.43931539701705807</v>
       </c>
       <c r="X21" s="15">
-        <f t="shared" si="8"/>
+        <f>W21*(1+$P$72)</f>
         <v>0.46789946166666901</v>
       </c>
       <c r="Y21" s="15">
-        <f t="shared" si="8"/>
+        <f>X21*(1+$P$72)</f>
         <v>0.49834334902552452</v>
       </c>
       <c r="Z21" s="15">
-        <f t="shared" si="8"/>
+        <f>Y21*(1+$P$72)</f>
         <v>0.5307680684935201</v>
       </c>
       <c r="AA21" s="15">
-        <f t="shared" si="8"/>
+        <f>Z21*(1+$P$72)</f>
         <v>0.56530250294945339</v>
       </c>
       <c r="AB21" s="15">
-        <f t="shared" si="8"/>
+        <f>AA21*(1+$P$72)</f>
         <v>0.60208392103907848</v>
       </c>
       <c r="AC21" s="15">
-        <f t="shared" si="8"/>
+        <f>AB21*(1+$P$72)</f>
         <v>0.64125852279519224</v>
       </c>
       <c r="AD21" s="15">
-        <f t="shared" si="8"/>
+        <f>AC21*(1+$P$72)</f>
         <v>0.6829820207585019</v>
       </c>
       <c r="AE21" s="15">
-        <f t="shared" si="8"/>
+        <f>AD21*(1+$P$72)</f>
         <v>0.72742025890913264</v>
       </c>
     </row>
@@ -20064,71 +24609,71 @@
         <v>341</v>
       </c>
       <c r="O22" s="15">
-        <f t="shared" si="1"/>
+        <f>N11*(1+$P$72)</f>
         <v>0.27032734766496502</v>
       </c>
       <c r="P22" s="15">
-        <f t="shared" ref="P22:AE22" si="9">O22*(1+$O$37)</f>
+        <f>O22*(1+$P$72)</f>
         <v>0.28791620167436177</v>
       </c>
       <c r="Q22" s="15">
-        <f t="shared" si="9"/>
+        <f>P22*(1+$P$72)</f>
         <v>0.30664947480389615</v>
       </c>
       <c r="R22" s="15">
-        <f t="shared" si="9"/>
+        <f>Q22*(1+$P$72)</f>
         <v>0.32660162870535264</v>
       </c>
       <c r="S22" s="15">
-        <f t="shared" si="9"/>
+        <f>R22*(1+$P$72)</f>
         <v>0.34785196987930317</v>
       </c>
       <c r="T22" s="15">
-        <f t="shared" si="9"/>
+        <f>S22*(1+$P$72)</f>
         <v>0.37048496490528549</v>
       </c>
       <c r="U22" s="15">
-        <f t="shared" si="9"/>
+        <f>T22*(1+$P$72)</f>
         <v>0.39459057618243887</v>
       </c>
       <c r="V22" s="15">
-        <f t="shared" si="9"/>
+        <f>U22*(1+$P$72)</f>
         <v>0.42026461951511113</v>
       </c>
       <c r="W22" s="15">
-        <f t="shared" si="9"/>
+        <f>V22*(1+$P$72)</f>
         <v>0.44760914496477944</v>
       </c>
       <c r="X22" s="15">
-        <f t="shared" si="9"/>
+        <f>W22*(1+$P$72)</f>
         <v>0.47673284248210895</v>
       </c>
       <c r="Y22" s="15">
-        <f t="shared" si="9"/>
+        <f>X22*(1+$P$72)</f>
         <v>0.50775147393146891</v>
       </c>
       <c r="Z22" s="15">
-        <f t="shared" si="9"/>
+        <f>Y22*(1+$P$72)</f>
         <v>0.54078833322513209</v>
       </c>
       <c r="AA22" s="15">
-        <f t="shared" si="9"/>
+        <f>Z22*(1+$P$72)</f>
         <v>0.57597473639611474</v>
       </c>
       <c r="AB22" s="15">
-        <f t="shared" si="9"/>
+        <f>AA22*(1+$P$72)</f>
         <v>0.61345054355761486</v>
       </c>
       <c r="AC22" s="15">
-        <f t="shared" si="9"/>
+        <f>AB22*(1+$P$72)</f>
         <v>0.6533647148237518</v>
       </c>
       <c r="AD22" s="15">
-        <f t="shared" si="9"/>
+        <f>AC22*(1+$P$72)</f>
         <v>0.69587590240129893</v>
       </c>
       <c r="AE22" s="15">
-        <f t="shared" si="9"/>
+        <f>AD22*(1+$P$72)</f>
         <v>0.74115308120587586</v>
       </c>
     </row>
@@ -20138,71 +24683,71 @@
         <v>341</v>
       </c>
       <c r="O23" s="15">
-        <f t="shared" si="1"/>
+        <f>N12*(1+$P$72)</f>
         <v>0.24850462766407333</v>
       </c>
       <c r="P23" s="15">
-        <f t="shared" ref="P23:AE23" si="10">O23*(1+$O$37)</f>
+        <f>O23*(1+$P$72)</f>
         <v>0.26467358598219382</v>
       </c>
       <c r="Q23" s="15">
-        <f t="shared" si="10"/>
+        <f>P23*(1+$P$72)</f>
         <v>0.2818945778803349</v>
       </c>
       <c r="R23" s="15">
-        <f t="shared" si="10"/>
+        <f>Q23*(1+$P$72)</f>
         <v>0.30023605394335895</v>
       </c>
       <c r="S23" s="15">
-        <f t="shared" si="10"/>
+        <f>R23*(1+$P$72)</f>
         <v>0.31977091849473233</v>
       </c>
       <c r="T23" s="15">
-        <f t="shared" si="10"/>
+        <f>S23*(1+$P$72)</f>
         <v>0.34057681937911216</v>
       </c>
       <c r="U23" s="15">
-        <f t="shared" si="10"/>
+        <f>T23*(1+$P$72)</f>
         <v>0.36273645659964282</v>
       </c>
       <c r="V23" s="15">
-        <f t="shared" si="10"/>
+        <f>U23*(1+$P$72)</f>
         <v>0.3863379110367437</v>
       </c>
       <c r="W23" s="15">
-        <f t="shared" si="10"/>
+        <f>V23*(1+$P$72)</f>
         <v>0.41147499455499137</v>
       </c>
       <c r="X23" s="15">
-        <f t="shared" si="10"/>
+        <f>W23*(1+$P$72)</f>
         <v>0.43824762288971253</v>
       </c>
       <c r="Y23" s="15">
-        <f t="shared" si="10"/>
+        <f>X23*(1+$P$72)</f>
         <v>0.46676221279545044</v>
       </c>
       <c r="Z23" s="15">
-        <f t="shared" si="10"/>
+        <f>Y23*(1+$P$72)</f>
         <v>0.49713210503490352</v>
       </c>
       <c r="AA23" s="15">
-        <f t="shared" si="10"/>
+        <f>Z23*(1+$P$72)</f>
         <v>0.52947801488964752</v>
       </c>
       <c r="AB23" s="15">
-        <f t="shared" si="10"/>
+        <f>AA23*(1+$P$72)</f>
         <v>0.56392851198334637</v>
       </c>
       <c r="AC23" s="15">
-        <f t="shared" si="10"/>
+        <f>AB23*(1+$P$72)</f>
         <v>0.6006205313246693</v>
       </c>
       <c r="AD23" s="15">
-        <f t="shared" si="10"/>
+        <f>AC23*(1+$P$72)</f>
         <v>0.63969991760122491</v>
       </c>
       <c r="AE23" s="15">
-        <f t="shared" si="10"/>
+        <f>AD23*(1+$P$72)</f>
         <v>0.68132200488799077</v>
       </c>
     </row>
@@ -20212,71 +24757,71 @@
         <v>341</v>
       </c>
       <c r="O24" s="15">
-        <f t="shared" si="1"/>
+        <f>N13*(1+$P$72)</f>
         <v>0.19742556831732991</v>
       </c>
       <c r="P24" s="15">
-        <f t="shared" ref="P24:AE24" si="11">O24*(1+$O$37)</f>
+        <f>O24*(1+$P$72)</f>
         <v>0.21027106666905196</v>
       </c>
       <c r="Q24" s="15">
-        <f t="shared" si="11"/>
+        <f>P24*(1+$P$72)</f>
         <v>0.22395235761496765</v>
       </c>
       <c r="R24" s="15">
-        <f t="shared" si="11"/>
+        <f>Q24*(1+$P$72)</f>
         <v>0.23852382201609007</v>
       </c>
       <c r="S24" s="15">
-        <f t="shared" si="11"/>
+        <f>R24*(1+$P$72)</f>
         <v>0.25404337902518681</v>
       </c>
       <c r="T24" s="15">
-        <f t="shared" si="11"/>
+        <f>S24*(1+$P$72)</f>
         <v>0.27057271630580026</v>
       </c>
       <c r="U24" s="15">
-        <f t="shared" si="11"/>
+        <f>T24*(1+$P$72)</f>
         <v>0.28817753523047257</v>
       </c>
       <c r="V24" s="15">
-        <f t="shared" si="11"/>
+        <f>U24*(1+$P$72)</f>
         <v>0.30692781203279806</v>
       </c>
       <c r="W24" s="15">
-        <f t="shared" si="11"/>
+        <f>V24*(1+$P$72)</f>
         <v>0.32689807595133874</v>
       </c>
       <c r="X24" s="15">
-        <f t="shared" si="11"/>
+        <f>W24*(1+$P$72)</f>
         <v>0.34816770547097897</v>
       </c>
       <c r="Y24" s="15">
-        <f t="shared" si="11"/>
+        <f>X24*(1+$P$72)</f>
         <v>0.37082124383922954</v>
       </c>
       <c r="Z24" s="15">
-        <f t="shared" si="11"/>
+        <f>Y24*(1+$P$72)</f>
         <v>0.394948735111606</v>
       </c>
       <c r="AA24" s="15">
-        <f t="shared" si="11"/>
+        <f>Z24*(1+$P$72)</f>
         <v>0.42064608206180598</v>
       </c>
       <c r="AB24" s="15">
-        <f t="shared" si="11"/>
+        <f>AA24*(1+$P$72)</f>
         <v>0.44801542737931904</v>
       </c>
       <c r="AC24" s="15">
-        <f t="shared" si="11"/>
+        <f>AB24*(1+$P$72)</f>
         <v>0.47716555966966595</v>
       </c>
       <c r="AD24" s="15">
-        <f t="shared" si="11"/>
+        <f>AC24*(1+$P$72)</f>
         <v>0.50821234587105169</v>
       </c>
       <c r="AE24" s="15">
-        <f t="shared" si="11"/>
+        <f>AD24*(1+$P$72)</f>
         <v>0.54127919180621586</v>
       </c>
     </row>
@@ -20284,51 +24829,54 @@
       <c r="E25" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="20">
         <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="20">
         <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)</f>
         <v>8.8275806190250244E-2</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="20">
         <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)</f>
         <v>0.14246361165915417</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="20">
         <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)</f>
         <v>8.0677745193899024E-3</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="20">
         <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)</f>
         <v>0.21172941663218514</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="20">
         <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)</f>
         <v>7.0209133589415426E-2</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="20">
         <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)</f>
         <v>5.3173811897769263E-4</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="20">
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)</f>
         <v>1.3087092273966597E-2</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="23">
+        <f>AVERAGE(M25:N25)</f>
+        <v>6.8094151964721451E-3</v>
+      </c>
+      <c r="P25" s="23">
         <f>AVERAGE(J25:N25)</f>
         <v>6.072503102678696E-2</v>
       </c>
-      <c r="P25" s="21">
+      <c r="Q25" s="23">
         <f>AVERAGE(E25:N25)</f>
         <v>5.9373841442593243E-2</v>
       </c>
-      <c r="Q25" s="21"/>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
@@ -20348,520 +24896,2430 @@
       <c r="E26" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="20">
         <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="20">
         <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)</f>
         <v>8.8017944067121781E-2</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="20">
         <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)</f>
         <v>0.14346614963863935</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="20">
         <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)</f>
         <v>8.0813885430327265E-3</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="20">
         <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)</f>
         <v>0.21289919390594211</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="20">
         <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)</f>
         <v>7.03070602980089E-2</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="20">
         <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)</f>
         <v>2.4774884663980481E-3</v>
       </c>
-      <c r="N26" s="21">
+      <c r="N26" s="20">
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)</f>
         <v>1.3827750678680481E-2</v>
       </c>
-      <c r="O26" s="21">
-        <f t="shared" ref="O26:O35" si="12">AVERAGE(J26:N26)</f>
+      <c r="O26" s="23">
+        <f t="shared" ref="O26:O57" si="2">AVERAGE(M26:N26)</f>
+        <v>8.1526195725392641E-3</v>
+      </c>
+      <c r="P26" s="23">
+        <f>AVERAGE(J26:N26)</f>
         <v>6.1518576378412446E-2</v>
       </c>
-      <c r="P26" s="21">
-        <f t="shared" ref="P26:P35" si="13">AVERAGE(E26:N26)</f>
+      <c r="Q26" s="23">
+        <f>AVERAGE(E26:N26)</f>
         <v>5.9897441733091493E-2</v>
       </c>
-      <c r="Q26" s="21"/>
     </row>
     <row r="27" spans="2:31">
       <c r="E27" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="20">
         <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="20">
         <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)</f>
         <v>8.8537609519779042E-2</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="20">
         <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)</f>
         <v>0.14322322540632643</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="20">
         <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)</f>
         <v>8.2161891476168689E-3</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="20">
         <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)</f>
         <v>0.21335594447026812</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="20">
         <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)</f>
         <v>7.0340102240217028E-2</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M27" s="20">
         <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)</f>
         <v>3.1825238916974303E-3</v>
       </c>
-      <c r="N27" s="21">
+      <c r="N27" s="20">
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)</f>
         <v>1.4132960569310965E-2</v>
       </c>
-      <c r="O27" s="21">
-        <f t="shared" si="12"/>
+      <c r="O27" s="23">
+        <f t="shared" si="2"/>
+        <v>8.6577422305041968E-3</v>
+      </c>
+      <c r="P27" s="23">
+        <f>AVERAGE(J27:N27)</f>
         <v>6.1845544063822075E-2</v>
       </c>
-      <c r="P27" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q27" s="23">
+        <f>AVERAGE(E27:N27)</f>
         <v>6.010983947169065E-2</v>
       </c>
-      <c r="Q27" s="21"/>
     </row>
     <row r="28" spans="2:31">
       <c r="E28" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="20">
         <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="20">
         <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)</f>
         <v>8.8530713613329842E-2</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="20">
         <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)</f>
         <v>0.14322644746707769</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="20">
         <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)</f>
         <v>8.2061653983386083E-3</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="20">
         <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)</f>
         <v>0.21335162854848674</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="20">
         <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)</f>
         <v>7.0340137645524686E-2</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="20">
         <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)</f>
         <v>3.1794852183991643E-3</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N28" s="20">
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)</f>
         <v>1.4128916492626426E-2</v>
       </c>
-      <c r="O28" s="21">
-        <f t="shared" si="12"/>
+      <c r="O28" s="23">
+        <f t="shared" si="2"/>
+        <v>8.6542008555127951E-3</v>
+      </c>
+      <c r="P28" s="23">
+        <f>AVERAGE(J28:N28)</f>
         <v>6.1841266660675118E-2</v>
       </c>
-      <c r="P28" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q28" s="23">
+        <f>AVERAGE(E28:N28)</f>
         <v>6.0107054931531456E-2</v>
       </c>
-      <c r="Q28" s="21"/>
     </row>
     <row r="29" spans="2:31">
       <c r="E29" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="20">
         <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="20">
         <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)</f>
         <v>8.7922577422525502E-2</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="20">
         <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)</f>
         <v>0.2240446956467535</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="20">
         <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)</f>
         <v>9.6516017533446481E-3</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="20">
         <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)</f>
         <v>0.19052898945623808</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="20">
         <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)</f>
         <v>0.1089757434626749</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="20">
         <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)</f>
         <v>1.5939339858263922E-2</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="20">
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)</f>
         <v>1.8861041272614426E-2</v>
       </c>
-      <c r="O29" s="21">
-        <f t="shared" si="12"/>
+      <c r="O29" s="23">
+        <f t="shared" si="2"/>
+        <v>1.7400190565439174E-2</v>
+      </c>
+      <c r="P29" s="23">
+        <f>AVERAGE(J29:N29)</f>
         <v>6.8791343160627183E-2</v>
       </c>
-      <c r="P29" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q29" s="23">
+        <f>AVERAGE(E29:N29)</f>
         <v>7.2880443208046111E-2</v>
       </c>
-      <c r="Q29" s="21"/>
     </row>
     <row r="30" spans="2:31">
       <c r="E30" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="20">
         <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="20">
         <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)</f>
         <v>8.8246590489251722E-2</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="20">
         <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)</f>
         <v>0.16099055327832734</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="20">
         <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)</f>
         <v>1.2430109494908158E-2</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="20">
         <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)</f>
         <v>0.23547559346975511</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="20">
         <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)</f>
         <v>7.2773233900630133E-2</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="20">
         <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)</f>
         <v>4.7953881995852869E-2</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N30" s="20">
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)</f>
         <v>3.0288931210351231E-2</v>
       </c>
-      <c r="O30" s="21">
-        <f t="shared" si="12"/>
+      <c r="O30" s="23">
+        <f t="shared" si="2"/>
+        <v>3.9121406603102052E-2</v>
+      </c>
+      <c r="P30" s="23">
+        <f>AVERAGE(J30:N30)</f>
         <v>7.978435001429951E-2</v>
       </c>
-      <c r="P30" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q30" s="23">
+        <f>AVERAGE(E30:N30)</f>
         <v>7.2017654871008502E-2</v>
       </c>
-      <c r="Q30" s="21"/>
     </row>
     <row r="31" spans="2:31">
       <c r="E31" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="20">
         <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="20">
         <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)</f>
         <v>8.8310307489595966E-2</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="20">
         <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)</f>
         <v>0.13967796361282511</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="20">
         <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)</f>
         <v>7.7276241263429645E-3</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="20">
         <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)</f>
         <v>0.20793549401658029</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="20">
         <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)</f>
         <v>6.9822635183787618E-2</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="20">
         <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)</f>
         <v>-7.0483205720500847E-3</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N31" s="20">
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)</f>
         <v>1.0254380209208984E-2</v>
       </c>
-      <c r="O31" s="21">
-        <f t="shared" si="12"/>
+      <c r="O31" s="23">
+        <f t="shared" si="2"/>
+        <v>1.6030298185794496E-3</v>
+      </c>
+      <c r="P31" s="23">
+        <f>AVERAGE(J31:N31)</f>
         <v>5.7738362592773963E-2</v>
       </c>
-      <c r="P31" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q31" s="23">
+        <f>AVERAGE(E31:N31)</f>
         <v>5.7408898229587869E-2</v>
       </c>
-      <c r="Q31" s="21"/>
     </row>
     <row r="32" spans="2:31">
       <c r="E32" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="20">
         <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="20">
         <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)</f>
         <v>8.8120397559632191E-2</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="20">
         <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)</f>
         <v>0.1401444592129624</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="20">
         <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)</f>
         <v>7.9069971311295246E-3</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="20">
         <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)</f>
         <v>0.20777308543076772</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="20">
         <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)</f>
         <v>6.9881107802097109E-2</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32" s="20">
         <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)</f>
         <v>-6.0318397762704028E-3</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="20">
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)</f>
         <v>1.0533490032286368E-2</v>
       </c>
-      <c r="O32" s="21">
-        <f t="shared" si="12"/>
+      <c r="O32" s="23">
+        <f t="shared" si="2"/>
+        <v>2.2508251280079824E-3</v>
+      </c>
+      <c r="P32" s="23">
+        <f>AVERAGE(J32:N32)</f>
         <v>5.8012568124002059E-2</v>
       </c>
-      <c r="P32" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q32" s="23">
+        <f>AVERAGE(E32:N32)</f>
         <v>5.75919663769561E-2</v>
       </c>
-      <c r="Q32" s="21"/>
     </row>
     <row r="33" spans="5:17">
       <c r="E33" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="20">
         <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="20">
         <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)</f>
         <v>8.8165597992756237E-2</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="20">
         <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)</f>
         <v>6.7341318132323441E-2</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="20">
         <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)</f>
         <v>8.8269604666234472E-2</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="20">
         <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)</f>
         <v>0.16342879325251716</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="20">
         <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)</f>
         <v>6.9083187988173395E-2</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M33" s="20">
         <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)</f>
         <v>9.9304865938280038E-4</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N33" s="20">
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)</f>
         <v>1.9841269841283518E-3</v>
       </c>
-      <c r="O33" s="21">
-        <f t="shared" si="12"/>
+      <c r="O33" s="23">
+        <f t="shared" si="2"/>
+        <v>1.4885878217555761E-3</v>
+      </c>
+      <c r="P33" s="23">
+        <f>AVERAGE(J33:N33)</f>
         <v>6.4751752310087257E-2</v>
       </c>
-      <c r="P33" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q33" s="23">
+        <f>AVERAGE(E33:N33)</f>
         <v>5.3251741963946206E-2</v>
       </c>
-      <c r="Q33" s="21"/>
     </row>
     <row r="34" spans="5:17">
       <c r="E34" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="20">
         <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="20">
         <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="20">
         <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)</f>
         <v>8.7922635737490915E-2</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="20">
         <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)</f>
         <v>2.2524526622979976E-2</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="20">
         <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)</f>
         <v>0.10009751045164539</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="20">
         <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)</f>
         <v>0.17963929842793414</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="20">
         <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)</f>
         <v>8.0378250591016581E-2</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="20">
         <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)</f>
         <v>8.0513942658362852E-3</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="20">
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)</f>
         <v>4.8423454763032048E-3</v>
       </c>
-      <c r="O34" s="21">
-        <f t="shared" si="12"/>
+      <c r="O34" s="23">
+        <f t="shared" si="2"/>
+        <v>6.446869871069745E-3</v>
+      </c>
+      <c r="P34" s="23">
+        <f>AVERAGE(J34:N34)</f>
         <v>7.4601759842547105E-2</v>
       </c>
-      <c r="P34" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q34" s="23">
+        <f>AVERAGE(E34:N34)</f>
         <v>5.371732906368961E-2</v>
       </c>
-      <c r="Q34" s="21"/>
     </row>
     <row r="35" spans="5:17">
       <c r="E35" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="20">
         <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="20">
         <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)</f>
         <v>8.8360780180382528E-2</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="20">
         <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)</f>
         <v>0.20046556931126952</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="20">
         <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)</f>
         <v>0.10823617159341996</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="20">
         <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)</f>
         <v>0.16815323031702062</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="20">
         <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)</f>
         <v>1.2258834644749587E-2</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M35" s="20">
         <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)</f>
         <v>9.0242060546282393E-3</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N35" s="20">
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)</f>
         <v>3.285083098211309E-2</v>
       </c>
-      <c r="O35" s="21">
-        <f t="shared" si="12"/>
+      <c r="O35" s="23">
+        <f t="shared" si="2"/>
+        <v>2.0937518518370665E-2</v>
+      </c>
+      <c r="P35" s="23">
+        <f>AVERAGE(J35:N35)</f>
         <v>6.6104654718386308E-2</v>
       </c>
-      <c r="P35" s="21">
-        <f t="shared" si="13"/>
+      <c r="Q35" s="23">
+        <f>AVERAGE(E35:N35)</f>
         <v>6.8816624787064837E-2</v>
       </c>
-      <c r="Q35" s="21"/>
     </row>
     <row r="36" spans="5:17">
-      <c r="O36" t="s">
+      <c r="E36" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F36" s="15">
+        <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="15">
+        <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="15">
+        <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.1673214285714995E-2</v>
+      </c>
+      <c r="I36" s="15">
+        <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.0501785714285018E-2</v>
+      </c>
+      <c r="J36" s="15">
+        <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.326428571428977E-3</v>
+      </c>
+      <c r="K36" s="15">
+        <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>3.5091428571428017E-2</v>
+      </c>
+      <c r="L36" s="15">
+        <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.4100000000000001E-2</v>
+      </c>
+      <c r="M36" s="15">
+        <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.1428571428599099E-4</v>
+      </c>
+      <c r="N36" s="15">
+        <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.8142857142859868E-3</v>
+      </c>
+      <c r="O36" s="24">
+        <f t="shared" si="2"/>
+        <v>1.4642857142859889E-3</v>
+      </c>
+      <c r="P36" s="24">
+        <f>AVERAGE(J36:N36)</f>
+        <v>1.0689285714285793E-2</v>
+      </c>
+      <c r="Q36" s="24">
+        <f>AVERAGE(E36:N36)</f>
+        <v>9.513492063492111E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="5:17">
+      <c r="E37" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F37" s="15">
+        <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="15">
+        <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.1396714285715016E-2</v>
+      </c>
+      <c r="I37" s="15">
+        <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.0211285714285002E-2</v>
+      </c>
+      <c r="J37" s="15">
+        <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.3018285714289845E-3</v>
+      </c>
+      <c r="K37" s="15">
+        <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>3.4573028571427994E-2</v>
+      </c>
+      <c r="L37" s="15">
+        <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.384800000000002E-2</v>
+      </c>
+      <c r="M37" s="15">
+        <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>5.2228571428599932E-4</v>
+      </c>
+      <c r="N37" s="15">
+        <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.9222857142859838E-3</v>
+      </c>
+      <c r="O37" s="24">
+        <f t="shared" si="2"/>
+        <v>1.7222857142859915E-3</v>
+      </c>
+      <c r="P37" s="24">
+        <f>AVERAGE(J37:N37)</f>
+        <v>1.0633485714285797E-2</v>
+      </c>
+      <c r="Q37" s="24">
+        <f>AVERAGE(E37:N37)</f>
+        <v>9.4194920634921107E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="5:17">
+      <c r="E38" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F38" s="15">
+        <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="15">
+        <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
+        <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.1365952380952003E-2</v>
+      </c>
+      <c r="I38" s="15">
+        <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.0014047619047997E-2</v>
+      </c>
+      <c r="J38" s="15">
+        <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.312571428571001E-3</v>
+      </c>
+      <c r="K38" s="15">
+        <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>3.4364571428572008E-2</v>
+      </c>
+      <c r="L38" s="15">
+        <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.3746666666665987E-2</v>
+      </c>
+      <c r="M38" s="15">
+        <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>6.6571428571499775E-4</v>
+      </c>
+      <c r="N38" s="15">
+        <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.9657142857140075E-3</v>
+      </c>
+      <c r="O38" s="24">
+        <f t="shared" si="2"/>
+        <v>1.8157142857145026E-3</v>
+      </c>
+      <c r="P38" s="24">
+        <f>AVERAGE(J38:N38)</f>
+        <v>1.06110476190476E-2</v>
+      </c>
+      <c r="Q38" s="24">
+        <f>AVERAGE(E38:N38)</f>
+        <v>9.3816931216931104E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="5:17">
+      <c r="E39" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F39" s="15">
+        <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.1366357142856991E-2</v>
+      </c>
+      <c r="I39" s="15">
+        <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.0016642857143E-2</v>
+      </c>
+      <c r="J39" s="15">
+        <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.3111142857140123E-3</v>
+      </c>
+      <c r="K39" s="15">
+        <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>3.4367314285714982E-2</v>
+      </c>
+      <c r="L39" s="15">
+        <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.3748000000000005E-2</v>
+      </c>
+      <c r="M39" s="15">
+        <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>6.6514285714301734E-4</v>
+      </c>
+      <c r="N39" s="15">
+        <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.9651428571419915E-3</v>
+      </c>
+      <c r="O39" s="24">
+        <f t="shared" si="2"/>
+        <v>1.8151428571425044E-3</v>
+      </c>
+      <c r="P39" s="24">
+        <f>AVERAGE(J39:N39)</f>
+        <v>1.06113428571428E-2</v>
+      </c>
+      <c r="Q39" s="24">
+        <f>AVERAGE(E39:N39)</f>
+        <v>9.382190476190445E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="5:17">
+      <c r="E40" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F40" s="15">
+        <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="15">
+        <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="15">
+        <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>9.222576923076993E-3</v>
+      </c>
+      <c r="I40" s="15">
+        <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.5567280219779994E-2</v>
+      </c>
+      <c r="J40" s="15">
+        <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.3481758241760033E-3</v>
+      </c>
+      <c r="K40" s="15">
+        <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.6870747252746997E-2</v>
+      </c>
+      <c r="L40" s="15">
+        <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.8297362637363007E-2</v>
+      </c>
+      <c r="M40" s="15">
+        <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.9679120879119837E-3</v>
+      </c>
+      <c r="N40" s="15">
+        <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>3.5679120879120061E-3</v>
+      </c>
+      <c r="O40" s="24">
+        <f t="shared" si="2"/>
+        <v>3.2679120879119949E-3</v>
+      </c>
+      <c r="P40" s="24">
+        <f>AVERAGE(J40:N40)</f>
+        <v>1.0610421978022E-2</v>
+      </c>
+      <c r="Q40" s="24">
+        <f>AVERAGE(E40:N40)</f>
+        <v>9.7602185592185545E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="5:17">
+      <c r="E41" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F41" s="15">
+        <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="15">
+        <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="15">
+        <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>7.5887428571427941E-3</v>
+      </c>
+      <c r="I41" s="15">
+        <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.5066057142857296E-2</v>
+      </c>
+      <c r="J41" s="15">
+        <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.3505257142860038E-3</v>
+      </c>
+      <c r="K41" s="15">
+        <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.5902331428570999E-2</v>
+      </c>
+      <c r="L41" s="15">
+        <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>9.890057142856996E-3</v>
+      </c>
+      <c r="M41" s="15">
+        <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>6.9913142857140013E-3</v>
+      </c>
+      <c r="N41" s="15">
+        <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>4.627657142858013E-3</v>
+      </c>
+      <c r="O41" s="24">
+        <f t="shared" si="2"/>
+        <v>5.8094857142860067E-3</v>
+      </c>
+      <c r="P41" s="24">
+        <f>AVERAGE(J41:N41)</f>
+        <v>9.7523771428572013E-3</v>
+      </c>
+      <c r="Q41" s="24">
+        <f>AVERAGE(E41:N41)</f>
+        <v>7.9351873015873452E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="5:17">
+      <c r="E42" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F42" s="15">
+        <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="15">
+        <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
+        <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.269234375E-2</v>
+      </c>
+      <c r="I42" s="15">
+        <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.1847968749999998E-2</v>
+      </c>
+      <c r="J42" s="15">
+        <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.377562499999989E-3</v>
+      </c>
+      <c r="K42" s="15">
+        <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>3.7354000000000019E-2</v>
+      </c>
+      <c r="L42" s="15">
+        <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.5151249999999976E-2</v>
+      </c>
+      <c r="M42" s="15">
+        <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>-1.6362499999999969E-3</v>
+      </c>
+      <c r="N42" s="15">
+        <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.3637500000000243E-3</v>
+      </c>
+      <c r="O42" s="24">
+        <f t="shared" si="2"/>
+        <v>3.6375000000001369E-4</v>
+      </c>
+      <c r="P42" s="24">
+        <f>AVERAGE(J42:N42)</f>
+        <v>1.0922062500000003E-2</v>
+      </c>
+      <c r="Q42" s="24">
+        <f>AVERAGE(E42:N42)</f>
+        <v>9.905625000000003E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="5:17">
+      <c r="E43" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F43" s="15">
+        <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="15">
+        <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.2558875000000001E-2</v>
+      </c>
+      <c r="I43" s="15">
+        <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.1733374999999989E-2</v>
+      </c>
+      <c r="J43" s="15">
+        <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.3980499999999907E-3</v>
+      </c>
+      <c r="K43" s="15">
+        <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>3.7027200000000031E-2</v>
+      </c>
+      <c r="L43" s="15">
+        <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.5040999999999976E-2</v>
+      </c>
+      <c r="M43" s="15">
+        <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>-1.3889999999999957E-3</v>
+      </c>
+      <c r="N43" s="15">
+        <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.4109999999999943E-3</v>
+      </c>
+      <c r="O43" s="24">
+        <f t="shared" si="2"/>
+        <v>5.109999999999993E-4</v>
+      </c>
+      <c r="P43" s="24">
+        <f>AVERAGE(J43:N43)</f>
+        <v>1.089765E-2</v>
+      </c>
+      <c r="Q43" s="24">
+        <f>AVERAGE(E43:N43)</f>
+        <v>9.8644999999999983E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="5:17">
+      <c r="E44" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F44" s="15">
+        <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="15">
+        <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="15">
+        <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.3177083333333997E-2</v>
+      </c>
+      <c r="I44" s="15">
+        <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.0952083333333E-2</v>
+      </c>
+      <c r="J44" s="15">
+        <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.5322499999999977E-2</v>
+      </c>
+      <c r="K44" s="15">
+        <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>3.0873333333333017E-2</v>
+      </c>
+      <c r="L44" s="15">
+        <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.5183333333334019E-2</v>
+      </c>
+      <c r="M44" s="15">
+        <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.3333333333297901E-4</v>
+      </c>
+      <c r="N44" s="15">
+        <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>4.6666666666698829E-4</v>
+      </c>
+      <c r="O44" s="24">
+        <f t="shared" si="2"/>
+        <v>3.4999999999998368E-4</v>
+      </c>
+      <c r="P44" s="24">
+        <f>AVERAGE(J44:N44)</f>
+        <v>1.2415833333333397E-2</v>
+      </c>
+      <c r="Q44" s="24">
+        <f>AVERAGE(E44:N44)</f>
+        <v>9.5787037037037767E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="5:17">
+      <c r="E45" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F45" s="15">
+        <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="15">
+        <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="15">
+        <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.2056874999999998E-2</v>
+      </c>
+      <c r="I45" s="15">
+        <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>3.3603749999999975E-3</v>
+      </c>
+      <c r="J45" s="15">
+        <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.5269649999999989E-2</v>
+      </c>
+      <c r="K45" s="15">
+        <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>3.0146599999999992E-2</v>
+      </c>
+      <c r="L45" s="15">
+        <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.5912000000000006E-2</v>
+      </c>
+      <c r="M45" s="15">
+        <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.7220000000000013E-3</v>
+      </c>
+      <c r="N45" s="15">
+        <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.0440000000000182E-3</v>
+      </c>
+      <c r="O45" s="24">
+        <f t="shared" si="2"/>
+        <v>1.3830000000000097E-3</v>
+      </c>
+      <c r="P45" s="24">
+        <f>AVERAGE(J45:N45)</f>
+        <v>1.2818850000000001E-2</v>
+      </c>
+      <c r="Q45" s="24">
+        <f>AVERAGE(E45:N45)</f>
+        <v>8.8346111111111108E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="5:17">
+      <c r="E46" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F46" s="15">
+        <f>(VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(F$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="15">
+        <f>(VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(G$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="15">
+        <f>(VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(H$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>8.5228652751809086E-3</v>
+      </c>
+      <c r="I46" s="15">
+        <f>(VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(I$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.1044507019758997E-2</v>
+      </c>
+      <c r="J46" s="15">
+        <f>(VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(J$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.3640211233638996E-2</v>
+      </c>
+      <c r="K46" s="15">
+        <f>(VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(K$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>2.3484764477687003E-2</v>
+      </c>
+      <c r="L46" s="15">
+        <f>(VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(L$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.9999999999999931E-3</v>
+      </c>
+      <c r="M46" s="15">
+        <f>(VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(M$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>1.4903263759030239E-3</v>
+      </c>
+      <c r="N46" s="15">
+        <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/100</f>
+        <v>5.4741958255419831E-3</v>
+      </c>
+      <c r="O46" s="24">
+        <f t="shared" si="2"/>
+        <v>3.4822611007225036E-3</v>
+      </c>
+      <c r="P46" s="24">
+        <f>AVERAGE(J46:N46)</f>
+        <v>9.2178995825542009E-3</v>
+      </c>
+      <c r="Q46" s="24">
+        <f>AVERAGE(E46:N46)</f>
+        <v>8.4063189119678774E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="5:17">
+      <c r="E47" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F47" s="19">
+        <f>(1+$F$1)*VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.14241786428571399</v>
+      </c>
+      <c r="G47" s="19">
+        <f>(1+$F$1)*VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.14241786428571399</v>
+      </c>
+      <c r="H47" s="19">
+        <f>(1+$F$1)*VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.15498991607142903</v>
+      </c>
+      <c r="I47" s="19">
+        <f>(1+$F$1)*VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.17707033928571397</v>
+      </c>
+      <c r="J47" s="19">
+        <f>(1+$F$1)*VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.17849890285714298</v>
+      </c>
+      <c r="K47" s="19">
+        <f>(1+$F$1)*VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.21629237142857097</v>
+      </c>
+      <c r="L47" s="19">
+        <f>(1+$F$1)*VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.23147807142857096</v>
+      </c>
+      <c r="M47" s="19">
+        <f>(1+$F$1)*VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.23160115714285698</v>
+      </c>
+      <c r="N47" s="19">
+        <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.23463214285714298</v>
+      </c>
+      <c r="O47" s="23"/>
+    </row>
+    <row r="48" spans="5:17">
+      <c r="E48" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F48" s="19">
+        <f>(1+$F$1)*VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.13945180628571396</v>
+      </c>
+      <c r="G48" s="19">
+        <f>(1+$F$1)*VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.13945180628571396</v>
+      </c>
+      <c r="H48" s="19">
+        <f>(1+$F$1)*VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.15172606757142904</v>
+      </c>
+      <c r="I48" s="19">
+        <f>(1+$F$1)*VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.17349362228571397</v>
+      </c>
+      <c r="J48" s="19">
+        <f>(1+$F$1)*VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.174895691657143</v>
+      </c>
+      <c r="K48" s="19">
+        <f>(1+$F$1)*VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.21213084342857094</v>
+      </c>
+      <c r="L48" s="19">
+        <f>(1+$F$1)*VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.22704513942857096</v>
+      </c>
+      <c r="M48" s="19">
+        <f>(1+$F$1)*VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.227607641142857</v>
+      </c>
+      <c r="N48" s="19">
+        <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.23075494285714299</v>
+      </c>
+      <c r="O48" s="23"/>
+    </row>
+    <row r="49" spans="5:31">
+      <c r="E49" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F49" s="19">
+        <f>(1+$F$1)*VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.13825910571428601</v>
+      </c>
+      <c r="G49" s="19">
+        <f>(1+$F$1)*VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.13825910571428601</v>
+      </c>
+      <c r="H49" s="19">
+        <f>(1+$F$1)*VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.15050023642857133</v>
+      </c>
+      <c r="I49" s="19">
+        <f>(1+$F$1)*VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.17205536571428603</v>
+      </c>
+      <c r="J49" s="19">
+        <f>(1+$F$1)*VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.17346900514285696</v>
+      </c>
+      <c r="K49" s="19">
+        <f>(1+$F$1)*VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.21047964857142901</v>
+      </c>
+      <c r="L49" s="19">
+        <f>(1+$F$1)*VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.22528480857142827</v>
+      </c>
+      <c r="M49" s="19">
+        <f>(1+$F$1)*VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.22600178285714334</v>
+      </c>
+      <c r="N49" s="19">
+        <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.22919585714285734</v>
+      </c>
+      <c r="O49" s="23"/>
+    </row>
+    <row r="50" spans="5:31">
+      <c r="E50" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F50" s="19">
+        <f>(1+$F$1)*VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.13827479914285698</v>
+      </c>
+      <c r="G50" s="19">
+        <f>(1+$F$1)*VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.13827479914285698</v>
+      </c>
+      <c r="H50" s="19">
+        <f>(1+$F$1)*VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.15051636578571398</v>
+      </c>
+      <c r="I50" s="19">
+        <f>(1+$F$1)*VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.17207429014285697</v>
+      </c>
+      <c r="J50" s="19">
+        <f>(1+$F$1)*VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.17348636022857097</v>
+      </c>
+      <c r="K50" s="19">
+        <f>(1+$F$1)*VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.21049995771428601</v>
+      </c>
+      <c r="L50" s="19">
+        <f>(1+$F$1)*VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.22530655371428601</v>
+      </c>
+      <c r="M50" s="19">
+        <f>(1+$F$1)*VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.22602291257142906</v>
+      </c>
+      <c r="N50" s="19">
+        <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.22921637142857099</v>
+      </c>
+      <c r="O50" s="23"/>
+    </row>
+    <row r="51" spans="5:31">
+      <c r="E51" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F51" s="19">
+        <f>(1+$F$1)*VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.11297115754945088</v>
+      </c>
+      <c r="G51" s="19">
+        <f>(1+$F$1)*VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.11297115754945088</v>
+      </c>
+      <c r="H51" s="19">
+        <f>(1+$F$1)*VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.1229038728956048</v>
+      </c>
+      <c r="I51" s="19">
+        <f>(1+$F$1)*VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.15043983369230784</v>
+      </c>
+      <c r="J51" s="19">
+        <f>(1+$F$1)*VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.15189181905494539</v>
+      </c>
+      <c r="K51" s="19">
+        <f>(1+$F$1)*VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.1808316138461539</v>
+      </c>
+      <c r="L51" s="19">
+        <f>(1+$F$1)*VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.20053787340659388</v>
+      </c>
+      <c r="M51" s="19">
+        <f>(1+$F$1)*VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.20373431472527506</v>
+      </c>
+      <c r="N51" s="19">
+        <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.20757695604395632</v>
+      </c>
+      <c r="O51" s="23"/>
+    </row>
+    <row r="52" spans="5:31">
+      <c r="E52" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F52" s="19">
+        <f>(1+$F$1)*VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>9.2616338057142894E-2</v>
+      </c>
+      <c r="G52" s="19">
+        <f>(1+$F$1)*VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>9.2616338057142894E-2</v>
+      </c>
+      <c r="H52" s="19">
+        <f>(1+$F$1)*VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.1007894141142857</v>
+      </c>
+      <c r="I52" s="19">
+        <f>(1+$F$1)*VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.117015557657143</v>
+      </c>
+      <c r="J52" s="19">
+        <f>(1+$F$1)*VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.11847007385142902</v>
+      </c>
+      <c r="K52" s="19">
+        <f>(1+$F$1)*VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.14636688479999999</v>
+      </c>
+      <c r="L52" s="19">
+        <f>(1+$F$1)*VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.15701847634285696</v>
+      </c>
+      <c r="M52" s="19">
+        <f>(1+$F$1)*VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.16454812182857098</v>
+      </c>
+      <c r="N52" s="19">
+        <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.16953210857142903</v>
+      </c>
+      <c r="O52" s="23"/>
+    </row>
+    <row r="53" spans="5:31">
+      <c r="E53" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F53" s="19">
+        <f>(1+$F$1)*VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.154791151875</v>
+      </c>
+      <c r="G53" s="19">
+        <f>(1+$F$1)*VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.154791151875</v>
+      </c>
+      <c r="H53" s="19">
+        <f>(1+$F$1)*VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.16846080609375</v>
+      </c>
+      <c r="I53" s="19">
+        <f>(1+$F$1)*VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.1919910684375</v>
+      </c>
+      <c r="J53" s="19">
+        <f>(1+$F$1)*VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.19347470324999999</v>
+      </c>
+      <c r="K53" s="19">
+        <f>(1+$F$1)*VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.23370496124999998</v>
+      </c>
+      <c r="L53" s="19">
+        <f>(1+$F$1)*VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.25002285749999997</v>
+      </c>
+      <c r="M53" s="19">
+        <f>(1+$F$1)*VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.24826061624999998</v>
+      </c>
+      <c r="N53" s="19">
+        <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.25080637500000003</v>
+      </c>
+      <c r="O53" s="23"/>
+    </row>
+    <row r="54" spans="5:31">
+      <c r="E54" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F54" s="19">
+        <f>(1+$F$1)*VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.15349350149999999</v>
+      </c>
+      <c r="G54" s="19">
+        <f>(1+$F$1)*VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.15349350149999999</v>
+      </c>
+      <c r="H54" s="19">
+        <f>(1+$F$1)*VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.167019409875</v>
+      </c>
+      <c r="I54" s="19">
+        <f>(1+$F$1)*VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.19042625474999997</v>
+      </c>
+      <c r="J54" s="19">
+        <f>(1+$F$1)*VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.19193195459999998</v>
+      </c>
+      <c r="K54" s="19">
+        <f>(1+$F$1)*VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.231810249</v>
+      </c>
+      <c r="L54" s="19">
+        <f>(1+$F$1)*VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.24800940599999996</v>
+      </c>
+      <c r="M54" s="19">
+        <f>(1+$F$1)*VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.24651345299999999</v>
+      </c>
+      <c r="N54" s="19">
+        <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.24911009999999997</v>
+      </c>
+      <c r="O54" s="23"/>
+    </row>
+    <row r="55" spans="5:31">
+      <c r="E55" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F55" s="19">
+        <f>(1+$F$1)*VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.16096662499999964</v>
+      </c>
+      <c r="G55" s="19">
+        <f>(1+$F$1)*VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.16096662499999964</v>
+      </c>
+      <c r="H55" s="19">
+        <f>(1+$F$1)*VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.17515834375000036</v>
+      </c>
+      <c r="I55" s="19">
+        <f>(1+$F$1)*VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.18695373749999999</v>
+      </c>
+      <c r="J55" s="19">
+        <f>(1+$F$1)*VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.20345606999999999</v>
+      </c>
+      <c r="K55" s="19">
+        <f>(1+$F$1)*VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.23670664999999963</v>
+      </c>
+      <c r="L55" s="19">
+        <f>(1+$F$1)*VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.25305910000000037</v>
+      </c>
+      <c r="M55" s="19">
+        <f>(1+$F$1)*VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.25331039999999999</v>
+      </c>
+      <c r="N55" s="19">
+        <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.25381300000000029</v>
+      </c>
+      <c r="O55" s="23"/>
+    </row>
+    <row r="56" spans="5:31">
+      <c r="E56" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F56" s="19">
+        <f>(1+$F$1)*VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.14768954849999999</v>
+      </c>
+      <c r="G56" s="19">
+        <f>(1+$F$1)*VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.14768954849999999</v>
+      </c>
+      <c r="H56" s="19">
+        <f>(1+$F$1)*VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.16067480287499999</v>
+      </c>
+      <c r="I56" s="19">
+        <f>(1+$F$1)*VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.16429392674999999</v>
+      </c>
+      <c r="J56" s="19">
+        <f>(1+$F$1)*VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.18073933980000001</v>
+      </c>
+      <c r="K56" s="19">
+        <f>(1+$F$1)*VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.213207228</v>
+      </c>
+      <c r="L56" s="19">
+        <f>(1+$F$1)*VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.23034445199999998</v>
+      </c>
+      <c r="M56" s="19">
+        <f>(1+$F$1)*VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.23219904599999999</v>
+      </c>
+      <c r="N56" s="19">
+        <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.233323434</v>
+      </c>
+      <c r="O56" s="23"/>
+    </row>
+    <row r="57" spans="5:31">
+      <c r="E57" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F57" s="19">
+        <f>(1+$F$1)*VLOOKUP(F$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.10388235462194061</v>
+      </c>
+      <c r="G57" s="19">
+        <f>(1+$F$1)*VLOOKUP(G$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.10388235462194061</v>
+      </c>
+      <c r="H57" s="19">
+        <f>(1+$F$1)*VLOOKUP(H$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.11306148052331044</v>
+      </c>
+      <c r="I57" s="19">
+        <f>(1+$F$1)*VLOOKUP(I$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.13572641458359089</v>
+      </c>
+      <c r="J57" s="19">
+        <f>(1+$F$1)*VLOOKUP(J$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.15041692208222007</v>
+      </c>
+      <c r="K57" s="19">
+        <f>(1+$F$1)*VLOOKUP(K$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.17571001342468898</v>
+      </c>
+      <c r="L57" s="19">
+        <f>(1+$F$1)*VLOOKUP(L$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.17786401342468897</v>
+      </c>
+      <c r="M57" s="19">
+        <f>(1+$F$1)*VLOOKUP(M$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.17946909493153651</v>
+      </c>
+      <c r="N57" s="19">
+        <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)/100</f>
+        <v>0.18536480383564524</v>
+      </c>
+      <c r="O57" s="23"/>
+    </row>
+    <row r="58" spans="5:31">
+      <c r="E58" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="O58" s="15">
+        <f>N3+$Q$73</f>
+        <v>0.24390323670372993</v>
+      </c>
+      <c r="P58" s="15">
+        <f>O58+$Q$73</f>
+        <v>0.25317433055031691</v>
+      </c>
+      <c r="Q58" s="15">
+        <f>P58+$Q$73</f>
+        <v>0.26244542439690388</v>
+      </c>
+      <c r="R58" s="15">
+        <f>Q58+$Q$73</f>
+        <v>0.27171651824349086</v>
+      </c>
+      <c r="S58" s="15">
+        <f>R58+$Q$73</f>
+        <v>0.28098761209007783</v>
+      </c>
+      <c r="T58" s="15">
+        <f>S58+$Q$73</f>
+        <v>0.29025870593666481</v>
+      </c>
+      <c r="U58" s="15">
+        <f>T58+$Q$73</f>
+        <v>0.29952979978325178</v>
+      </c>
+      <c r="V58" s="15">
+        <f>U58+$Q$73</f>
+        <v>0.30880089362983876</v>
+      </c>
+      <c r="W58" s="15">
+        <f>V58+$Q$73</f>
+        <v>0.31807198747642573</v>
+      </c>
+      <c r="X58" s="15">
+        <f>W58+$Q$73</f>
+        <v>0.32734308132301271</v>
+      </c>
+      <c r="Y58" s="15">
+        <f>X58+$Q$73</f>
+        <v>0.33661417516959968</v>
+      </c>
+      <c r="Z58" s="15">
+        <f>Y58+$Q$73</f>
+        <v>0.34588526901618666</v>
+      </c>
+      <c r="AA58" s="15">
+        <f>Z58+$Q$73</f>
+        <v>0.35515636286277363</v>
+      </c>
+      <c r="AB58" s="15">
+        <f>AA58+$Q$73</f>
+        <v>0.36442745670936061</v>
+      </c>
+      <c r="AC58" s="15">
+        <f>AB58+$Q$73</f>
+        <v>0.37369855055594758</v>
+      </c>
+      <c r="AD58" s="15">
+        <f>AC58+$Q$73</f>
+        <v>0.38296964440253456</v>
+      </c>
+      <c r="AE58" s="15">
+        <f>AD58+$Q$73</f>
+        <v>0.39224073824912153</v>
+      </c>
+    </row>
+    <row r="59" spans="5:31">
+      <c r="E59" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="O59" s="15">
+        <f>N4+$Q$73</f>
+        <v>0.24002603670372993</v>
+      </c>
+      <c r="P59" s="15">
+        <f>O59+$Q$73</f>
+        <v>0.24929713055031688</v>
+      </c>
+      <c r="Q59" s="15">
+        <f>P59+$Q$73</f>
+        <v>0.25856822439690386</v>
+      </c>
+      <c r="R59" s="15">
+        <f>Q59+$Q$73</f>
+        <v>0.26783931824349083</v>
+      </c>
+      <c r="S59" s="15">
+        <f>R59+$Q$73</f>
+        <v>0.27711041209007781</v>
+      </c>
+      <c r="T59" s="15">
+        <f>S59+$Q$73</f>
+        <v>0.28638150593666478</v>
+      </c>
+      <c r="U59" s="15">
+        <f>T59+$Q$73</f>
+        <v>0.29565259978325176</v>
+      </c>
+      <c r="V59" s="15">
+        <f>U59+$Q$73</f>
+        <v>0.30492369362983873</v>
+      </c>
+      <c r="W59" s="15">
+        <f>V59+$Q$73</f>
+        <v>0.31419478747642571</v>
+      </c>
+      <c r="X59" s="15">
+        <f>W59+$Q$73</f>
+        <v>0.32346588132301268</v>
+      </c>
+      <c r="Y59" s="15">
+        <f>X59+$Q$73</f>
+        <v>0.33273697516959966</v>
+      </c>
+      <c r="Z59" s="15">
+        <f>Y59+$Q$73</f>
+        <v>0.34200806901618663</v>
+      </c>
+      <c r="AA59" s="15">
+        <f>Z59+$Q$73</f>
+        <v>0.35127916286277361</v>
+      </c>
+      <c r="AB59" s="15">
+        <f>AA59+$Q$73</f>
+        <v>0.36055025670936058</v>
+      </c>
+      <c r="AC59" s="15">
+        <f>AB59+$Q$73</f>
+        <v>0.36982135055594756</v>
+      </c>
+      <c r="AD59" s="15">
+        <f>AC59+$Q$73</f>
+        <v>0.37909244440253453</v>
+      </c>
+      <c r="AE59" s="15">
+        <f>AD59+$Q$73</f>
+        <v>0.38836353824912151</v>
+      </c>
+    </row>
+    <row r="60" spans="5:31">
+      <c r="E60" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="O60" s="15">
+        <f>N5+$Q$73</f>
+        <v>0.23846695098944429</v>
+      </c>
+      <c r="P60" s="15">
+        <f>O60+$Q$73</f>
+        <v>0.24773804483603123</v>
+      </c>
+      <c r="Q60" s="15">
+        <f>P60+$Q$73</f>
+        <v>0.25700913868261821</v>
+      </c>
+      <c r="R60" s="15">
+        <f>Q60+$Q$73</f>
+        <v>0.26628023252920519</v>
+      </c>
+      <c r="S60" s="15">
+        <f>R60+$Q$73</f>
+        <v>0.27555132637579216</v>
+      </c>
+      <c r="T60" s="15">
+        <f>S60+$Q$73</f>
+        <v>0.28482242022237914</v>
+      </c>
+      <c r="U60" s="15">
+        <f>T60+$Q$73</f>
+        <v>0.29409351406896611</v>
+      </c>
+      <c r="V60" s="15">
+        <f>U60+$Q$73</f>
+        <v>0.30336460791555309</v>
+      </c>
+      <c r="W60" s="15">
+        <f>V60+$Q$73</f>
+        <v>0.31263570176214006</v>
+      </c>
+      <c r="X60" s="15">
+        <f>W60+$Q$73</f>
+        <v>0.32190679560872704</v>
+      </c>
+      <c r="Y60" s="15">
+        <f>X60+$Q$73</f>
+        <v>0.33117788945531401</v>
+      </c>
+      <c r="Z60" s="15">
+        <f>Y60+$Q$73</f>
+        <v>0.34044898330190099</v>
+      </c>
+      <c r="AA60" s="15">
+        <f>Z60+$Q$73</f>
+        <v>0.34972007714848796</v>
+      </c>
+      <c r="AB60" s="15">
+        <f>AA60+$Q$73</f>
+        <v>0.35899117099507494</v>
+      </c>
+      <c r="AC60" s="15">
+        <f>AB60+$Q$73</f>
+        <v>0.36826226484166191</v>
+      </c>
+      <c r="AD60" s="15">
+        <f>AC60+$Q$73</f>
+        <v>0.37753335868824889</v>
+      </c>
+      <c r="AE60" s="15">
+        <f>AD60+$Q$73</f>
+        <v>0.38680445253483586</v>
+      </c>
+    </row>
+    <row r="61" spans="5:31">
+      <c r="E61" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="O61" s="15">
+        <f>N6+$Q$73</f>
+        <v>0.23848746527515793</v>
+      </c>
+      <c r="P61" s="15">
+        <f>O61+$Q$73</f>
+        <v>0.24775855912174488</v>
+      </c>
+      <c r="Q61" s="15">
+        <f>P61+$Q$73</f>
+        <v>0.25702965296833186</v>
+      </c>
+      <c r="R61" s="15">
+        <f>Q61+$Q$73</f>
+        <v>0.26630074681491883</v>
+      </c>
+      <c r="S61" s="15">
+        <f>R61+$Q$73</f>
+        <v>0.27557184066150581</v>
+      </c>
+      <c r="T61" s="15">
+        <f>S61+$Q$73</f>
+        <v>0.28484293450809278</v>
+      </c>
+      <c r="U61" s="15">
+        <f>T61+$Q$73</f>
+        <v>0.29411402835467976</v>
+      </c>
+      <c r="V61" s="15">
+        <f>U61+$Q$73</f>
+        <v>0.30338512220126673</v>
+      </c>
+      <c r="W61" s="15">
+        <f>V61+$Q$73</f>
+        <v>0.31265621604785371</v>
+      </c>
+      <c r="X61" s="15">
+        <f>W61+$Q$73</f>
+        <v>0.32192730989444068</v>
+      </c>
+      <c r="Y61" s="15">
+        <f>X61+$Q$73</f>
+        <v>0.33119840374102766</v>
+      </c>
+      <c r="Z61" s="15">
+        <f>Y61+$Q$73</f>
+        <v>0.34046949758761463</v>
+      </c>
+      <c r="AA61" s="15">
+        <f>Z61+$Q$73</f>
+        <v>0.34974059143420161</v>
+      </c>
+      <c r="AB61" s="15">
+        <f>AA61+$Q$73</f>
+        <v>0.35901168528078858</v>
+      </c>
+      <c r="AC61" s="15">
+        <f>AB61+$Q$73</f>
+        <v>0.36828277912737556</v>
+      </c>
+      <c r="AD61" s="15">
+        <f>AC61+$Q$73</f>
+        <v>0.37755387297396253</v>
+      </c>
+      <c r="AE61" s="15">
+        <f>AD61+$Q$73</f>
+        <v>0.38682496682054951</v>
+      </c>
+    </row>
+    <row r="62" spans="5:31">
+      <c r="E62" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="O62" s="15">
+        <f>N7+$Q$73</f>
+        <v>0.21684804989054327</v>
+      </c>
+      <c r="P62" s="15">
+        <f>O62+$Q$73</f>
+        <v>0.22611914373713021</v>
+      </c>
+      <c r="Q62" s="15">
+        <f>P62+$Q$73</f>
+        <v>0.23539023758371716</v>
+      </c>
+      <c r="R62" s="15">
+        <f>Q62+$Q$73</f>
+        <v>0.24466133143030411</v>
+      </c>
+      <c r="S62" s="15">
+        <f>R62+$Q$73</f>
+        <v>0.25393242527689108</v>
+      </c>
+      <c r="T62" s="15">
+        <f>S62+$Q$73</f>
+        <v>0.26320351912347806</v>
+      </c>
+      <c r="U62" s="15">
+        <f>T62+$Q$73</f>
+        <v>0.27247461297006503</v>
+      </c>
+      <c r="V62" s="15">
+        <f>U62+$Q$73</f>
+        <v>0.28174570681665201</v>
+      </c>
+      <c r="W62" s="15">
+        <f>V62+$Q$73</f>
+        <v>0.29101680066323898</v>
+      </c>
+      <c r="X62" s="15">
+        <f>W62+$Q$73</f>
+        <v>0.30028789450982596</v>
+      </c>
+      <c r="Y62" s="15">
+        <f>X62+$Q$73</f>
+        <v>0.30955898835641293</v>
+      </c>
+      <c r="Z62" s="15">
+        <f>Y62+$Q$73</f>
+        <v>0.31883008220299991</v>
+      </c>
+      <c r="AA62" s="15">
+        <f>Z62+$Q$73</f>
+        <v>0.32810117604958688</v>
+      </c>
+      <c r="AB62" s="15">
+        <f>AA62+$Q$73</f>
+        <v>0.33737226989617386</v>
+      </c>
+      <c r="AC62" s="15">
+        <f>AB62+$Q$73</f>
+        <v>0.34664336374276083</v>
+      </c>
+      <c r="AD62" s="15">
+        <f>AC62+$Q$73</f>
+        <v>0.35591445758934781</v>
+      </c>
+      <c r="AE62" s="15">
+        <f>AD62+$Q$73</f>
+        <v>0.36518555143593479</v>
+      </c>
+    </row>
+    <row r="63" spans="5:31">
+      <c r="E63" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="O63" s="15">
+        <f>N8+$Q$73</f>
+        <v>0.17880320241801598</v>
+      </c>
+      <c r="P63" s="15">
+        <f>O63+$Q$73</f>
+        <v>0.18807429626460292</v>
+      </c>
+      <c r="Q63" s="15">
+        <f>P63+$Q$73</f>
+        <v>0.19734539011118987</v>
+      </c>
+      <c r="R63" s="15">
+        <f>Q63+$Q$73</f>
+        <v>0.20661648395777682</v>
+      </c>
+      <c r="S63" s="15">
+        <f>R63+$Q$73</f>
+        <v>0.21588757780436377</v>
+      </c>
+      <c r="T63" s="15">
+        <f>S63+$Q$73</f>
+        <v>0.22515867165095071</v>
+      </c>
+      <c r="U63" s="15">
+        <f>T63+$Q$73</f>
+        <v>0.23442976549753766</v>
+      </c>
+      <c r="V63" s="15">
+        <f>U63+$Q$73</f>
+        <v>0.24370085934412461</v>
+      </c>
+      <c r="W63" s="15">
+        <f>V63+$Q$73</f>
+        <v>0.25297195319071158</v>
+      </c>
+      <c r="X63" s="15">
+        <f>W63+$Q$73</f>
+        <v>0.26224304703729856</v>
+      </c>
+      <c r="Y63" s="15">
+        <f>X63+$Q$73</f>
+        <v>0.27151414088388554</v>
+      </c>
+      <c r="Z63" s="15">
+        <f>Y63+$Q$73</f>
+        <v>0.28078523473047251</v>
+      </c>
+      <c r="AA63" s="15">
+        <f>Z63+$Q$73</f>
+        <v>0.29005632857705949</v>
+      </c>
+      <c r="AB63" s="15">
+        <f>AA63+$Q$73</f>
+        <v>0.29932742242364646</v>
+      </c>
+      <c r="AC63" s="15">
+        <f>AB63+$Q$73</f>
+        <v>0.30859851627023344</v>
+      </c>
+      <c r="AD63" s="15">
+        <f>AC63+$Q$73</f>
+        <v>0.31786961011682041</v>
+      </c>
+      <c r="AE63" s="15">
+        <f>AD63+$Q$73</f>
+        <v>0.32714070396340739</v>
+      </c>
+    </row>
+    <row r="64" spans="5:31">
+      <c r="E64" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="O64" s="15">
+        <f>N9+$Q$73</f>
+        <v>0.260077468846587</v>
+      </c>
+      <c r="P64" s="15">
+        <f>O64+$Q$73</f>
+        <v>0.26934856269317398</v>
+      </c>
+      <c r="Q64" s="15">
+        <f>P64+$Q$73</f>
+        <v>0.27861965653976095</v>
+      </c>
+      <c r="R64" s="15">
+        <f>Q64+$Q$73</f>
+        <v>0.28789075038634793</v>
+      </c>
+      <c r="S64" s="15">
+        <f>R64+$Q$73</f>
+        <v>0.2971618442329349</v>
+      </c>
+      <c r="T64" s="15">
+        <f>S64+$Q$73</f>
+        <v>0.30643293807952188</v>
+      </c>
+      <c r="U64" s="15">
+        <f>T64+$Q$73</f>
+        <v>0.31570403192610885</v>
+      </c>
+      <c r="V64" s="15">
+        <f>U64+$Q$73</f>
+        <v>0.32497512577269583</v>
+      </c>
+      <c r="W64" s="15">
+        <f>V64+$Q$73</f>
+        <v>0.3342462196192828</v>
+      </c>
+      <c r="X64" s="15">
+        <f>W64+$Q$73</f>
+        <v>0.34351731346586978</v>
+      </c>
+      <c r="Y64" s="15">
+        <f>X64+$Q$73</f>
+        <v>0.35278840731245675</v>
+      </c>
+      <c r="Z64" s="15">
+        <f>Y64+$Q$73</f>
+        <v>0.36205950115904373</v>
+      </c>
+      <c r="AA64" s="15">
+        <f>Z64+$Q$73</f>
+        <v>0.3713305950056307</v>
+      </c>
+      <c r="AB64" s="15">
+        <f>AA64+$Q$73</f>
+        <v>0.38060168885221768</v>
+      </c>
+      <c r="AC64" s="15">
+        <f>AB64+$Q$73</f>
+        <v>0.38987278269880465</v>
+      </c>
+      <c r="AD64" s="15">
+        <f>AC64+$Q$73</f>
+        <v>0.39914387654539163</v>
+      </c>
+      <c r="AE64" s="15">
+        <f>AD64+$Q$73</f>
+        <v>0.4084149703919786</v>
+      </c>
+    </row>
+    <row r="65" spans="5:31">
+      <c r="E65" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="O65" s="15">
+        <f>N10+$Q$73</f>
+        <v>0.25838119384658692</v>
+      </c>
+      <c r="P65" s="15">
+        <f>O65+$Q$73</f>
+        <v>0.2676522876931739</v>
+      </c>
+      <c r="Q65" s="15">
+        <f>P65+$Q$73</f>
+        <v>0.27692338153976087</v>
+      </c>
+      <c r="R65" s="15">
+        <f>Q65+$Q$73</f>
+        <v>0.28619447538634785</v>
+      </c>
+      <c r="S65" s="15">
+        <f>R65+$Q$73</f>
+        <v>0.29546556923293482</v>
+      </c>
+      <c r="T65" s="15">
+        <f>S65+$Q$73</f>
+        <v>0.3047366630795218</v>
+      </c>
+      <c r="U65" s="15">
+        <f>T65+$Q$73</f>
+        <v>0.31400775692610877</v>
+      </c>
+      <c r="V65" s="15">
+        <f>U65+$Q$73</f>
+        <v>0.32327885077269575</v>
+      </c>
+      <c r="W65" s="15">
+        <f>V65+$Q$73</f>
+        <v>0.33254994461928272</v>
+      </c>
+      <c r="X65" s="15">
+        <f>W65+$Q$73</f>
+        <v>0.3418210384658697</v>
+      </c>
+      <c r="Y65" s="15">
+        <f>X65+$Q$73</f>
+        <v>0.35109213231245667</v>
+      </c>
+      <c r="Z65" s="15">
+        <f>Y65+$Q$73</f>
+        <v>0.36036322615904365</v>
+      </c>
+      <c r="AA65" s="15">
+        <f>Z65+$Q$73</f>
+        <v>0.36963432000563062</v>
+      </c>
+      <c r="AB65" s="15">
+        <f>AA65+$Q$73</f>
+        <v>0.3789054138522176</v>
+      </c>
+      <c r="AC65" s="15">
+        <f>AB65+$Q$73</f>
+        <v>0.38817650769880457</v>
+      </c>
+      <c r="AD65" s="15">
+        <f>AC65+$Q$73</f>
+        <v>0.39744760154539155</v>
+      </c>
+      <c r="AE65" s="15">
+        <f>AD65+$Q$73</f>
+        <v>0.40671869539197852</v>
+      </c>
+    </row>
+    <row r="66" spans="5:31">
+      <c r="E66" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="O66" s="15">
+        <f>N11+$Q$73</f>
+        <v>0.26308409384658726</v>
+      </c>
+      <c r="P66" s="15">
+        <f>O66+$Q$73</f>
+        <v>0.27235518769317424</v>
+      </c>
+      <c r="Q66" s="15">
+        <f>P66+$Q$73</f>
+        <v>0.28162628153976121</v>
+      </c>
+      <c r="R66" s="15">
+        <f>Q66+$Q$73</f>
+        <v>0.29089737538634819</v>
+      </c>
+      <c r="S66" s="15">
+        <f>R66+$Q$73</f>
+        <v>0.30016846923293516</v>
+      </c>
+      <c r="T66" s="15">
+        <f>S66+$Q$73</f>
+        <v>0.30943956307952214</v>
+      </c>
+      <c r="U66" s="15">
+        <f>T66+$Q$73</f>
+        <v>0.31871065692610911</v>
+      </c>
+      <c r="V66" s="15">
+        <f>U66+$Q$73</f>
+        <v>0.32798175077269609</v>
+      </c>
+      <c r="W66" s="15">
+        <f>V66+$Q$73</f>
+        <v>0.33725284461928307</v>
+      </c>
+      <c r="X66" s="15">
+        <f>W66+$Q$73</f>
+        <v>0.34652393846587004</v>
+      </c>
+      <c r="Y66" s="15">
+        <f>X66+$Q$73</f>
+        <v>0.35579503231245702</v>
+      </c>
+      <c r="Z66" s="15">
+        <f>Y66+$Q$73</f>
+        <v>0.36506612615904399</v>
+      </c>
+      <c r="AA66" s="15">
+        <f>Z66+$Q$73</f>
+        <v>0.37433722000563097</v>
+      </c>
+      <c r="AB66" s="15">
+        <f>AA66+$Q$73</f>
+        <v>0.38360831385221794</v>
+      </c>
+      <c r="AC66" s="15">
+        <f>AB66+$Q$73</f>
+        <v>0.39287940769880492</v>
+      </c>
+      <c r="AD66" s="15">
+        <f>AC66+$Q$73</f>
+        <v>0.40215050154539189</v>
+      </c>
+      <c r="AE66" s="15">
+        <f>AD66+$Q$73</f>
+        <v>0.41142159539197887</v>
+      </c>
+    </row>
+    <row r="67" spans="5:31">
+      <c r="E67" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="O67" s="15">
+        <f>N12+$Q$73</f>
+        <v>0.24259452784658694</v>
+      </c>
+      <c r="P67" s="15">
+        <f>O67+$Q$73</f>
+        <v>0.25186562169317389</v>
+      </c>
+      <c r="Q67" s="15">
+        <f>P67+$Q$73</f>
+        <v>0.26113671553976087</v>
+      </c>
+      <c r="R67" s="15">
+        <f>Q67+$Q$73</f>
+        <v>0.27040780938634784</v>
+      </c>
+      <c r="S67" s="15">
+        <f>R67+$Q$73</f>
+        <v>0.27967890323293482</v>
+      </c>
+      <c r="T67" s="15">
+        <f>S67+$Q$73</f>
+        <v>0.28894999707952179</v>
+      </c>
+      <c r="U67" s="15">
+        <f>T67+$Q$73</f>
+        <v>0.29822109092610877</v>
+      </c>
+      <c r="V67" s="15">
+        <f>U67+$Q$73</f>
+        <v>0.30749218477269574</v>
+      </c>
+      <c r="W67" s="15">
+        <f>V67+$Q$73</f>
+        <v>0.31676327861928272</v>
+      </c>
+      <c r="X67" s="15">
+        <f>W67+$Q$73</f>
+        <v>0.32603437246586969</v>
+      </c>
+      <c r="Y67" s="15">
+        <f>X67+$Q$73</f>
+        <v>0.33530546631245667</v>
+      </c>
+      <c r="Z67" s="15">
+        <f>Y67+$Q$73</f>
+        <v>0.34457656015904364</v>
+      </c>
+      <c r="AA67" s="15">
+        <f>Z67+$Q$73</f>
+        <v>0.35384765400563062</v>
+      </c>
+      <c r="AB67" s="15">
+        <f>AA67+$Q$73</f>
+        <v>0.36311874785221759</v>
+      </c>
+      <c r="AC67" s="15">
+        <f>AB67+$Q$73</f>
+        <v>0.37238984169880457</v>
+      </c>
+      <c r="AD67" s="15">
+        <f>AC67+$Q$73</f>
+        <v>0.38166093554539154</v>
+      </c>
+      <c r="AE67" s="15">
+        <f>AD67+$Q$73</f>
+        <v>0.39093202939197852</v>
+      </c>
+    </row>
+    <row r="68" spans="5:31">
+      <c r="E68" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="O68" s="15">
+        <f>N13+$Q$73</f>
+        <v>0.19463589768223219</v>
+      </c>
+      <c r="P68" s="15">
+        <f>O68+$Q$73</f>
+        <v>0.20390699152881914</v>
+      </c>
+      <c r="Q68" s="15">
+        <f>P68+$Q$73</f>
+        <v>0.21317808537540608</v>
+      </c>
+      <c r="R68" s="15">
+        <f>Q68+$Q$73</f>
+        <v>0.22244917922199303</v>
+      </c>
+      <c r="S68" s="15">
+        <f>R68+$Q$73</f>
+        <v>0.23172027306857998</v>
+      </c>
+      <c r="T68" s="15">
+        <f>S68+$Q$73</f>
+        <v>0.24099136691516693</v>
+      </c>
+      <c r="U68" s="15">
+        <f>T68+$Q$73</f>
+        <v>0.2502624607617539</v>
+      </c>
+      <c r="V68" s="15">
+        <f>U68+$Q$73</f>
+        <v>0.25953355460834088</v>
+      </c>
+      <c r="W68" s="15">
+        <f>V68+$Q$73</f>
+        <v>0.26880464845492785</v>
+      </c>
+      <c r="X68" s="15">
+        <f>W68+$Q$73</f>
+        <v>0.27807574230151483</v>
+      </c>
+      <c r="Y68" s="15">
+        <f>X68+$Q$73</f>
+        <v>0.2873468361481018</v>
+      </c>
+      <c r="Z68" s="15">
+        <f>Y68+$Q$73</f>
+        <v>0.29661792999468878</v>
+      </c>
+      <c r="AA68" s="15">
+        <f>Z68+$Q$73</f>
+        <v>0.30588902384127575</v>
+      </c>
+      <c r="AB68" s="15">
+        <f>AA68+$Q$73</f>
+        <v>0.31516011768786273</v>
+      </c>
+      <c r="AC68" s="15">
+        <f>AB68+$Q$73</f>
+        <v>0.3244312115344497</v>
+      </c>
+      <c r="AD68" s="15">
+        <f>AC68+$Q$73</f>
+        <v>0.33370230538103668</v>
+      </c>
+      <c r="AE68" s="15">
+        <f>AD68+$Q$73</f>
+        <v>0.34297339922762365</v>
+      </c>
+    </row>
+    <row r="69" spans="5:31">
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="5:31">
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="5:31">
+      <c r="O71" t="s">
+        <v>349</v>
+      </c>
+      <c r="P71" t="s">
         <v>344</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q71" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="37" spans="5:17">
-      <c r="O37" s="21">
+    <row r="72" spans="5:31">
+      <c r="N72" t="s">
+        <v>347</v>
+      </c>
+      <c r="O72" s="25">
         <f>AVERAGE(O25:O35)</f>
+        <v>1.1047491471032095E-2</v>
+      </c>
+      <c r="P72" s="25">
+        <f>AVERAGE(P25:P35)</f>
         <v>6.5065018990220005E-2</v>
       </c>
-      <c r="P37" s="21">
-        <f>AVERAGE(P25:P35)</f>
+      <c r="Q72" s="25">
+        <f>AVERAGE(Q25:Q35)</f>
         <v>6.1379348734473288E-2</v>
       </c>
-      <c r="Q37" s="21"/>
+    </row>
+    <row r="73" spans="5:31">
+      <c r="N73" t="s">
+        <v>346</v>
+      </c>
+      <c r="O73" s="22">
+        <f>AVERAGE(O36:O46)</f>
+        <v>1.9986215885772272E-3</v>
+      </c>
+      <c r="P73" s="22">
+        <f>AVERAGE(P36:P46)</f>
+        <v>1.0834568767411708E-2</v>
+      </c>
+      <c r="Q73" s="22">
+        <f>AVERAGE(Q36:Q46)</f>
+        <v>9.2710938465869492E-3</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/code/COSA_Data/electricity_price_data.xlsx
+++ b/code/COSA_Data/electricity_price_data.xlsx
@@ -18,16 +18,11 @@
     <sheet name="to_model" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="350">
   <si>
     <t>Rohdaten Tariferhebung ElCom 2020</t>
   </si>
@@ -1086,7 +1081,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1243,13 +1238,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3157,7 +3152,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7256,14 +7250,173 @@
               <c:f>to_model!$B$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_R1</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="36000"/>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$47:$AE$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.14241786428571399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14241786428571399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15498991607142903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17707033928571397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17849890285714298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21629237142857097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23147807142857096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23160115714285698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23463214285714298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F14A-4288-8F43-86D9DCC1B631}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -7362,36 +7515,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$47:$AE$47</c:f>
+              <c:f>to_model!$F$48:$AE$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.14241786428571399</c:v>
+                  <c:v>0.13945180628571396</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14241786428571399</c:v>
+                  <c:v>0.13945180628571396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15498991607142903</c:v>
+                  <c:v>0.15172606757142904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17707033928571397</c:v>
+                  <c:v>0.17349362228571397</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17849890285714298</c:v>
+                  <c:v>0.174895691657143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21629237142857097</c:v>
+                  <c:v>0.21213084342857094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23147807142857096</c:v>
+                  <c:v>0.22704513942857096</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23160115714285698</c:v>
+                  <c:v>0.227607641142857</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23463214285714298</c:v>
+                  <c:v>0.23075494285714299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7399,26 +7552,29 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{00000001-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$48</c:f>
+              <c:f>to_model!$B$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_R3</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="42000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -7517,36 +7673,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$48:$AE$48</c:f>
+              <c:f>to_model!$F$49:$AE$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.13945180628571396</c:v>
+                  <c:v>0.13825910571428601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13945180628571396</c:v>
+                  <c:v>0.13825910571428601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15172606757142904</c:v>
+                  <c:v>0.15050023642857133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17349362228571397</c:v>
+                  <c:v>0.17205536571428603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.174895691657143</c:v>
+                  <c:v>0.17346900514285696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21213084342857094</c:v>
+                  <c:v>0.21047964857142901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22704513942857096</c:v>
+                  <c:v>0.22528480857142827</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.227607641142857</c:v>
+                  <c:v>0.22600178285714334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23075494285714299</c:v>
+                  <c:v>0.22919585714285734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7554,26 +7710,29 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{00000002-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$49</c:f>
+              <c:f>to_model!$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_R4</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="48000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -7672,36 +7831,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$49:$AE$49</c:f>
+              <c:f>to_model!$F$50:$AE$50</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.13825910571428601</c:v>
+                  <c:v>0.13827479914285698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13825910571428601</c:v>
+                  <c:v>0.13827479914285698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15050023642857133</c:v>
+                  <c:v>0.15051636578571398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17205536571428603</c:v>
+                  <c:v>0.17207429014285697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17346900514285696</c:v>
+                  <c:v>0.17348636022857097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21047964857142901</c:v>
+                  <c:v>0.21049995771428601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22528480857142827</c:v>
+                  <c:v>0.22530655371428601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22600178285714334</c:v>
+                  <c:v>0.22602291257142906</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22919585714285734</c:v>
+                  <c:v>0.22921637142857099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7709,26 +7868,188 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{00000003-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$50</c:f>
+              <c:f>to_model!$B$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_R5</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="54000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$51:$AE$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.11297115754945088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11297115754945088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1229038728956048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15043983369230784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15189181905494539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1808316138461539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20053787340659388</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20373431472527506</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20757695604395632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F14A-4288-8F43-86D9DCC1B631}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_R6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -7827,36 +8148,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$50:$AE$50</c:f>
+              <c:f>to_model!$F$52:$AE$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.13827479914285698</c:v>
+                  <c:v>9.2616338057142894E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13827479914285698</c:v>
+                  <c:v>9.2616338057142894E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15051636578571398</c:v>
+                  <c:v>0.1007894141142857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17207429014285697</c:v>
+                  <c:v>0.117015557657143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17348636022857097</c:v>
+                  <c:v>0.11847007385142902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21049995771428601</c:v>
+                  <c:v>0.14636688479999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22530655371428601</c:v>
+                  <c:v>0.15701847634285696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22602291257142906</c:v>
+                  <c:v>0.16454812182857098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22921637142857099</c:v>
+                  <c:v>0.16953210857142903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7864,26 +8185,186 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{00000005-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$51</c:f>
+              <c:f>to_model!$B$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_C1</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="60000"/>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>to_model!$F$2:$AE$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>to_model!$F$53:$AE$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.154791151875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.154791151875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16846080609375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1919910684375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19347470324999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23370496124999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25002285749999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24826061624999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25080637500000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F14A-4288-8F43-86D9DCC1B631}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>to_model!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_C2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -7982,36 +8463,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$51:$AE$51</c:f>
+              <c:f>to_model!$F$54:$AE$54</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.11297115754945088</c:v>
+                  <c:v>0.15349350149999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11297115754945088</c:v>
+                  <c:v>0.15349350149999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1229038728956048</c:v>
+                  <c:v>0.167019409875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15043983369230784</c:v>
+                  <c:v>0.19042625474999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15189181905494539</c:v>
+                  <c:v>0.19193195459999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1808316138461539</c:v>
+                  <c:v>0.231810249</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20053787340659388</c:v>
+                  <c:v>0.24800940599999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20373431472527506</c:v>
+                  <c:v>0.24651345299999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20757695604395632</c:v>
+                  <c:v>0.24911009999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8019,26 +8500,30 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{00000007-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="8"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$52</c:f>
+              <c:f>to_model!$B$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_C3</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="66000"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -8137,36 +8622,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$52:$AE$52</c:f>
+              <c:f>to_model!$F$55:$AE$55</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>9.2616338057142894E-2</c:v>
+                  <c:v>0.16096662499999964</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2616338057142894E-2</c:v>
+                  <c:v>0.16096662499999964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1007894141142857</c:v>
+                  <c:v>0.17515834375000036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.117015557657143</c:v>
+                  <c:v>0.18695373749999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11847007385142902</c:v>
+                  <c:v>0.20345606999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14636688479999999</c:v>
+                  <c:v>0.23670664999999963</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15701847634285696</c:v>
+                  <c:v>0.25305910000000037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16454812182857098</c:v>
+                  <c:v>0.25331039999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16953210857142903</c:v>
+                  <c:v>0.25381300000000029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8174,26 +8659,29 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{00000008-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$53</c:f>
+              <c:f>to_model!$B$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_C4</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="72000"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -8292,36 +8780,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$53:$AE$53</c:f>
+              <c:f>to_model!$F$56:$AE$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.154791151875</c:v>
+                  <c:v>0.14768954849999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.154791151875</c:v>
+                  <c:v>0.14768954849999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16846080609375</c:v>
+                  <c:v>0.16067480287499999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1919910684375</c:v>
+                  <c:v>0.16429392674999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19347470324999999</c:v>
+                  <c:v>0.18073933980000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23370496124999998</c:v>
+                  <c:v>0.213207228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25002285749999997</c:v>
+                  <c:v>0.23034445199999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24826061624999998</c:v>
+                  <c:v>0.23219904599999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25080637500000003</c:v>
+                  <c:v>0.233323434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8329,26 +8817,29 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{00000009-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="10"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$54</c:f>
+              <c:f>to_model!$B$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_C5</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="78000"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -8447,36 +8938,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$54:$AE$54</c:f>
+              <c:f>to_model!$F$57:$AE$57</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.15349350149999999</c:v>
+                  <c:v>0.10388235462194061</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15349350149999999</c:v>
+                  <c:v>0.10388235462194061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.167019409875</c:v>
+                  <c:v>0.11306148052331044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19042625474999997</c:v>
+                  <c:v>0.13572641458359089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19193195459999998</c:v>
+                  <c:v>0.15041692208222007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.231810249</c:v>
+                  <c:v>0.17571001342468898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24800940599999996</c:v>
+                  <c:v>0.17786401342468897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24651345299999999</c:v>
+                  <c:v>0.17946909493153651</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24911009999999997</c:v>
+                  <c:v>0.18536480383564524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8484,28 +8975,30 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{0000000A-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="11"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$55</c:f>
+              <c:f>to_model!$B$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_R1</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="84000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -8602,36 +9095,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$55:$AE$55</c:f>
+              <c:f>to_model!$F$58:$AE$58</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>0.16096662499999964</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16096662499999964</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17515834375000036</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18695373749999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20345606999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23670664999999963</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25305910000000037</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25331039999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.25381300000000029</c:v>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.23510108372323141</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>0.23769836094049421</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>0.24032433155566263</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.24297931255880531</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.24566362444193596</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>0.24837759123770109</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>0.25112154055849512</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>0.25389580363600756</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>0.2567007153612072</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>0.25953661432476799</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>0.26240384285794144</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000">
+                  <c:v>0.26530274707388057</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000">
+                  <c:v>0.26823367690942068</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000">
+                  <c:v>0.27119698616732107</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000">
+                  <c:v>0.27419303255897415</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.27722217774758584</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>0.28028478739183327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8639,28 +9156,32 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{0000000B-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:idx val="12"/>
+          <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$56</c:f>
+              <c:f>to_model!$B$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_R2</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="90000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -8757,36 +9278,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$56:$AE$56</c:f>
+              <c:f>to_model!$F$59:$AE$59</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>0.14768954849999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14768954849999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16067480287499999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16429392674999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.18073933980000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.213207228</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23034445199999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.23219904599999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.233323434</c:v>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.23121613466760818</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>0.23377049294331359</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>0.23635307047028381</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.23896417900045652</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.24160413372984627</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>0.24427325333659283</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>0.24697186001943011</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>0.24970027953657969</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>0.25245884124507439</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>0.25524787814051603</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>0.25806772689727242</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000">
+                  <c:v>0.26091872790911869</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000">
+                  <c:v>0.26380122533032724</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000">
+                  <c:v>0.26671556711721184</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000">
+                  <c:v>0.26966210507013072</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.27264119487595356</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>0.27565319615099765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8794,28 +9339,32 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{0000000C-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:idx val="13"/>
+          <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$57</c:f>
+              <c:f>to_model!$B$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_R3</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
-                  <a:shade val="96000"/>
+                  <a:tint val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -8912,36 +9461,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$57:$AE$57</c:f>
+              <c:f>to_model!$F$60:$AE$60</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>0.10388235462194061</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10388235462194061</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11306148052331044</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13572641458359089</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15041692208222007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17571001342468898</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.17786401342468897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17946909493153651</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.18536480383564524</c:v>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.22965393293095551</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>0.23219103279629921</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0000">
+                  <c:v>0.23475616125076648</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.23734962793995656</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.23997174593027587</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>0.24262283174672927</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>0.24530320541112893</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>0.24801319048072523</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>0.25075311408726453</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0000">
+                  <c:v>0.25352330697647835</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>0.25632410354800883</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0000">
+                  <c:v>0.2591558418957754</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0000">
+                  <c:v>0.26201886384878714</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0000">
+                  <c:v>0.26491351501240612</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0000">
+                  <c:v>0.26784014481006679</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0000">
+                  <c:v>0.27079910652545602</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0000">
+                  <c:v>0.27379075734515912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8949,28 +9522,32 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{0000000D-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:idx val="14"/>
+          <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$58</c:f>
+              <c:f>to_model!$B$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_R4</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="97000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -9067,60 +9644,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$58:$AE$58</c:f>
+              <c:f>to_model!$F$61:$AE$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.24390323670372993</c:v>
+                  <c:v>0.22967448821696346</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.0000">
-                  <c:v>0.25317433055031691</c:v>
+                  <c:v>0.23221181516665404</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.0000">
-                  <c:v>0.26244542439690388</c:v>
+                  <c:v>0.23477717321418054</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.27171651824349086</c:v>
+                  <c:v>0.23737087203285723</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.0000">
-                  <c:v>0.28098761209007783</c:v>
+                  <c:v>0.23999322471711168</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.0000">
-                  <c:v>0.29025870593666481</c:v>
+                  <c:v>0.24264454782027947</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.0000">
-                  <c:v>0.29952979978325178</c:v>
+                  <c:v>0.24532516139281646</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.0000">
-                  <c:v>0.30880089362983876</c:v>
+                  <c:v>0.24803538902093317</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.0000">
-                  <c:v>0.31807198747642573</c:v>
+                  <c:v>0.25077555786565608</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.0000">
-                  <c:v>0.32734308132301271</c:v>
+                  <c:v>0.25354599870232025</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.0000">
-                  <c:v>0.33661417516959968</c:v>
+                  <c:v>0.25634704596049845</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.0000">
-                  <c:v>0.34588526901618666</c:v>
+                  <c:v>0.25917903776437134</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.0000">
-                  <c:v>0.35515636286277363</c:v>
+                  <c:v>0.26204231597354355</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.0000">
-                  <c:v>0.36442745670936061</c:v>
+                  <c:v>0.26493722622431076</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.0000">
-                  <c:v>0.37369855055594758</c:v>
+                  <c:v>0.26786411797138276</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.0000">
-                  <c:v>0.38296964440253456</c:v>
+                  <c:v>0.27082334453006718</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.0000">
-                  <c:v>0.39224073824912153</c:v>
+                  <c:v>0.27381526311891952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9128,28 +9705,32 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{0000000E-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
+          <c:idx val="15"/>
+          <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$59</c:f>
+              <c:f>to_model!$B$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_R5</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="91000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -9246,60 +9827,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$59:$AE$59</c:f>
+              <c:f>to_model!$F$62:$AE$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.24002603670372993</c:v>
+                  <c:v>0.20799182382959691</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.0000">
-                  <c:v>0.24929713055031688</c:v>
+                  <c:v>0.21028961172939881</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.0000">
-                  <c:v>0.25856822439690386</c:v>
+                  <c:v>0.212612784421426</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.26783931824349083</c:v>
+                  <c:v>0.21496162234395411</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.0000">
-                  <c:v>0.27711041209007781</c:v>
+                  <c:v>0.21733640903339818</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.0000">
-                  <c:v>0.28638150593666478</c:v>
+                  <c:v>0.21973743115853939</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.0000">
-                  <c:v>0.29565259978325176</c:v>
+                  <c:v>0.22216497855512987</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.0000">
-                  <c:v>0.30492369362983873</c:v>
+                  <c:v>0.22461934426087971</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.0000">
-                  <c:v>0.31419478747642571</c:v>
+                  <c:v>0.22710082455083061</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.0000">
-                  <c:v>0.32346588132301268</c:v>
+                  <c:v>0.22960971897312027</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.0000">
-                  <c:v>0.33273697516959966</c:v>
+                  <c:v>0.2321463303851419</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.0000">
-                  <c:v>0.34200806901618663</c:v>
+                  <c:v>0.23471096499010316</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.0000">
-                  <c:v>0.35127916286277361</c:v>
+                  <c:v>0.23730393237398906</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.0000">
-                  <c:v>0.36055025670936058</c:v>
+                  <c:v>0.23992554554293308</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.0000">
-                  <c:v>0.36982135055594756</c:v>
+                  <c:v>0.24257612096100137</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.0000">
-                  <c:v>0.37909244440253453</c:v>
+                  <c:v>0.2452559785883941</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.0000">
-                  <c:v>0.38836353824912151</c:v>
+                  <c:v>0.24796544192006903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9307,28 +9888,32 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{0000000F-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
+          <c:idx val="16"/>
+          <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$60</c:f>
+              <c:f>to_model!$B$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_R6</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="85000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -9425,60 +10010,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$60:$AE$60</c:f>
+              <c:f>to_model!$F$63:$AE$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.23846695098944429</c:v>
+                  <c:v>0.1698709391035769</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.0000">
-                  <c:v>0.24773804483603123</c:v>
+                  <c:v>0.17174758685449987</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.0000">
-                  <c:v>0.25700913868261821</c:v>
+                  <c:v>0.17364496685544531</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.26628023252920519</c:v>
+                  <c:v>0.17556330814576851</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.0000">
-                  <c:v>0.27555132637579216</c:v>
+                  <c:v>0.17750284229513508</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.0000">
-                  <c:v>0.28482242022237914</c:v>
+                  <c:v>0.17946380343147456</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.0000">
-                  <c:v>0.29409351406896611</c:v>
+                  <c:v>0.18144642826924276</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.0000">
-                  <c:v>0.30336460791555309</c:v>
+                  <c:v>0.18345095613799647</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.0000">
-                  <c:v>0.31263570176214006</c:v>
+                  <c:v>0.18547762901128367</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.0000">
-                  <c:v>0.32190679560872704</c:v>
+                  <c:v>0.18752669153585308</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.0000">
-                  <c:v>0.33117788945531401</c:v>
+                  <c:v>0.18959839106118628</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.0000">
-                  <c:v>0.34044898330190099</c:v>
+                  <c:v>0.19169297766935614</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.0000">
-                  <c:v>0.34972007714848796</c:v>
+                  <c:v>0.1938107042052151</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.0000">
-                  <c:v>0.35899117099507494</c:v>
+                  <c:v>0.19595182630691693</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.0000">
-                  <c:v>0.36826226484166191</c:v>
+                  <c:v>0.19811660243677576</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.0000">
-                  <c:v>0.37753335868824889</c:v>
+                  <c:v>0.2003052939124659</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.0000">
-                  <c:v>0.38680445253483586</c:v>
+                  <c:v>0.20251816493856645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9486,28 +10071,30 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{00000010-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
+          <c:idx val="17"/>
+          <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$61</c:f>
+              <c:f>to_model!$B$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_C1</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="79000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -9604,60 +10191,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$61:$AE$61</c:f>
+              <c:f>to_model!$F$64:$AE$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.23848746527515793</c:v>
+                  <c:v>0.25130764203562783</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.0000">
-                  <c:v>0.24775855912174488</c:v>
+                  <c:v>0.2540839610676216</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.0000">
-                  <c:v>0.25702965296833186</c:v>
+                  <c:v>0.25689095146044222</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.26630074681491883</c:v>
+                  <c:v>0.2597289520556868</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.0000">
-                  <c:v>0.27557184066150581</c:v>
+                  <c:v>0.26259830543830209</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.0000">
-                  <c:v>0.28484293450809278</c:v>
+                  <c:v>0.26549935797793922</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.0000">
-                  <c:v>0.29411402835467976</c:v>
+                  <c:v>0.26843245987076503</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.0000">
-                  <c:v>0.30338512220126673</c:v>
+                  <c:v>0.27139796518173548</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.0000">
-                  <c:v>0.31265621604785371</c:v>
+                  <c:v>0.27439623188733619</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.0000">
-                  <c:v>0.32192730989444068</c:v>
+                  <c:v>0.27742762191879489</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.0000">
-                  <c:v>0.33119840374102766</c:v>
+                  <c:v>0.28049250120577152</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.0000">
-                  <c:v>0.34046949758761463</c:v>
+                  <c:v>0.28359123972053074</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.0000">
-                  <c:v>0.34974059143420161</c:v>
+                  <c:v>0.28672421152260275</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.0000">
-                  <c:v>0.35901168528078858</c:v>
+                  <c:v>0.28989179480393712</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.0000">
-                  <c:v>0.36828277912737556</c:v>
+                  <c:v>0.29309437193455579</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.0000">
-                  <c:v>0.37755387297396253</c:v>
+                  <c:v>0.2963323295087103</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.0000">
-                  <c:v>0.38682496682054951</c:v>
+                  <c:v>0.29960605839154886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9665,28 +10252,33 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{00000011-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
+          <c:idx val="18"/>
+          <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$62</c:f>
+              <c:f>to_model!$B$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_C2</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="73000"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -9783,60 +10375,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$62:$AE$62</c:f>
+              <c:f>to_model!$F$65:$AE$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.21684804989054327</c:v>
+                  <c:v>0.2496079768237926</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.0000">
-                  <c:v>0.22611914373713021</c:v>
+                  <c:v>0.25236551881885505</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.0000">
-                  <c:v>0.23539023758371716</c:v>
+                  <c:v>0.25515352473558894</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.24466133143030411</c:v>
+                  <c:v>0.25797233112390916</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.0000">
-                  <c:v>0.25393242527689108</c:v>
+                  <c:v>0.2608222782517628</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.0000">
-                  <c:v>0.26320351912347806</c:v>
+                  <c:v>0.26370371014620431</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.0000">
-                  <c:v>0.27247461297006503</c:v>
+                  <c:v>0.26661697463492401</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.0000">
-                  <c:v>0.28174570681665201</c:v>
+                  <c:v>0.26956242338823572</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.0000">
-                  <c:v>0.29101680066323898</c:v>
+                  <c:v>0.27254041196152801</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.0000">
-                  <c:v>0.30028789450982596</c:v>
+                  <c:v>0.27555129983818455</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.0000">
-                  <c:v>0.30955898835641293</c:v>
+                  <c:v>0.27859545047297873</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.0000">
-                  <c:v>0.31883008220299991</c:v>
+                  <c:v>0.28167323133594729</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.0000">
-                  <c:v>0.32810117604958688</c:v>
+                  <c:v>0.28478501395674921</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.0000">
-                  <c:v>0.33737226989617386</c:v>
+                  <c:v>0.28793117396951418</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.0000">
-                  <c:v>0.34664336374276083</c:v>
+                  <c:v>0.29111209115818665</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.0000">
-                  <c:v>0.35591445758934781</c:v>
+                  <c:v>0.29432814950237102</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.0000">
-                  <c:v>0.36518555143593479</c:v>
+                  <c:v>0.29757973722368314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9844,28 +10436,33 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{00000012-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
+          <c:idx val="19"/>
+          <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$63</c:f>
+              <c:f>to_model!$B$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_C3</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="67000"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -9962,60 +10559,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$63:$AE$63</c:f>
+              <c:f>to_model!$F$66:$AE$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.17880320241801598</c:v>
+                  <c:v>0.25432027614126185</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.0000">
-                  <c:v>0.18807429626460292</c:v>
+                  <c:v>0.25712987722284297</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.0000">
-                  <c:v>0.19734539011118987</c:v>
+                  <c:v>0.25997051734840987</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.20661648395777682</c:v>
+                  <c:v>0.26284253942153624</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.0000">
-                  <c:v>0.21588757780436377</c:v>
+                  <c:v>0.26574629013402007</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.0000">
-                  <c:v>0.22515867165095071</c:v>
+                  <c:v>0.26868212000773406</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.0000">
-                  <c:v>0.23442976549753766</c:v>
+                  <c:v>0.27165038343693831</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.0000">
-                  <c:v>0.24370085934412461</c:v>
+                  <c:v>0.27465143873106052</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.0000">
-                  <c:v>0.25297195319071158</c:v>
+                  <c:v>0.27768564815794861</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.0000">
-                  <c:v>0.26224304703729856</c:v>
+                  <c:v>0.28075337798760158</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.0000">
-                  <c:v>0.27151414088388554</c:v>
+                  <c:v>0.28385499853638307</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.0000">
-                  <c:v>0.28078523473047251</c:v>
+                  <c:v>0.28699088421172358</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.0000">
-                  <c:v>0.29005632857705949</c:v>
+                  <c:v>0.29016141355731656</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.0000">
-                  <c:v>0.29932742242364646</c:v>
+                  <c:v>0.29336696929881362</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.0000">
-                  <c:v>0.30859851627023344</c:v>
+                  <c:v>0.29660793839002481</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.0000">
-                  <c:v>0.31786961011682041</c:v>
+                  <c:v>0.29988471205962902</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.0000">
-                  <c:v>0.32714070396340739</c:v>
+                  <c:v>0.30319768585840068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10023,28 +10620,30 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{00000013-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
+          <c:idx val="20"/>
+          <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$64</c:f>
+              <c:f>to_model!$B$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_C4</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="61000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -10141,60 +10740,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$64:$AE$64</c:f>
+              <c:f>to_model!$F$67:$AE$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.260077468846587</c:v>
+                  <c:v>0.23378975925231338</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.0000">
-                  <c:v>0.26934856269317398</c:v>
+                  <c:v>0.23637254962366797</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.0000">
-                  <c:v>0.27861965653976095</c:v>
+                  <c:v>0.23898387334962157</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.28789075038634793</c:v>
+                  <c:v>0.24162404565216572</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.0000">
-                  <c:v>0.2971618442329349</c:v>
+                  <c:v>0.24429338523570429</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.0000">
-                  <c:v>0.30643293807952188</c:v>
+                  <c:v>0.24699221432552529</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.0000">
-                  <c:v>0.31570403192610885</c:v>
+                  <c:v>0.24972085870669786</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.0000">
-                  <c:v>0.32497512577269583</c:v>
+                  <c:v>0.25247964776339893</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.0000">
-                  <c:v>0.3342462196192828</c:v>
+                  <c:v>0.25526891451867428</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.0000">
-                  <c:v>0.34351731346586978</c:v>
+                  <c:v>0.25808899567463894</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.0000">
-                  <c:v>0.35278840731245675</c:v>
+                  <c:v>0.26094023165312175</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.0000">
-                  <c:v>0.36205950115904373</c:v>
+                  <c:v>0.26382296663675875</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.0000">
-                  <c:v>0.3713305950056307</c:v>
+                  <c:v>0.26673754861054072</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.0000">
-                  <c:v>0.38060168885221768</c:v>
+                  <c:v>0.2696843294038197</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.0000">
-                  <c:v>0.38987278269880465</c:v>
+                  <c:v>0.27266366473277942</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.0000">
-                  <c:v>0.39914387654539163</c:v>
+                  <c:v>0.27567591424337518</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.0000">
-                  <c:v>0.4084149703919786</c:v>
+                  <c:v>0.27872144155474787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10202,28 +10801,32 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{00000014-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
+          <c:idx val="21"/>
+          <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>to_model!$B$65</c:f>
+              <c:f>to_model!$B$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COSA_C5</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="55000"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -10320,60 +10923,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>to_model!$F$65:$AE$65</c:f>
+              <c:f>to_model!$F$68:$AE$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.25838119384658692</c:v>
+                  <c:v>0.18573527793435354</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.0000">
-                  <c:v>0.2676522876931739</c:v>
+                  <c:v>0.18778718683320308</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.0000">
-                  <c:v>0.27692338153976087</c:v>
+                  <c:v>0.18986176417811201</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.28619447538634785</c:v>
+                  <c:v>0.19195926039854483</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.0000">
-                  <c:v>0.29546556923293482</c:v>
+                  <c:v>0.19407992869058338</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.0000">
-                  <c:v>0.3047366630795218</c:v>
+                  <c:v>0.19622402504749112</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.0000">
-                  <c:v>0.31400775692610877</c:v>
+                  <c:v>0.19839180829061487</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.0000">
-                  <c:v>0.32327885077269575</c:v>
+                  <c:v>0.20058354010062807</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.0000">
-                  <c:v>0.33254994461928272</c:v>
+                  <c:v>0.20279948504911918</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.0000">
-                  <c:v>0.3418210384658697</c:v>
+                  <c:v>0.20503991063052904</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.0000">
-                  <c:v>0.35109213231245667</c:v>
+                  <c:v>0.207305087294441</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.0000">
-                  <c:v>0.36036322615904365</c:v>
+                  <c:v>0.20959528847822789</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.0000">
-                  <c:v>0.36963432000563062</c:v>
+                  <c:v>0.21191079064005963</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.0000">
-                  <c:v>0.3789054138522176</c:v>
+                  <c:v>0.21425187329227535</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.0000">
-                  <c:v>0.38817650769880457</c:v>
+                  <c:v>0.21661881903512442</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.0000">
-                  <c:v>0.39744760154539155</c:v>
+                  <c:v>0.21901191359088001</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.0000">
-                  <c:v>0.40671869539197852</c:v>
+                  <c:v>0.22143144583832969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10381,544 +10984,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-B951-41E4-86A6-F54EF52B170E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>to_model!$B$66</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="49000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>to_model!$F$2:$AE$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2035</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>to_model!$F$66:$AE$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.26308409384658726</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.0000">
-                  <c:v>0.27235518769317424</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.0000">
-                  <c:v>0.28162628153976121</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.29089737538634819</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.0000">
-                  <c:v>0.30016846923293516</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.0000">
-                  <c:v>0.30943956307952214</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.0000">
-                  <c:v>0.31871065692610911</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.0000">
-                  <c:v>0.32798175077269609</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.0000">
-                  <c:v>0.33725284461928307</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.0000">
-                  <c:v>0.34652393846587004</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.0000">
-                  <c:v>0.35579503231245702</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.0000">
-                  <c:v>0.36506612615904399</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.0000">
-                  <c:v>0.37433722000563097</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.0000">
-                  <c:v>0.38360831385221794</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.0000">
-                  <c:v>0.39287940769880492</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.0000">
-                  <c:v>0.40215050154539189</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.0000">
-                  <c:v>0.41142159539197887</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-B951-41E4-86A6-F54EF52B170E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>to_model!$B$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="43000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>to_model!$F$2:$AE$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2035</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>to_model!$F$67:$AE$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.24259452784658694</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.0000">
-                  <c:v>0.25186562169317389</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.0000">
-                  <c:v>0.26113671553976087</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.27040780938634784</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.0000">
-                  <c:v>0.27967890323293482</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.0000">
-                  <c:v>0.28894999707952179</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.0000">
-                  <c:v>0.29822109092610877</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.0000">
-                  <c:v>0.30749218477269574</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.0000">
-                  <c:v>0.31676327861928272</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.0000">
-                  <c:v>0.32603437246586969</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.0000">
-                  <c:v>0.33530546631245667</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.0000">
-                  <c:v>0.34457656015904364</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.0000">
-                  <c:v>0.35384765400563062</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.0000">
-                  <c:v>0.36311874785221759</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.0000">
-                  <c:v>0.37238984169880457</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.0000">
-                  <c:v>0.38166093554539154</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.0000">
-                  <c:v>0.39093202939197852</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-B951-41E4-86A6-F54EF52B170E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="21"/>
-          <c:order val="21"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>to_model!$B$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="37000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>to_model!$F$2:$AE$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2035</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>to_model!$F$68:$AE$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.19463589768223219</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.0000">
-                  <c:v>0.20390699152881914</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.0000">
-                  <c:v>0.21317808537540608</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.22244917922199303</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.0000">
-                  <c:v>0.23172027306857998</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.0000">
-                  <c:v>0.24099136691516693</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.0000">
-                  <c:v>0.2502624607617539</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.0000">
-                  <c:v>0.25953355460834088</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.0000">
-                  <c:v>0.26880464845492785</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.0000">
-                  <c:v>0.27807574230151483</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.0000">
-                  <c:v>0.2873468361481018</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.0000">
-                  <c:v>0.29661792999468878</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.0000">
-                  <c:v>0.30588902384127575</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.0000">
-                  <c:v>0.31516011768786273</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.0000">
-                  <c:v>0.3244312115344497</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.0000">
-                  <c:v>0.33370230538103668</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.0000">
-                  <c:v>0.34297339922762365</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-B951-41E4-86A6-F54EF52B170E}"/>
+              <c16:uniqueId val="{00000015-F14A-4288-8F43-86D9DCC1B631}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12864,18 +12930,18 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>536400</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>109450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19614,7 +19680,7 @@
       <c r="K203" s="3"/>
     </row>
     <row r="204" spans="1:11" ht="28">
-      <c r="C204" s="21"/>
+      <c r="C204" s="25"/>
       <c r="D204" s="6" t="s">
         <v>72</v>
       </c>
@@ -19632,7 +19698,7 @@
       </c>
     </row>
     <row r="205" spans="1:11" ht="28">
-      <c r="C205" s="21"/>
+      <c r="C205" s="25"/>
       <c r="D205" s="6" t="s">
         <v>73</v>
       </c>
@@ -19761,7 +19827,7 @@
       <c r="C213" s="5"/>
     </row>
     <row r="214" spans="3:7" ht="28">
-      <c r="C214" s="21"/>
+      <c r="C214" s="25"/>
       <c r="D214" s="6" t="s">
         <v>72</v>
       </c>
@@ -19776,7 +19842,7 @@
       </c>
     </row>
     <row r="215" spans="3:7" ht="28">
-      <c r="C215" s="21"/>
+      <c r="C215" s="25"/>
       <c r="D215" s="6" t="s">
         <v>73</v>
       </c>
@@ -19884,7 +19950,7 @@
       <c r="C222" s="5"/>
     </row>
     <row r="223" spans="3:7" ht="28">
-      <c r="C223" s="21"/>
+      <c r="C223" s="25"/>
       <c r="D223" s="6" t="s">
         <v>72</v>
       </c>
@@ -19899,7 +19965,7 @@
       </c>
     </row>
     <row r="224" spans="3:7" ht="28">
-      <c r="C224" s="21"/>
+      <c r="C224" s="25"/>
       <c r="D224" s="6" t="s">
         <v>73</v>
       </c>
@@ -23086,8 +23152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G46" workbookViewId="0">
-      <selection activeCell="AG66" sqref="AG66"/>
+    <sheetView tabSelected="1" topLeftCell="G58" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -24017,71 +24083,71 @@
         <v>341</v>
       </c>
       <c r="O14" s="15">
-        <f>N3*(1+$P$72)</f>
+        <f t="shared" ref="O14:O24" si="2">N3*(1+$P$72)</f>
         <v>0.24989848768785899</v>
       </c>
       <c r="P14" s="15">
-        <f>O14*(1+$P$72)</f>
+        <f t="shared" ref="P14:AE14" si="3">O14*(1+$P$72)</f>
         <v>0.26615813753489681</v>
       </c>
       <c r="Q14" s="15">
-        <f>P14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.28347572180800645</v>
       </c>
       <c r="R14" s="15">
-        <f>Q14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.30192007503071072</v>
       </c>
       <c r="S14" s="15">
-        <f>R14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.32156451044611256</v>
       </c>
       <c r="T14" s="15">
-        <f>S14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.34248711142486965</v>
       </c>
       <c r="U14" s="15">
-        <f>T14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.3647710418336344</v>
       </c>
       <c r="V14" s="15">
-        <f>U14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.38850487659762217</v>
       </c>
       <c r="W14" s="15">
-        <f>V14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.41378295377123953</v>
       </c>
       <c r="X14" s="15">
-        <f>W14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.44070574951619457</v>
       </c>
       <c r="Y14" s="15">
-        <f>X14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.46938027747756489</v>
       </c>
       <c r="Z14" s="15">
-        <f>Y14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.49992051414527738</v>
       </c>
       <c r="AA14" s="15">
-        <f>Z14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.53244785189174038</v>
       </c>
       <c r="AB14" s="15">
-        <f>AA14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.56709158148637828</v>
       </c>
       <c r="AC14" s="15">
-        <f>AB14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.60398940600498341</v>
       </c>
       <c r="AD14" s="15">
-        <f>AC14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.64328798817658939</v>
       </c>
       <c r="AE14" s="15">
-        <f>AD14*(1+$P$72)</f>
+        <f t="shared" si="3"/>
         <v>0.68514353334347955</v>
       </c>
     </row>
@@ -24091,71 +24157,71 @@
         <v>341</v>
       </c>
       <c r="O15" s="15">
-        <f>N4*(1+$P$72)</f>
+        <f t="shared" si="2"/>
         <v>0.24576901759623013</v>
       </c>
       <c r="P15" s="15">
-        <f>O15*(1+$P$72)</f>
+        <f t="shared" ref="P15:AE15" si="4">O15*(1+$P$72)</f>
         <v>0.26175998339333656</v>
       </c>
       <c r="Q15" s="15">
-        <f>P15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.2787914016837037</v>
       </c>
       <c r="R15" s="15">
-        <f>Q15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.2969309695285639</v>
       </c>
       <c r="S15" s="15">
-        <f>R15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.31625078869972434</v>
       </c>
       <c r="T15" s="15">
-        <f>S15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.33682765227214395</v>
       </c>
       <c r="U15" s="15">
-        <f>T15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.35874334986366219</v>
       </c>
       <c r="V15" s="15">
-        <f>U15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.3820849927351565</v>
       </c>
       <c r="W15" s="15">
-        <f>V15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.40694536004334753</v>
       </c>
       <c r="X15" s="15">
-        <f>W15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.43342326762254985</v>
       </c>
       <c r="Y15" s="15">
-        <f>X15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.46162396076121426</v>
       </c>
       <c r="Z15" s="15">
-        <f>Y15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.49165953253448325</v>
       </c>
       <c r="AA15" s="15">
-        <f>Z15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.52364936935556206</v>
       </c>
       <c r="AB15" s="15">
-        <f>AA15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.55772062551689838</v>
       </c>
       <c r="AC15" s="15">
-        <f>AB15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.59400872860739273</v>
       </c>
       <c r="AD15" s="15">
-        <f>AC15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.63265791781458913</v>
       </c>
       <c r="AE15" s="15">
-        <f>AD15*(1+$P$72)</f>
+        <f t="shared" si="4"/>
         <v>0.67382181725150836</v>
       </c>
     </row>
@@ -24165,71 +24231,71 @@
         <v>341</v>
       </c>
       <c r="O16" s="15">
-        <f>N5*(1+$P$72)</f>
+        <f t="shared" si="2"/>
         <v>0.2441084899403371</v>
       </c>
       <c r="P16" s="15">
-        <f>O16*(1+$P$72)</f>
+        <f t="shared" ref="P16:AE16" si="5">O16*(1+$P$72)</f>
         <v>0.25999141347397908</v>
       </c>
       <c r="Q16" s="15">
-        <f>P16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.27690775972895765</v>
       </c>
       <c r="R16" s="15">
-        <f>Q16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.29492476837426157</v>
       </c>
       <c r="S16" s="15">
-        <f>R16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.31411405402921916</v>
       </c>
       <c r="T16" s="15">
-        <f>S16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.33455189091972531</v>
       </c>
       <c r="U16" s="15">
-        <f>T16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.35631951605563122</v>
       </c>
       <c r="V16" s="15">
-        <f>U16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.37950345213437686</v>
       </c>
       <c r="W16" s="15">
-        <f>V16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.40419585145435416</v>
       </c>
       <c r="X16" s="15">
-        <f>W16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.43049486220499983</v>
       </c>
       <c r="Y16" s="15">
-        <f>X16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.45850501858956028</v>
       </c>
       <c r="Z16" s="15">
-        <f>Y16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.48833765633120119</v>
       </c>
       <c r="AA16" s="15">
-        <f>Z16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.52011135521403029</v>
       </c>
       <c r="AB16" s="15">
-        <f>AA16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.5539524104180602</v>
       </c>
       <c r="AC16" s="15">
-        <f>AB16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.58999533452158948</v>
       </c>
       <c r="AD16" s="15">
-        <f>AC16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.62838339216637784</v>
       </c>
       <c r="AE16" s="15">
-        <f>AD16*(1+$P$72)</f>
+        <f t="shared" si="5"/>
         <v>0.66926916951082205</v>
       </c>
     </row>
@@ -24239,71 +24305,71 @@
         <v>341</v>
       </c>
       <c r="O17" s="15">
-        <f>N6*(1+$P$72)</f>
+        <f t="shared" si="2"/>
         <v>0.24413033898844028</v>
       </c>
       <c r="P17" s="15">
-        <f>O17*(1+$P$72)</f>
+        <f t="shared" ref="P17:AE17" si="6">O17*(1+$P$72)</f>
         <v>0.26001468413081197</v>
       </c>
       <c r="Q17" s="15">
-        <f>P17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.27693254449151933</v>
       </c>
       <c r="R17" s="15">
-        <f>Q17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.29495116575786995</v>
       </c>
       <c r="S17" s="15">
-        <f>R17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.3141421689590933</v>
       </c>
       <c r="T17" s="15">
-        <f>S17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.33458183514804563</v>
       </c>
       <c r="U17" s="15">
-        <f>T17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.35635140860573589</v>
       </c>
       <c r="V17" s="15">
-        <f>U17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.37953741977385974</v>
       </c>
       <c r="W17" s="15">
-        <f>V17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.40423202919894502</v>
       </c>
       <c r="X17" s="15">
-        <f>W17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.43053339385522954</v>
       </c>
       <c r="Y17" s="15">
-        <f>X17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.45854605730234393</v>
       </c>
       <c r="Z17" s="15">
-        <f>Y17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.48838136522861147</v>
       </c>
       <c r="AA17" s="15">
-        <f>Z17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.5201579080316806</v>
       </c>
       <c r="AB17" s="15">
-        <f>AA17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.55400199219567503</v>
       </c>
       <c r="AC17" s="15">
-        <f>AB17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.59004814233850633</v>
       </c>
       <c r="AD17" s="15">
-        <f>AC17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.62843963592490526</v>
       </c>
       <c r="AE17" s="15">
-        <f>AD17*(1+$P$72)</f>
+        <f t="shared" si="6"/>
         <v>0.66932907277056619</v>
       </c>
     </row>
@@ -24313,71 +24379,71 @@
         <v>341</v>
       </c>
       <c r="O18" s="15">
-        <f>N7*(1+$P$72)</f>
+        <f t="shared" si="2"/>
         <v>0.2210829546308884</v>
       </c>
       <c r="P18" s="15">
-        <f>O18*(1+$P$72)</f>
+        <f t="shared" ref="P18:AE18" si="7">O18*(1+$P$72)</f>
         <v>0.2354677212723611</v>
       </c>
       <c r="Q18" s="15">
-        <f>P18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.2507884330285311</v>
       </c>
       <c r="R18" s="15">
-        <f>Q18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.26710598718605999</v>
       </c>
       <c r="S18" s="15">
-        <f>R18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.28448524331472241</v>
       </c>
       <c r="T18" s="15">
-        <f>S18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.30299528107343221</v>
       </c>
       <c r="U18" s="15">
-        <f>T18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.32270967479042212</v>
       </c>
       <c r="V18" s="15">
-        <f>U18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.34370678590898868</v>
       </c>
       <c r="W18" s="15">
-        <f>V18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.36607007446122453</v>
       </c>
       <c r="X18" s="15">
-        <f>W18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.38988843080779534</v>
       </c>
       <c r="Y18" s="15">
-        <f>X18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.41525652896237164</v>
       </c>
       <c r="Z18" s="15">
-        <f>Y18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.44227520290512118</v>
       </c>
       <c r="AA18" s="15">
-        <f>Z18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.47105184738104627</v>
       </c>
       <c r="AB18" s="15">
-        <f>AA18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.5017008447762723</v>
       </c>
       <c r="AC18" s="15">
-        <f>AB18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.53434401976904988</v>
       </c>
       <c r="AD18" s="15">
-        <f>AC18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.5691111235626336</v>
       </c>
       <c r="AE18" s="15">
-        <f>AD18*(1+$P$72)</f>
+        <f t="shared" si="7"/>
         <v>0.6061403496247818</v>
       </c>
     </row>
@@ -24387,71 +24453,71 @@
         <v>341</v>
       </c>
       <c r="O19" s="15">
-        <f>N8*(1+$P$72)</f>
+        <f t="shared" si="2"/>
         <v>0.18056271843508109</v>
       </c>
       <c r="P19" s="15">
-        <f>O19*(1+$P$72)</f>
+        <f t="shared" ref="P19:AE19" si="8">O19*(1+$P$72)</f>
         <v>0.1923110351389854</v>
       </c>
       <c r="Q19" s="15">
-        <f>P19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.20482375629233235</v>
       </c>
       <c r="R19" s="15">
-        <f>Q19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.21815061788514115</v>
       </c>
       <c r="S19" s="15">
-        <f>R19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.23234459198056609</v>
       </c>
       <c r="T19" s="15">
-        <f>S19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.24746209727005652</v>
       </c>
       <c r="U19" s="15">
-        <f>T19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.26356322332829241</v>
       </c>
       <c r="V19" s="15">
-        <f>U19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.28071196945927135</v>
       </c>
       <c r="W19" s="15">
-        <f>V19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.2989764990829209</v>
       </c>
       <c r="X19" s="15">
-        <f>W19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.31842941067338065</v>
       </c>
       <c r="Y19" s="15">
-        <f>X19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.33914802632588875</v>
       </c>
       <c r="Z19" s="15">
-        <f>Y19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.36121469909927834</v>
       </c>
       <c r="AA19" s="15">
-        <f>Z19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.38471714035571947</v>
       </c>
       <c r="AB19" s="15">
-        <f>AA19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.40974876839882746</v>
       </c>
       <c r="AC19" s="15">
-        <f>AB19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.43640907979591642</v>
       </c>
       <c r="AD19" s="15">
-        <f>AC19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.46480404486034216</v>
       </c>
       <c r="AE19" s="15">
-        <f>AD19*(1+$P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.49504652886591138</v>
       </c>
     </row>
@@ -24461,71 +24527,71 @@
         <v>341</v>
       </c>
       <c r="O20" s="15">
-        <f>N9*(1+$P$72)</f>
+        <f t="shared" si="2"/>
         <v>0.26712509655224326</v>
       </c>
       <c r="P20" s="15">
-        <f>O20*(1+$P$72)</f>
+        <f t="shared" ref="P20:AE20" si="9">O20*(1+$P$72)</f>
         <v>0.28450559603217929</v>
       </c>
       <c r="Q20" s="15">
-        <f>P20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.30301695804083689</v>
       </c>
       <c r="R20" s="15">
-        <f>Q20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.32273276217012264</v>
       </c>
       <c r="S20" s="15">
-        <f>R20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.34373137546948784</v>
       </c>
       <c r="T20" s="15">
-        <f>S20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.3660962639419445</v>
       </c>
       <c r="U20" s="15">
-        <f>T20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.38991632430757572</v>
       </c>
       <c r="V20" s="15">
-        <f>U20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.41528623735324494</v>
       </c>
       <c r="W20" s="15">
-        <f>V20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.44230684427301081</v>
       </c>
       <c r="X20" s="15">
-        <f>W20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.47108554749513853</v>
       </c>
       <c r="Y20" s="15">
-        <f>X20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.50173673758892789</v>
       </c>
       <c r="Z20" s="15">
-        <f>Y20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.53438224794824252</v>
       </c>
       <c r="AA20" s="15">
-        <f>Z20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.56915183905903133</v>
       </c>
       <c r="AB20" s="15">
-        <f>AA20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.60618371427572582</v>
       </c>
       <c r="AC20" s="15">
-        <f>AB20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.64562506915663798</v>
       </c>
       <c r="AD20" s="15">
-        <f>AC20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.68763267654187676</v>
       </c>
       <c r="AE20" s="15">
-        <f>AD20*(1+$P$72)</f>
+        <f t="shared" si="9"/>
         <v>0.73237350969936976</v>
       </c>
     </row>
@@ -24535,71 +24601,71 @@
         <v>341</v>
       </c>
       <c r="O21" s="15">
-        <f>N10*(1+$P$72)</f>
+        <f t="shared" si="2"/>
         <v>0.2653184533871556</v>
       </c>
       <c r="P21" s="15">
-        <f>O21*(1+$P$72)</f>
+        <f t="shared" ref="P21:AE21" si="10">O21*(1+$P$72)</f>
         <v>0.28258140359524669</v>
       </c>
       <c r="Q21" s="15">
-        <f>P21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.30096756798645447</v>
       </c>
       <c r="R21" s="15">
-        <f>Q21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.32055002851293346</v>
       </c>
       <c r="S21" s="15">
-        <f>R21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.34140662220544304</v>
       </c>
       <c r="T21" s="15">
-        <f>S21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.36362025056262703</v>
       </c>
       <c r="U21" s="15">
-        <f>T21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.38727920907071289</v>
       </c>
       <c r="V21" s="15">
-        <f>U21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.4124775381634162</v>
       </c>
       <c r="W21" s="15">
-        <f>V21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.43931539701705807</v>
       </c>
       <c r="X21" s="15">
-        <f>W21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.46789946166666901</v>
       </c>
       <c r="Y21" s="15">
-        <f>X21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.49834334902552452</v>
       </c>
       <c r="Z21" s="15">
-        <f>Y21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.5307680684935201</v>
       </c>
       <c r="AA21" s="15">
-        <f>Z21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.56530250294945339</v>
       </c>
       <c r="AB21" s="15">
-        <f>AA21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.60208392103907848</v>
       </c>
       <c r="AC21" s="15">
-        <f>AB21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.64125852279519224</v>
       </c>
       <c r="AD21" s="15">
-        <f>AC21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.6829820207585019</v>
       </c>
       <c r="AE21" s="15">
-        <f>AD21*(1+$P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.72742025890913264</v>
       </c>
     </row>
@@ -24609,71 +24675,71 @@
         <v>341</v>
       </c>
       <c r="O22" s="15">
-        <f>N11*(1+$P$72)</f>
+        <f t="shared" si="2"/>
         <v>0.27032734766496502</v>
       </c>
       <c r="P22" s="15">
-        <f>O22*(1+$P$72)</f>
+        <f t="shared" ref="P22:AE22" si="11">O22*(1+$P$72)</f>
         <v>0.28791620167436177</v>
       </c>
       <c r="Q22" s="15">
-        <f>P22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.30664947480389615</v>
       </c>
       <c r="R22" s="15">
-        <f>Q22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.32660162870535264</v>
       </c>
       <c r="S22" s="15">
-        <f>R22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.34785196987930317</v>
       </c>
       <c r="T22" s="15">
-        <f>S22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.37048496490528549</v>
       </c>
       <c r="U22" s="15">
-        <f>T22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.39459057618243887</v>
       </c>
       <c r="V22" s="15">
-        <f>U22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.42026461951511113</v>
       </c>
       <c r="W22" s="15">
-        <f>V22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.44760914496477944</v>
       </c>
       <c r="X22" s="15">
-        <f>W22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.47673284248210895</v>
       </c>
       <c r="Y22" s="15">
-        <f>X22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.50775147393146891</v>
       </c>
       <c r="Z22" s="15">
-        <f>Y22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.54078833322513209</v>
       </c>
       <c r="AA22" s="15">
-        <f>Z22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.57597473639611474</v>
       </c>
       <c r="AB22" s="15">
-        <f>AA22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.61345054355761486</v>
       </c>
       <c r="AC22" s="15">
-        <f>AB22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.6533647148237518</v>
       </c>
       <c r="AD22" s="15">
-        <f>AC22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.69587590240129893</v>
       </c>
       <c r="AE22" s="15">
-        <f>AD22*(1+$P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.74115308120587586</v>
       </c>
     </row>
@@ -24683,71 +24749,71 @@
         <v>341</v>
       </c>
       <c r="O23" s="15">
-        <f>N12*(1+$P$72)</f>
+        <f t="shared" si="2"/>
         <v>0.24850462766407333</v>
       </c>
       <c r="P23" s="15">
-        <f>O23*(1+$P$72)</f>
+        <f t="shared" ref="P23:AE23" si="12">O23*(1+$P$72)</f>
         <v>0.26467358598219382</v>
       </c>
       <c r="Q23" s="15">
-        <f>P23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.2818945778803349</v>
       </c>
       <c r="R23" s="15">
-        <f>Q23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.30023605394335895</v>
       </c>
       <c r="S23" s="15">
-        <f>R23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.31977091849473233</v>
       </c>
       <c r="T23" s="15">
-        <f>S23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.34057681937911216</v>
       </c>
       <c r="U23" s="15">
-        <f>T23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.36273645659964282</v>
       </c>
       <c r="V23" s="15">
-        <f>U23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.3863379110367437</v>
       </c>
       <c r="W23" s="15">
-        <f>V23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.41147499455499137</v>
       </c>
       <c r="X23" s="15">
-        <f>W23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.43824762288971253</v>
       </c>
       <c r="Y23" s="15">
-        <f>X23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.46676221279545044</v>
       </c>
       <c r="Z23" s="15">
-        <f>Y23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.49713210503490352</v>
       </c>
       <c r="AA23" s="15">
-        <f>Z23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.52947801488964752</v>
       </c>
       <c r="AB23" s="15">
-        <f>AA23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.56392851198334637</v>
       </c>
       <c r="AC23" s="15">
-        <f>AB23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.6006205313246693</v>
       </c>
       <c r="AD23" s="15">
-        <f>AC23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.63969991760122491</v>
       </c>
       <c r="AE23" s="15">
-        <f>AD23*(1+$P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.68132200488799077</v>
       </c>
     </row>
@@ -24757,71 +24823,71 @@
         <v>341</v>
       </c>
       <c r="O24" s="15">
-        <f>N13*(1+$P$72)</f>
+        <f t="shared" si="2"/>
         <v>0.19742556831732991</v>
       </c>
       <c r="P24" s="15">
-        <f>O24*(1+$P$72)</f>
+        <f t="shared" ref="P24:AE24" si="13">O24*(1+$P$72)</f>
         <v>0.21027106666905196</v>
       </c>
       <c r="Q24" s="15">
-        <f>P24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.22395235761496765</v>
       </c>
       <c r="R24" s="15">
-        <f>Q24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.23852382201609007</v>
       </c>
       <c r="S24" s="15">
-        <f>R24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.25404337902518681</v>
       </c>
       <c r="T24" s="15">
-        <f>S24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.27057271630580026</v>
       </c>
       <c r="U24" s="15">
-        <f>T24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.28817753523047257</v>
       </c>
       <c r="V24" s="15">
-        <f>U24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.30692781203279806</v>
       </c>
       <c r="W24" s="15">
-        <f>V24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.32689807595133874</v>
       </c>
       <c r="X24" s="15">
-        <f>W24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.34816770547097897</v>
       </c>
       <c r="Y24" s="15">
-        <f>X24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.37082124383922954</v>
       </c>
       <c r="Z24" s="15">
-        <f>Y24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.394948735111606</v>
       </c>
       <c r="AA24" s="15">
-        <f>Z24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.42064608206180598</v>
       </c>
       <c r="AB24" s="15">
-        <f>AA24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.44801542737931904</v>
       </c>
       <c r="AC24" s="15">
-        <f>AB24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.47716555966966595</v>
       </c>
       <c r="AD24" s="15">
-        <f>AC24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.50821234587105169</v>
       </c>
       <c r="AE24" s="15">
-        <f>AD24*(1+$P$72)</f>
+        <f t="shared" si="13"/>
         <v>0.54127919180621586</v>
       </c>
     </row>
@@ -24865,16 +24931,16 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)</f>
         <v>1.3087092273966597E-2</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O25" s="22">
         <f>AVERAGE(M25:N25)</f>
         <v>6.8094151964721451E-3</v>
       </c>
-      <c r="P25" s="23">
-        <f>AVERAGE(J25:N25)</f>
+      <c r="P25" s="22">
+        <f t="shared" ref="P25:P46" si="14">AVERAGE(J25:N25)</f>
         <v>6.072503102678696E-2</v>
       </c>
-      <c r="Q25" s="23">
-        <f>AVERAGE(E25:N25)</f>
+      <c r="Q25" s="22">
+        <f t="shared" ref="Q25:Q46" si="15">AVERAGE(E25:N25)</f>
         <v>5.9373841442593243E-2</v>
       </c>
       <c r="R25" s="15"/>
@@ -24932,16 +24998,16 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)</f>
         <v>1.3827750678680481E-2</v>
       </c>
-      <c r="O26" s="23">
-        <f t="shared" ref="O26:O57" si="2">AVERAGE(M26:N26)</f>
+      <c r="O26" s="22">
+        <f t="shared" ref="O26:O46" si="16">AVERAGE(M26:N26)</f>
         <v>8.1526195725392641E-3</v>
       </c>
-      <c r="P26" s="23">
-        <f>AVERAGE(J26:N26)</f>
+      <c r="P26" s="22">
+        <f t="shared" si="14"/>
         <v>6.1518576378412446E-2</v>
       </c>
-      <c r="Q26" s="23">
-        <f>AVERAGE(E26:N26)</f>
+      <c r="Q26" s="22">
+        <f t="shared" si="15"/>
         <v>5.9897441733091493E-2</v>
       </c>
     </row>
@@ -24985,16 +25051,16 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)</f>
         <v>1.4132960569310965E-2</v>
       </c>
-      <c r="O27" s="23">
-        <f t="shared" si="2"/>
+      <c r="O27" s="22">
+        <f t="shared" si="16"/>
         <v>8.6577422305041968E-3</v>
       </c>
-      <c r="P27" s="23">
-        <f>AVERAGE(J27:N27)</f>
+      <c r="P27" s="22">
+        <f t="shared" si="14"/>
         <v>6.1845544063822075E-2</v>
       </c>
-      <c r="Q27" s="23">
-        <f>AVERAGE(E27:N27)</f>
+      <c r="Q27" s="22">
+        <f t="shared" si="15"/>
         <v>6.010983947169065E-2</v>
       </c>
     </row>
@@ -25038,16 +25104,16 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)</f>
         <v>1.4128916492626426E-2</v>
       </c>
-      <c r="O28" s="23">
-        <f t="shared" si="2"/>
+      <c r="O28" s="22">
+        <f t="shared" si="16"/>
         <v>8.6542008555127951E-3</v>
       </c>
-      <c r="P28" s="23">
-        <f>AVERAGE(J28:N28)</f>
+      <c r="P28" s="22">
+        <f t="shared" si="14"/>
         <v>6.1841266660675118E-2</v>
       </c>
-      <c r="Q28" s="23">
-        <f>AVERAGE(E28:N28)</f>
+      <c r="Q28" s="22">
+        <f t="shared" si="15"/>
         <v>6.0107054931531456E-2</v>
       </c>
     </row>
@@ -25091,16 +25157,16 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)</f>
         <v>1.8861041272614426E-2</v>
       </c>
-      <c r="O29" s="23">
-        <f t="shared" si="2"/>
+      <c r="O29" s="22">
+        <f t="shared" si="16"/>
         <v>1.7400190565439174E-2</v>
       </c>
-      <c r="P29" s="23">
-        <f>AVERAGE(J29:N29)</f>
+      <c r="P29" s="22">
+        <f t="shared" si="14"/>
         <v>6.8791343160627183E-2</v>
       </c>
-      <c r="Q29" s="23">
-        <f>AVERAGE(E29:N29)</f>
+      <c r="Q29" s="22">
+        <f t="shared" si="15"/>
         <v>7.2880443208046111E-2</v>
       </c>
     </row>
@@ -25144,16 +25210,16 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)</f>
         <v>3.0288931210351231E-2</v>
       </c>
-      <c r="O30" s="23">
-        <f t="shared" si="2"/>
+      <c r="O30" s="22">
+        <f t="shared" si="16"/>
         <v>3.9121406603102052E-2</v>
       </c>
-      <c r="P30" s="23">
-        <f>AVERAGE(J30:N30)</f>
+      <c r="P30" s="22">
+        <f t="shared" si="14"/>
         <v>7.978435001429951E-2</v>
       </c>
-      <c r="Q30" s="23">
-        <f>AVERAGE(E30:N30)</f>
+      <c r="Q30" s="22">
+        <f t="shared" si="15"/>
         <v>7.2017654871008502E-2</v>
       </c>
     </row>
@@ -25197,16 +25263,16 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)</f>
         <v>1.0254380209208984E-2</v>
       </c>
-      <c r="O31" s="23">
-        <f t="shared" si="2"/>
+      <c r="O31" s="22">
+        <f t="shared" si="16"/>
         <v>1.6030298185794496E-3</v>
       </c>
-      <c r="P31" s="23">
-        <f>AVERAGE(J31:N31)</f>
+      <c r="P31" s="22">
+        <f t="shared" si="14"/>
         <v>5.7738362592773963E-2</v>
       </c>
-      <c r="Q31" s="23">
-        <f>AVERAGE(E31:N31)</f>
+      <c r="Q31" s="22">
+        <f t="shared" si="15"/>
         <v>5.7408898229587869E-2</v>
       </c>
     </row>
@@ -25250,20 +25316,20 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)</f>
         <v>1.0533490032286368E-2</v>
       </c>
-      <c r="O32" s="23">
-        <f t="shared" si="2"/>
+      <c r="O32" s="22">
+        <f t="shared" si="16"/>
         <v>2.2508251280079824E-3</v>
       </c>
-      <c r="P32" s="23">
-        <f>AVERAGE(J32:N32)</f>
+      <c r="P32" s="22">
+        <f t="shared" si="14"/>
         <v>5.8012568124002059E-2</v>
       </c>
-      <c r="Q32" s="23">
-        <f>AVERAGE(E32:N32)</f>
+      <c r="Q32" s="22">
+        <f t="shared" si="15"/>
         <v>5.75919663769561E-2</v>
       </c>
     </row>
-    <row r="33" spans="5:17">
+    <row r="33" spans="2:17">
       <c r="E33" s="17" t="s">
         <v>343</v>
       </c>
@@ -25303,20 +25369,20 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)</f>
         <v>1.9841269841283518E-3</v>
       </c>
-      <c r="O33" s="23">
-        <f t="shared" si="2"/>
+      <c r="O33" s="22">
+        <f t="shared" si="16"/>
         <v>1.4885878217555761E-3</v>
       </c>
-      <c r="P33" s="23">
-        <f>AVERAGE(J33:N33)</f>
+      <c r="P33" s="22">
+        <f t="shared" si="14"/>
         <v>6.4751752310087257E-2</v>
       </c>
-      <c r="Q33" s="23">
-        <f>AVERAGE(E33:N33)</f>
+      <c r="Q33" s="22">
+        <f t="shared" si="15"/>
         <v>5.3251741963946206E-2</v>
       </c>
     </row>
-    <row r="34" spans="5:17">
+    <row r="34" spans="2:17">
       <c r="E34" s="17" t="s">
         <v>343</v>
       </c>
@@ -25356,20 +25422,20 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)</f>
         <v>4.8423454763032048E-3</v>
       </c>
-      <c r="O34" s="23">
-        <f t="shared" si="2"/>
+      <c r="O34" s="22">
+        <f t="shared" si="16"/>
         <v>6.446869871069745E-3</v>
       </c>
-      <c r="P34" s="23">
-        <f>AVERAGE(J34:N34)</f>
+      <c r="P34" s="22">
+        <f t="shared" si="14"/>
         <v>7.4601759842547105E-2</v>
       </c>
-      <c r="Q34" s="23">
-        <f>AVERAGE(E34:N34)</f>
+      <c r="Q34" s="22">
+        <f t="shared" si="15"/>
         <v>5.371732906368961E-2</v>
       </c>
     </row>
-    <row r="35" spans="5:17">
+    <row r="35" spans="2:17">
       <c r="E35" s="17" t="s">
         <v>343</v>
       </c>
@@ -25409,20 +25475,20 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)</f>
         <v>3.285083098211309E-2</v>
       </c>
-      <c r="O35" s="23">
-        <f t="shared" si="2"/>
+      <c r="O35" s="22">
+        <f t="shared" si="16"/>
         <v>2.0937518518370665E-2</v>
       </c>
-      <c r="P35" s="23">
-        <f>AVERAGE(J35:N35)</f>
+      <c r="P35" s="22">
+        <f t="shared" si="14"/>
         <v>6.6104654718386308E-2</v>
       </c>
-      <c r="Q35" s="23">
-        <f>AVERAGE(E35:N35)</f>
+      <c r="Q35" s="22">
+        <f t="shared" si="15"/>
         <v>6.8816624787064837E-2</v>
       </c>
     </row>
-    <row r="36" spans="5:17">
+    <row r="36" spans="2:17">
       <c r="E36" s="17" t="s">
         <v>346</v>
       </c>
@@ -25462,20 +25528,20 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0))/100</f>
         <v>2.8142857142859868E-3</v>
       </c>
-      <c r="O36" s="24">
-        <f t="shared" si="2"/>
+      <c r="O36" s="23">
+        <f t="shared" si="16"/>
         <v>1.4642857142859889E-3</v>
       </c>
-      <c r="P36" s="24">
-        <f>AVERAGE(J36:N36)</f>
+      <c r="P36" s="23">
+        <f t="shared" si="14"/>
         <v>1.0689285714285793E-2</v>
       </c>
-      <c r="Q36" s="24">
-        <f>AVERAGE(E36:N36)</f>
+      <c r="Q36" s="23">
+        <f t="shared" si="15"/>
         <v>9.513492063492111E-3</v>
       </c>
     </row>
-    <row r="37" spans="5:17">
+    <row r="37" spans="2:17">
       <c r="E37" s="17" t="s">
         <v>346</v>
       </c>
@@ -25515,20 +25581,20 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0))/100</f>
         <v>2.9222857142859838E-3</v>
       </c>
-      <c r="O37" s="24">
-        <f t="shared" si="2"/>
+      <c r="O37" s="23">
+        <f t="shared" si="16"/>
         <v>1.7222857142859915E-3</v>
       </c>
-      <c r="P37" s="24">
-        <f>AVERAGE(J37:N37)</f>
+      <c r="P37" s="23">
+        <f t="shared" si="14"/>
         <v>1.0633485714285797E-2</v>
       </c>
-      <c r="Q37" s="24">
-        <f>AVERAGE(E37:N37)</f>
+      <c r="Q37" s="23">
+        <f t="shared" si="15"/>
         <v>9.4194920634921107E-3</v>
       </c>
     </row>
-    <row r="38" spans="5:17">
+    <row r="38" spans="2:17">
       <c r="E38" s="17" t="s">
         <v>346</v>
       </c>
@@ -25568,20 +25634,20 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0))/100</f>
         <v>2.9657142857140075E-3</v>
       </c>
-      <c r="O38" s="24">
-        <f t="shared" si="2"/>
+      <c r="O38" s="23">
+        <f t="shared" si="16"/>
         <v>1.8157142857145026E-3</v>
       </c>
-      <c r="P38" s="24">
-        <f>AVERAGE(J38:N38)</f>
+      <c r="P38" s="23">
+        <f t="shared" si="14"/>
         <v>1.06110476190476E-2</v>
       </c>
-      <c r="Q38" s="24">
-        <f>AVERAGE(E38:N38)</f>
+      <c r="Q38" s="23">
+        <f t="shared" si="15"/>
         <v>9.3816931216931104E-3</v>
       </c>
     </row>
-    <row r="39" spans="5:17">
+    <row r="39" spans="2:17">
       <c r="E39" s="17" t="s">
         <v>346</v>
       </c>
@@ -25621,20 +25687,20 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0))/100</f>
         <v>2.9651428571419915E-3</v>
       </c>
-      <c r="O39" s="24">
-        <f t="shared" si="2"/>
+      <c r="O39" s="23">
+        <f t="shared" si="16"/>
         <v>1.8151428571425044E-3</v>
       </c>
-      <c r="P39" s="24">
-        <f>AVERAGE(J39:N39)</f>
+      <c r="P39" s="23">
+        <f t="shared" si="14"/>
         <v>1.06113428571428E-2</v>
       </c>
-      <c r="Q39" s="24">
-        <f>AVERAGE(E39:N39)</f>
+      <c r="Q39" s="23">
+        <f t="shared" si="15"/>
         <v>9.382190476190445E-3</v>
       </c>
     </row>
-    <row r="40" spans="5:17">
+    <row r="40" spans="2:17">
       <c r="E40" s="17" t="s">
         <v>346</v>
       </c>
@@ -25674,20 +25740,20 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0))/100</f>
         <v>3.5679120879120061E-3</v>
       </c>
-      <c r="O40" s="24">
-        <f t="shared" si="2"/>
+      <c r="O40" s="23">
+        <f t="shared" si="16"/>
         <v>3.2679120879119949E-3</v>
       </c>
-      <c r="P40" s="24">
-        <f>AVERAGE(J40:N40)</f>
+      <c r="P40" s="23">
+        <f t="shared" si="14"/>
         <v>1.0610421978022E-2</v>
       </c>
-      <c r="Q40" s="24">
-        <f>AVERAGE(E40:N40)</f>
+      <c r="Q40" s="23">
+        <f t="shared" si="15"/>
         <v>9.7602185592185545E-3</v>
       </c>
     </row>
-    <row r="41" spans="5:17">
+    <row r="41" spans="2:17">
       <c r="E41" s="17" t="s">
         <v>346</v>
       </c>
@@ -25727,20 +25793,20 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0))/100</f>
         <v>4.627657142858013E-3</v>
       </c>
-      <c r="O41" s="24">
-        <f t="shared" si="2"/>
+      <c r="O41" s="23">
+        <f t="shared" si="16"/>
         <v>5.8094857142860067E-3</v>
       </c>
-      <c r="P41" s="24">
-        <f>AVERAGE(J41:N41)</f>
+      <c r="P41" s="23">
+        <f t="shared" si="14"/>
         <v>9.7523771428572013E-3</v>
       </c>
-      <c r="Q41" s="24">
-        <f>AVERAGE(E41:N41)</f>
+      <c r="Q41" s="23">
+        <f t="shared" si="15"/>
         <v>7.9351873015873452E-3</v>
       </c>
     </row>
-    <row r="42" spans="5:17">
+    <row r="42" spans="2:17">
       <c r="E42" s="17" t="s">
         <v>346</v>
       </c>
@@ -25780,20 +25846,20 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0))/100</f>
         <v>2.3637500000000243E-3</v>
       </c>
-      <c r="O42" s="24">
-        <f t="shared" si="2"/>
+      <c r="O42" s="23">
+        <f t="shared" si="16"/>
         <v>3.6375000000001369E-4</v>
       </c>
-      <c r="P42" s="24">
-        <f>AVERAGE(J42:N42)</f>
+      <c r="P42" s="23">
+        <f t="shared" si="14"/>
         <v>1.0922062500000003E-2</v>
       </c>
-      <c r="Q42" s="24">
-        <f>AVERAGE(E42:N42)</f>
+      <c r="Q42" s="23">
+        <f t="shared" si="15"/>
         <v>9.905625000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="5:17">
+    <row r="43" spans="2:17">
       <c r="E43" s="17" t="s">
         <v>346</v>
       </c>
@@ -25833,20 +25899,20 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0))/100</f>
         <v>2.4109999999999943E-3</v>
       </c>
-      <c r="O43" s="24">
-        <f t="shared" si="2"/>
+      <c r="O43" s="23">
+        <f t="shared" si="16"/>
         <v>5.109999999999993E-4</v>
       </c>
-      <c r="P43" s="24">
-        <f>AVERAGE(J43:N43)</f>
+      <c r="P43" s="23">
+        <f t="shared" si="14"/>
         <v>1.089765E-2</v>
       </c>
-      <c r="Q43" s="24">
-        <f>AVERAGE(E43:N43)</f>
+      <c r="Q43" s="23">
+        <f t="shared" si="15"/>
         <v>9.8644999999999983E-3</v>
       </c>
     </row>
-    <row r="44" spans="5:17">
+    <row r="44" spans="2:17">
       <c r="E44" s="17" t="s">
         <v>346</v>
       </c>
@@ -25886,20 +25952,20 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0))/100</f>
         <v>4.6666666666698829E-4</v>
       </c>
-      <c r="O44" s="24">
-        <f t="shared" si="2"/>
+      <c r="O44" s="23">
+        <f t="shared" si="16"/>
         <v>3.4999999999998368E-4</v>
       </c>
-      <c r="P44" s="24">
-        <f>AVERAGE(J44:N44)</f>
+      <c r="P44" s="23">
+        <f t="shared" si="14"/>
         <v>1.2415833333333397E-2</v>
       </c>
-      <c r="Q44" s="24">
-        <f>AVERAGE(E44:N44)</f>
+      <c r="Q44" s="23">
+        <f t="shared" si="15"/>
         <v>9.5787037037037767E-3</v>
       </c>
     </row>
-    <row r="45" spans="5:17">
+    <row r="45" spans="2:17">
       <c r="E45" s="17" t="s">
         <v>346</v>
       </c>
@@ -25939,20 +26005,20 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0))/100</f>
         <v>1.0440000000000182E-3</v>
       </c>
-      <c r="O45" s="24">
-        <f t="shared" si="2"/>
+      <c r="O45" s="23">
+        <f t="shared" si="16"/>
         <v>1.3830000000000097E-3</v>
       </c>
-      <c r="P45" s="24">
-        <f>AVERAGE(J45:N45)</f>
+      <c r="P45" s="23">
+        <f t="shared" si="14"/>
         <v>1.2818850000000001E-2</v>
       </c>
-      <c r="Q45" s="24">
-        <f>AVERAGE(E45:N45)</f>
+      <c r="Q45" s="23">
+        <f t="shared" si="15"/>
         <v>8.8346111111111108E-3</v>
       </c>
     </row>
-    <row r="46" spans="5:17">
+    <row r="46" spans="2:17">
       <c r="E46" s="17" t="s">
         <v>346</v>
       </c>
@@ -25992,20 +26058,23 @@
         <f>(VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)-VLOOKUP(N$2-1,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0))/100</f>
         <v>5.4741958255419831E-3</v>
       </c>
-      <c r="O46" s="24">
-        <f t="shared" si="2"/>
+      <c r="O46" s="23">
+        <f t="shared" si="16"/>
         <v>3.4822611007225036E-3</v>
       </c>
-      <c r="P46" s="24">
-        <f>AVERAGE(J46:N46)</f>
+      <c r="P46" s="23">
+        <f t="shared" si="14"/>
         <v>9.2178995825542009E-3</v>
       </c>
-      <c r="Q46" s="24">
-        <f>AVERAGE(E46:N46)</f>
+      <c r="Q46" s="23">
+        <f t="shared" si="15"/>
         <v>8.4063189119678774E-3</v>
       </c>
     </row>
-    <row r="47" spans="5:17">
+    <row r="47" spans="2:17">
+      <c r="B47" t="s">
+        <v>306</v>
+      </c>
       <c r="E47" s="17" t="s">
         <v>335</v>
       </c>
@@ -26045,9 +26114,12 @@
         <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A3,year_data!$A$5:$O$5,0),0)/100</f>
         <v>0.23463214285714298</v>
       </c>
-      <c r="O47" s="23"/>
-    </row>
-    <row r="48" spans="5:17">
+      <c r="O47" s="22"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" t="s">
+        <v>307</v>
+      </c>
       <c r="E48" s="17" t="s">
         <v>335</v>
       </c>
@@ -26087,9 +26159,12 @@
         <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A4,year_data!$A$5:$O$5,0),0)/100</f>
         <v>0.23075494285714299</v>
       </c>
-      <c r="O48" s="23"/>
-    </row>
-    <row r="49" spans="5:31">
+      <c r="O48" s="22"/>
+    </row>
+    <row r="49" spans="2:31">
+      <c r="B49" t="s">
+        <v>308</v>
+      </c>
       <c r="E49" s="17" t="s">
         <v>335</v>
       </c>
@@ -26129,9 +26204,12 @@
         <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A5,year_data!$A$5:$O$5,0),0)/100</f>
         <v>0.22919585714285734</v>
       </c>
-      <c r="O49" s="23"/>
-    </row>
-    <row r="50" spans="5:31">
+      <c r="O49" s="22"/>
+    </row>
+    <row r="50" spans="2:31">
+      <c r="B50" t="s">
+        <v>309</v>
+      </c>
       <c r="E50" s="17" t="s">
         <v>335</v>
       </c>
@@ -26171,9 +26249,12 @@
         <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A6,year_data!$A$5:$O$5,0),0)/100</f>
         <v>0.22921637142857099</v>
       </c>
-      <c r="O50" s="23"/>
-    </row>
-    <row r="51" spans="5:31">
+      <c r="O50" s="22"/>
+    </row>
+    <row r="51" spans="2:31">
+      <c r="B51" t="s">
+        <v>310</v>
+      </c>
       <c r="E51" s="17" t="s">
         <v>335</v>
       </c>
@@ -26213,9 +26294,12 @@
         <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A7,year_data!$A$5:$O$5,0),0)/100</f>
         <v>0.20757695604395632</v>
       </c>
-      <c r="O51" s="23"/>
-    </row>
-    <row r="52" spans="5:31">
+      <c r="O51" s="22"/>
+    </row>
+    <row r="52" spans="2:31">
+      <c r="B52" t="s">
+        <v>311</v>
+      </c>
       <c r="E52" s="17" t="s">
         <v>335</v>
       </c>
@@ -26255,9 +26339,12 @@
         <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A8,year_data!$A$5:$O$5,0),0)/100</f>
         <v>0.16953210857142903</v>
       </c>
-      <c r="O52" s="23"/>
-    </row>
-    <row r="53" spans="5:31">
+      <c r="O52" s="22"/>
+    </row>
+    <row r="53" spans="2:31">
+      <c r="B53" t="s">
+        <v>312</v>
+      </c>
       <c r="E53" s="17" t="s">
         <v>335</v>
       </c>
@@ -26297,9 +26384,12 @@
         <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A9,year_data!$A$5:$O$5,0),0)/100</f>
         <v>0.25080637500000003</v>
       </c>
-      <c r="O53" s="23"/>
-    </row>
-    <row r="54" spans="5:31">
+      <c r="O53" s="22"/>
+    </row>
+    <row r="54" spans="2:31">
+      <c r="B54" t="s">
+        <v>313</v>
+      </c>
       <c r="E54" s="17" t="s">
         <v>335</v>
       </c>
@@ -26339,9 +26429,12 @@
         <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A10,year_data!$A$5:$O$5,0),0)/100</f>
         <v>0.24911009999999997</v>
       </c>
-      <c r="O54" s="23"/>
-    </row>
-    <row r="55" spans="5:31">
+      <c r="O54" s="22"/>
+    </row>
+    <row r="55" spans="2:31">
+      <c r="B55" t="s">
+        <v>314</v>
+      </c>
       <c r="E55" s="17" t="s">
         <v>335</v>
       </c>
@@ -26381,9 +26474,12 @@
         <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A11,year_data!$A$5:$O$5,0),0)/100</f>
         <v>0.25381300000000029</v>
       </c>
-      <c r="O55" s="23"/>
-    </row>
-    <row r="56" spans="5:31">
+      <c r="O55" s="22"/>
+    </row>
+    <row r="56" spans="2:31">
+      <c r="B56" t="s">
+        <v>315</v>
+      </c>
       <c r="E56" s="17" t="s">
         <v>335</v>
       </c>
@@ -26423,9 +26519,12 @@
         <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A12,year_data!$A$5:$O$5,0),0)/100</f>
         <v>0.233323434</v>
       </c>
-      <c r="O56" s="23"/>
-    </row>
-    <row r="57" spans="5:31">
+      <c r="O56" s="22"/>
+    </row>
+    <row r="57" spans="2:31">
+      <c r="B57" t="s">
+        <v>316</v>
+      </c>
       <c r="E57" s="17" t="s">
         <v>335</v>
       </c>
@@ -26465,818 +26564,851 @@
         <f>(1+$F$1)*VLOOKUP(N$2,year_data!$A$5:$O$17,MATCH(to_model!$A13,year_data!$A$5:$O$5,0),0)/100</f>
         <v>0.18536480383564524</v>
       </c>
-      <c r="O57" s="23"/>
-    </row>
-    <row r="58" spans="5:31">
+      <c r="O57" s="22"/>
+    </row>
+    <row r="58" spans="2:31">
+      <c r="B58" t="s">
+        <v>306</v>
+      </c>
       <c r="E58" s="17" t="s">
         <v>348</v>
       </c>
       <c r="O58" s="15">
-        <f>N3+$Q$73</f>
-        <v>0.24390323670372993</v>
+        <f>N3*(1+$O$73)</f>
+        <v>0.23510108372323141</v>
       </c>
       <c r="P58" s="15">
-        <f>O58+$Q$73</f>
-        <v>0.25317433055031691</v>
+        <f>O58*(1+$O$72)</f>
+        <v>0.23769836094049421</v>
       </c>
       <c r="Q58" s="15">
-        <f>P58+$Q$73</f>
-        <v>0.26244542439690388</v>
+        <f t="shared" ref="Q58:AE58" si="17">P58*(1+$O$72)</f>
+        <v>0.24032433155566263</v>
       </c>
       <c r="R58" s="15">
-        <f>Q58+$Q$73</f>
-        <v>0.27171651824349086</v>
+        <f t="shared" si="17"/>
+        <v>0.24297931255880531</v>
       </c>
       <c r="S58" s="15">
-        <f>R58+$Q$73</f>
-        <v>0.28098761209007783</v>
+        <f t="shared" si="17"/>
+        <v>0.24566362444193596</v>
       </c>
       <c r="T58" s="15">
-        <f>S58+$Q$73</f>
-        <v>0.29025870593666481</v>
+        <f t="shared" si="17"/>
+        <v>0.24837759123770109</v>
       </c>
       <c r="U58" s="15">
-        <f>T58+$Q$73</f>
-        <v>0.29952979978325178</v>
+        <f t="shared" si="17"/>
+        <v>0.25112154055849512</v>
       </c>
       <c r="V58" s="15">
-        <f>U58+$Q$73</f>
-        <v>0.30880089362983876</v>
+        <f t="shared" si="17"/>
+        <v>0.25389580363600756</v>
       </c>
       <c r="W58" s="15">
-        <f>V58+$Q$73</f>
-        <v>0.31807198747642573</v>
+        <f t="shared" si="17"/>
+        <v>0.2567007153612072</v>
       </c>
       <c r="X58" s="15">
-        <f>W58+$Q$73</f>
-        <v>0.32734308132301271</v>
+        <f t="shared" si="17"/>
+        <v>0.25953661432476799</v>
       </c>
       <c r="Y58" s="15">
-        <f>X58+$Q$73</f>
-        <v>0.33661417516959968</v>
+        <f t="shared" si="17"/>
+        <v>0.26240384285794144</v>
       </c>
       <c r="Z58" s="15">
-        <f>Y58+$Q$73</f>
-        <v>0.34588526901618666</v>
+        <f t="shared" si="17"/>
+        <v>0.26530274707388057</v>
       </c>
       <c r="AA58" s="15">
-        <f>Z58+$Q$73</f>
-        <v>0.35515636286277363</v>
+        <f t="shared" si="17"/>
+        <v>0.26823367690942068</v>
       </c>
       <c r="AB58" s="15">
-        <f>AA58+$Q$73</f>
-        <v>0.36442745670936061</v>
+        <f t="shared" si="17"/>
+        <v>0.27119698616732107</v>
       </c>
       <c r="AC58" s="15">
-        <f>AB58+$Q$73</f>
-        <v>0.37369855055594758</v>
+        <f t="shared" si="17"/>
+        <v>0.27419303255897415</v>
       </c>
       <c r="AD58" s="15">
-        <f>AC58+$Q$73</f>
-        <v>0.38296964440253456</v>
+        <f t="shared" si="17"/>
+        <v>0.27722217774758584</v>
       </c>
       <c r="AE58" s="15">
-        <f>AD58+$Q$73</f>
-        <v>0.39224073824912153</v>
-      </c>
-    </row>
-    <row r="59" spans="5:31">
+        <f t="shared" si="17"/>
+        <v>0.28028478739183327</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31">
+      <c r="B59" t="s">
+        <v>307</v>
+      </c>
       <c r="E59" s="17" t="s">
         <v>348</v>
       </c>
       <c r="O59" s="15">
-        <f>N4+$Q$73</f>
-        <v>0.24002603670372993</v>
+        <f t="shared" ref="O59:O68" si="18">N4*(1+$O$73)</f>
+        <v>0.23121613466760818</v>
       </c>
       <c r="P59" s="15">
-        <f>O59+$Q$73</f>
-        <v>0.24929713055031688</v>
+        <f t="shared" ref="P59:AE59" si="19">O59*(1+$O$72)</f>
+        <v>0.23377049294331359</v>
       </c>
       <c r="Q59" s="15">
-        <f>P59+$Q$73</f>
-        <v>0.25856822439690386</v>
+        <f t="shared" si="19"/>
+        <v>0.23635307047028381</v>
       </c>
       <c r="R59" s="15">
-        <f>Q59+$Q$73</f>
-        <v>0.26783931824349083</v>
+        <f t="shared" si="19"/>
+        <v>0.23896417900045652</v>
       </c>
       <c r="S59" s="15">
-        <f>R59+$Q$73</f>
-        <v>0.27711041209007781</v>
+        <f t="shared" si="19"/>
+        <v>0.24160413372984627</v>
       </c>
       <c r="T59" s="15">
-        <f>S59+$Q$73</f>
-        <v>0.28638150593666478</v>
+        <f t="shared" si="19"/>
+        <v>0.24427325333659283</v>
       </c>
       <c r="U59" s="15">
-        <f>T59+$Q$73</f>
-        <v>0.29565259978325176</v>
+        <f t="shared" si="19"/>
+        <v>0.24697186001943011</v>
       </c>
       <c r="V59" s="15">
-        <f>U59+$Q$73</f>
-        <v>0.30492369362983873</v>
+        <f t="shared" si="19"/>
+        <v>0.24970027953657969</v>
       </c>
       <c r="W59" s="15">
-        <f>V59+$Q$73</f>
-        <v>0.31419478747642571</v>
+        <f t="shared" si="19"/>
+        <v>0.25245884124507439</v>
       </c>
       <c r="X59" s="15">
-        <f>W59+$Q$73</f>
-        <v>0.32346588132301268</v>
+        <f t="shared" si="19"/>
+        <v>0.25524787814051603</v>
       </c>
       <c r="Y59" s="15">
-        <f>X59+$Q$73</f>
-        <v>0.33273697516959966</v>
+        <f t="shared" si="19"/>
+        <v>0.25806772689727242</v>
       </c>
       <c r="Z59" s="15">
-        <f>Y59+$Q$73</f>
-        <v>0.34200806901618663</v>
+        <f t="shared" si="19"/>
+        <v>0.26091872790911869</v>
       </c>
       <c r="AA59" s="15">
-        <f>Z59+$Q$73</f>
-        <v>0.35127916286277361</v>
+        <f t="shared" si="19"/>
+        <v>0.26380122533032724</v>
       </c>
       <c r="AB59" s="15">
-        <f>AA59+$Q$73</f>
-        <v>0.36055025670936058</v>
+        <f t="shared" si="19"/>
+        <v>0.26671556711721184</v>
       </c>
       <c r="AC59" s="15">
-        <f>AB59+$Q$73</f>
-        <v>0.36982135055594756</v>
+        <f t="shared" si="19"/>
+        <v>0.26966210507013072</v>
       </c>
       <c r="AD59" s="15">
-        <f>AC59+$Q$73</f>
-        <v>0.37909244440253453</v>
+        <f t="shared" si="19"/>
+        <v>0.27264119487595356</v>
       </c>
       <c r="AE59" s="15">
-        <f>AD59+$Q$73</f>
-        <v>0.38836353824912151</v>
-      </c>
-    </row>
-    <row r="60" spans="5:31">
+        <f t="shared" si="19"/>
+        <v>0.27565319615099765</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31">
+      <c r="B60" t="s">
+        <v>308</v>
+      </c>
       <c r="E60" s="17" t="s">
         <v>348</v>
       </c>
       <c r="O60" s="15">
-        <f>N5+$Q$73</f>
-        <v>0.23846695098944429</v>
+        <f t="shared" si="18"/>
+        <v>0.22965393293095551</v>
       </c>
       <c r="P60" s="15">
-        <f>O60+$Q$73</f>
-        <v>0.24773804483603123</v>
+        <f t="shared" ref="P60:AE60" si="20">O60*(1+$O$72)</f>
+        <v>0.23219103279629921</v>
       </c>
       <c r="Q60" s="15">
-        <f>P60+$Q$73</f>
-        <v>0.25700913868261821</v>
+        <f t="shared" si="20"/>
+        <v>0.23475616125076648</v>
       </c>
       <c r="R60" s="15">
-        <f>Q60+$Q$73</f>
-        <v>0.26628023252920519</v>
+        <f t="shared" si="20"/>
+        <v>0.23734962793995656</v>
       </c>
       <c r="S60" s="15">
-        <f>R60+$Q$73</f>
-        <v>0.27555132637579216</v>
+        <f t="shared" si="20"/>
+        <v>0.23997174593027587</v>
       </c>
       <c r="T60" s="15">
-        <f>S60+$Q$73</f>
-        <v>0.28482242022237914</v>
+        <f t="shared" si="20"/>
+        <v>0.24262283174672927</v>
       </c>
       <c r="U60" s="15">
-        <f>T60+$Q$73</f>
-        <v>0.29409351406896611</v>
+        <f t="shared" si="20"/>
+        <v>0.24530320541112893</v>
       </c>
       <c r="V60" s="15">
-        <f>U60+$Q$73</f>
-        <v>0.30336460791555309</v>
+        <f t="shared" si="20"/>
+        <v>0.24801319048072523</v>
       </c>
       <c r="W60" s="15">
-        <f>V60+$Q$73</f>
-        <v>0.31263570176214006</v>
+        <f t="shared" si="20"/>
+        <v>0.25075311408726453</v>
       </c>
       <c r="X60" s="15">
-        <f>W60+$Q$73</f>
-        <v>0.32190679560872704</v>
+        <f t="shared" si="20"/>
+        <v>0.25352330697647835</v>
       </c>
       <c r="Y60" s="15">
-        <f>X60+$Q$73</f>
-        <v>0.33117788945531401</v>
+        <f t="shared" si="20"/>
+        <v>0.25632410354800883</v>
       </c>
       <c r="Z60" s="15">
-        <f>Y60+$Q$73</f>
-        <v>0.34044898330190099</v>
+        <f t="shared" si="20"/>
+        <v>0.2591558418957754</v>
       </c>
       <c r="AA60" s="15">
-        <f>Z60+$Q$73</f>
-        <v>0.34972007714848796</v>
+        <f t="shared" si="20"/>
+        <v>0.26201886384878714</v>
       </c>
       <c r="AB60" s="15">
-        <f>AA60+$Q$73</f>
-        <v>0.35899117099507494</v>
+        <f t="shared" si="20"/>
+        <v>0.26491351501240612</v>
       </c>
       <c r="AC60" s="15">
-        <f>AB60+$Q$73</f>
-        <v>0.36826226484166191</v>
+        <f t="shared" si="20"/>
+        <v>0.26784014481006679</v>
       </c>
       <c r="AD60" s="15">
-        <f>AC60+$Q$73</f>
-        <v>0.37753335868824889</v>
+        <f t="shared" si="20"/>
+        <v>0.27079910652545602</v>
       </c>
       <c r="AE60" s="15">
-        <f>AD60+$Q$73</f>
-        <v>0.38680445253483586</v>
-      </c>
-    </row>
-    <row r="61" spans="5:31">
+        <f t="shared" si="20"/>
+        <v>0.27379075734515912</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31">
+      <c r="B61" t="s">
+        <v>309</v>
+      </c>
       <c r="E61" s="17" t="s">
         <v>348</v>
       </c>
       <c r="O61" s="15">
-        <f>N6+$Q$73</f>
-        <v>0.23848746527515793</v>
+        <f t="shared" si="18"/>
+        <v>0.22967448821696346</v>
       </c>
       <c r="P61" s="15">
-        <f>O61+$Q$73</f>
-        <v>0.24775855912174488</v>
+        <f t="shared" ref="P61:AE61" si="21">O61*(1+$O$72)</f>
+        <v>0.23221181516665404</v>
       </c>
       <c r="Q61" s="15">
-        <f>P61+$Q$73</f>
-        <v>0.25702965296833186</v>
+        <f t="shared" si="21"/>
+        <v>0.23477717321418054</v>
       </c>
       <c r="R61" s="15">
-        <f>Q61+$Q$73</f>
-        <v>0.26630074681491883</v>
+        <f t="shared" si="21"/>
+        <v>0.23737087203285723</v>
       </c>
       <c r="S61" s="15">
-        <f>R61+$Q$73</f>
-        <v>0.27557184066150581</v>
+        <f t="shared" si="21"/>
+        <v>0.23999322471711168</v>
       </c>
       <c r="T61" s="15">
-        <f>S61+$Q$73</f>
-        <v>0.28484293450809278</v>
+        <f t="shared" si="21"/>
+        <v>0.24264454782027947</v>
       </c>
       <c r="U61" s="15">
-        <f>T61+$Q$73</f>
-        <v>0.29411402835467976</v>
+        <f t="shared" si="21"/>
+        <v>0.24532516139281646</v>
       </c>
       <c r="V61" s="15">
-        <f>U61+$Q$73</f>
-        <v>0.30338512220126673</v>
+        <f t="shared" si="21"/>
+        <v>0.24803538902093317</v>
       </c>
       <c r="W61" s="15">
-        <f>V61+$Q$73</f>
-        <v>0.31265621604785371</v>
+        <f t="shared" si="21"/>
+        <v>0.25077555786565608</v>
       </c>
       <c r="X61" s="15">
-        <f>W61+$Q$73</f>
-        <v>0.32192730989444068</v>
+        <f t="shared" si="21"/>
+        <v>0.25354599870232025</v>
       </c>
       <c r="Y61" s="15">
-        <f>X61+$Q$73</f>
-        <v>0.33119840374102766</v>
+        <f t="shared" si="21"/>
+        <v>0.25634704596049845</v>
       </c>
       <c r="Z61" s="15">
-        <f>Y61+$Q$73</f>
-        <v>0.34046949758761463</v>
+        <f t="shared" si="21"/>
+        <v>0.25917903776437134</v>
       </c>
       <c r="AA61" s="15">
-        <f>Z61+$Q$73</f>
-        <v>0.34974059143420161</v>
+        <f t="shared" si="21"/>
+        <v>0.26204231597354355</v>
       </c>
       <c r="AB61" s="15">
-        <f>AA61+$Q$73</f>
-        <v>0.35901168528078858</v>
+        <f t="shared" si="21"/>
+        <v>0.26493722622431076</v>
       </c>
       <c r="AC61" s="15">
-        <f>AB61+$Q$73</f>
-        <v>0.36828277912737556</v>
+        <f t="shared" si="21"/>
+        <v>0.26786411797138276</v>
       </c>
       <c r="AD61" s="15">
-        <f>AC61+$Q$73</f>
-        <v>0.37755387297396253</v>
+        <f t="shared" si="21"/>
+        <v>0.27082334453006718</v>
       </c>
       <c r="AE61" s="15">
-        <f>AD61+$Q$73</f>
-        <v>0.38682496682054951</v>
-      </c>
-    </row>
-    <row r="62" spans="5:31">
+        <f t="shared" si="21"/>
+        <v>0.27381526311891952</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31">
+      <c r="B62" t="s">
+        <v>310</v>
+      </c>
       <c r="E62" s="17" t="s">
         <v>348</v>
       </c>
       <c r="O62" s="15">
-        <f>N7+$Q$73</f>
-        <v>0.21684804989054327</v>
+        <f t="shared" si="18"/>
+        <v>0.20799182382959691</v>
       </c>
       <c r="P62" s="15">
-        <f>O62+$Q$73</f>
-        <v>0.22611914373713021</v>
+        <f t="shared" ref="P62:AE62" si="22">O62*(1+$O$72)</f>
+        <v>0.21028961172939881</v>
       </c>
       <c r="Q62" s="15">
-        <f>P62+$Q$73</f>
-        <v>0.23539023758371716</v>
+        <f t="shared" si="22"/>
+        <v>0.212612784421426</v>
       </c>
       <c r="R62" s="15">
-        <f>Q62+$Q$73</f>
-        <v>0.24466133143030411</v>
+        <f t="shared" si="22"/>
+        <v>0.21496162234395411</v>
       </c>
       <c r="S62" s="15">
-        <f>R62+$Q$73</f>
-        <v>0.25393242527689108</v>
+        <f t="shared" si="22"/>
+        <v>0.21733640903339818</v>
       </c>
       <c r="T62" s="15">
-        <f>S62+$Q$73</f>
-        <v>0.26320351912347806</v>
+        <f t="shared" si="22"/>
+        <v>0.21973743115853939</v>
       </c>
       <c r="U62" s="15">
-        <f>T62+$Q$73</f>
-        <v>0.27247461297006503</v>
+        <f t="shared" si="22"/>
+        <v>0.22216497855512987</v>
       </c>
       <c r="V62" s="15">
-        <f>U62+$Q$73</f>
-        <v>0.28174570681665201</v>
+        <f t="shared" si="22"/>
+        <v>0.22461934426087971</v>
       </c>
       <c r="W62" s="15">
-        <f>V62+$Q$73</f>
-        <v>0.29101680066323898</v>
+        <f t="shared" si="22"/>
+        <v>0.22710082455083061</v>
       </c>
       <c r="X62" s="15">
-        <f>W62+$Q$73</f>
-        <v>0.30028789450982596</v>
+        <f t="shared" si="22"/>
+        <v>0.22960971897312027</v>
       </c>
       <c r="Y62" s="15">
-        <f>X62+$Q$73</f>
-        <v>0.30955898835641293</v>
+        <f t="shared" si="22"/>
+        <v>0.2321463303851419</v>
       </c>
       <c r="Z62" s="15">
-        <f>Y62+$Q$73</f>
-        <v>0.31883008220299991</v>
+        <f t="shared" si="22"/>
+        <v>0.23471096499010316</v>
       </c>
       <c r="AA62" s="15">
-        <f>Z62+$Q$73</f>
-        <v>0.32810117604958688</v>
+        <f t="shared" si="22"/>
+        <v>0.23730393237398906</v>
       </c>
       <c r="AB62" s="15">
-        <f>AA62+$Q$73</f>
-        <v>0.33737226989617386</v>
+        <f t="shared" si="22"/>
+        <v>0.23992554554293308</v>
       </c>
       <c r="AC62" s="15">
-        <f>AB62+$Q$73</f>
-        <v>0.34664336374276083</v>
+        <f t="shared" si="22"/>
+        <v>0.24257612096100137</v>
       </c>
       <c r="AD62" s="15">
-        <f>AC62+$Q$73</f>
-        <v>0.35591445758934781</v>
+        <f t="shared" si="22"/>
+        <v>0.2452559785883941</v>
       </c>
       <c r="AE62" s="15">
-        <f>AD62+$Q$73</f>
-        <v>0.36518555143593479</v>
-      </c>
-    </row>
-    <row r="63" spans="5:31">
+        <f t="shared" si="22"/>
+        <v>0.24796544192006903</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31">
+      <c r="B63" t="s">
+        <v>311</v>
+      </c>
       <c r="E63" s="17" t="s">
         <v>348</v>
       </c>
       <c r="O63" s="15">
-        <f>N8+$Q$73</f>
-        <v>0.17880320241801598</v>
+        <f t="shared" si="18"/>
+        <v>0.1698709391035769</v>
       </c>
       <c r="P63" s="15">
-        <f>O63+$Q$73</f>
-        <v>0.18807429626460292</v>
+        <f t="shared" ref="P63:AE63" si="23">O63*(1+$O$72)</f>
+        <v>0.17174758685449987</v>
       </c>
       <c r="Q63" s="15">
-        <f>P63+$Q$73</f>
-        <v>0.19734539011118987</v>
+        <f t="shared" si="23"/>
+        <v>0.17364496685544531</v>
       </c>
       <c r="R63" s="15">
-        <f>Q63+$Q$73</f>
-        <v>0.20661648395777682</v>
+        <f t="shared" si="23"/>
+        <v>0.17556330814576851</v>
       </c>
       <c r="S63" s="15">
-        <f>R63+$Q$73</f>
-        <v>0.21588757780436377</v>
+        <f t="shared" si="23"/>
+        <v>0.17750284229513508</v>
       </c>
       <c r="T63" s="15">
-        <f>S63+$Q$73</f>
-        <v>0.22515867165095071</v>
+        <f t="shared" si="23"/>
+        <v>0.17946380343147456</v>
       </c>
       <c r="U63" s="15">
-        <f>T63+$Q$73</f>
-        <v>0.23442976549753766</v>
+        <f t="shared" si="23"/>
+        <v>0.18144642826924276</v>
       </c>
       <c r="V63" s="15">
-        <f>U63+$Q$73</f>
-        <v>0.24370085934412461</v>
+        <f t="shared" si="23"/>
+        <v>0.18345095613799647</v>
       </c>
       <c r="W63" s="15">
-        <f>V63+$Q$73</f>
-        <v>0.25297195319071158</v>
+        <f t="shared" si="23"/>
+        <v>0.18547762901128367</v>
       </c>
       <c r="X63" s="15">
-        <f>W63+$Q$73</f>
-        <v>0.26224304703729856</v>
+        <f t="shared" si="23"/>
+        <v>0.18752669153585308</v>
       </c>
       <c r="Y63" s="15">
-        <f>X63+$Q$73</f>
-        <v>0.27151414088388554</v>
+        <f t="shared" si="23"/>
+        <v>0.18959839106118628</v>
       </c>
       <c r="Z63" s="15">
-        <f>Y63+$Q$73</f>
-        <v>0.28078523473047251</v>
+        <f t="shared" si="23"/>
+        <v>0.19169297766935614</v>
       </c>
       <c r="AA63" s="15">
-        <f>Z63+$Q$73</f>
-        <v>0.29005632857705949</v>
+        <f t="shared" si="23"/>
+        <v>0.1938107042052151</v>
       </c>
       <c r="AB63" s="15">
-        <f>AA63+$Q$73</f>
-        <v>0.29932742242364646</v>
+        <f t="shared" si="23"/>
+        <v>0.19595182630691693</v>
       </c>
       <c r="AC63" s="15">
-        <f>AB63+$Q$73</f>
-        <v>0.30859851627023344</v>
+        <f t="shared" si="23"/>
+        <v>0.19811660243677576</v>
       </c>
       <c r="AD63" s="15">
-        <f>AC63+$Q$73</f>
-        <v>0.31786961011682041</v>
+        <f t="shared" si="23"/>
+        <v>0.2003052939124659</v>
       </c>
       <c r="AE63" s="15">
-        <f>AD63+$Q$73</f>
-        <v>0.32714070396340739</v>
-      </c>
-    </row>
-    <row r="64" spans="5:31">
+        <f t="shared" si="23"/>
+        <v>0.20251816493856645</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31">
+      <c r="B64" t="s">
+        <v>312</v>
+      </c>
       <c r="E64" s="17" t="s">
         <v>348</v>
       </c>
       <c r="O64" s="15">
-        <f>N9+$Q$73</f>
-        <v>0.260077468846587</v>
+        <f t="shared" si="18"/>
+        <v>0.25130764203562783</v>
       </c>
       <c r="P64" s="15">
-        <f>O64+$Q$73</f>
-        <v>0.26934856269317398</v>
+        <f t="shared" ref="P64:AE64" si="24">O64*(1+$O$72)</f>
+        <v>0.2540839610676216</v>
       </c>
       <c r="Q64" s="15">
-        <f>P64+$Q$73</f>
-        <v>0.27861965653976095</v>
+        <f t="shared" si="24"/>
+        <v>0.25689095146044222</v>
       </c>
       <c r="R64" s="15">
-        <f>Q64+$Q$73</f>
-        <v>0.28789075038634793</v>
+        <f t="shared" si="24"/>
+        <v>0.2597289520556868</v>
       </c>
       <c r="S64" s="15">
-        <f>R64+$Q$73</f>
-        <v>0.2971618442329349</v>
+        <f t="shared" si="24"/>
+        <v>0.26259830543830209</v>
       </c>
       <c r="T64" s="15">
-        <f>S64+$Q$73</f>
-        <v>0.30643293807952188</v>
+        <f t="shared" si="24"/>
+        <v>0.26549935797793922</v>
       </c>
       <c r="U64" s="15">
-        <f>T64+$Q$73</f>
-        <v>0.31570403192610885</v>
+        <f t="shared" si="24"/>
+        <v>0.26843245987076503</v>
       </c>
       <c r="V64" s="15">
-        <f>U64+$Q$73</f>
-        <v>0.32497512577269583</v>
+        <f t="shared" si="24"/>
+        <v>0.27139796518173548</v>
       </c>
       <c r="W64" s="15">
-        <f>V64+$Q$73</f>
-        <v>0.3342462196192828</v>
+        <f t="shared" si="24"/>
+        <v>0.27439623188733619</v>
       </c>
       <c r="X64" s="15">
-        <f>W64+$Q$73</f>
-        <v>0.34351731346586978</v>
+        <f t="shared" si="24"/>
+        <v>0.27742762191879489</v>
       </c>
       <c r="Y64" s="15">
-        <f>X64+$Q$73</f>
-        <v>0.35278840731245675</v>
+        <f t="shared" si="24"/>
+        <v>0.28049250120577152</v>
       </c>
       <c r="Z64" s="15">
-        <f>Y64+$Q$73</f>
-        <v>0.36205950115904373</v>
+        <f t="shared" si="24"/>
+        <v>0.28359123972053074</v>
       </c>
       <c r="AA64" s="15">
-        <f>Z64+$Q$73</f>
-        <v>0.3713305950056307</v>
+        <f t="shared" si="24"/>
+        <v>0.28672421152260275</v>
       </c>
       <c r="AB64" s="15">
-        <f>AA64+$Q$73</f>
-        <v>0.38060168885221768</v>
+        <f t="shared" si="24"/>
+        <v>0.28989179480393712</v>
       </c>
       <c r="AC64" s="15">
-        <f>AB64+$Q$73</f>
-        <v>0.38987278269880465</v>
+        <f t="shared" si="24"/>
+        <v>0.29309437193455579</v>
       </c>
       <c r="AD64" s="15">
-        <f>AC64+$Q$73</f>
-        <v>0.39914387654539163</v>
+        <f t="shared" si="24"/>
+        <v>0.2963323295087103</v>
       </c>
       <c r="AE64" s="15">
-        <f>AD64+$Q$73</f>
-        <v>0.4084149703919786</v>
-      </c>
-    </row>
-    <row r="65" spans="5:31">
+        <f t="shared" si="24"/>
+        <v>0.29960605839154886</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31">
+      <c r="B65" t="s">
+        <v>313</v>
+      </c>
       <c r="E65" s="17" t="s">
         <v>348</v>
       </c>
       <c r="O65" s="15">
-        <f>N10+$Q$73</f>
-        <v>0.25838119384658692</v>
+        <f t="shared" si="18"/>
+        <v>0.2496079768237926</v>
       </c>
       <c r="P65" s="15">
-        <f>O65+$Q$73</f>
-        <v>0.2676522876931739</v>
+        <f t="shared" ref="P65:AE65" si="25">O65*(1+$O$72)</f>
+        <v>0.25236551881885505</v>
       </c>
       <c r="Q65" s="15">
-        <f>P65+$Q$73</f>
-        <v>0.27692338153976087</v>
+        <f t="shared" si="25"/>
+        <v>0.25515352473558894</v>
       </c>
       <c r="R65" s="15">
-        <f>Q65+$Q$73</f>
-        <v>0.28619447538634785</v>
+        <f t="shared" si="25"/>
+        <v>0.25797233112390916</v>
       </c>
       <c r="S65" s="15">
-        <f>R65+$Q$73</f>
-        <v>0.29546556923293482</v>
+        <f t="shared" si="25"/>
+        <v>0.2608222782517628</v>
       </c>
       <c r="T65" s="15">
-        <f>S65+$Q$73</f>
-        <v>0.3047366630795218</v>
+        <f t="shared" si="25"/>
+        <v>0.26370371014620431</v>
       </c>
       <c r="U65" s="15">
-        <f>T65+$Q$73</f>
-        <v>0.31400775692610877</v>
+        <f t="shared" si="25"/>
+        <v>0.26661697463492401</v>
       </c>
       <c r="V65" s="15">
-        <f>U65+$Q$73</f>
-        <v>0.32327885077269575</v>
+        <f t="shared" si="25"/>
+        <v>0.26956242338823572</v>
       </c>
       <c r="W65" s="15">
-        <f>V65+$Q$73</f>
-        <v>0.33254994461928272</v>
+        <f t="shared" si="25"/>
+        <v>0.27254041196152801</v>
       </c>
       <c r="X65" s="15">
-        <f>W65+$Q$73</f>
-        <v>0.3418210384658697</v>
+        <f t="shared" si="25"/>
+        <v>0.27555129983818455</v>
       </c>
       <c r="Y65" s="15">
-        <f>X65+$Q$73</f>
-        <v>0.35109213231245667</v>
+        <f t="shared" si="25"/>
+        <v>0.27859545047297873</v>
       </c>
       <c r="Z65" s="15">
-        <f>Y65+$Q$73</f>
-        <v>0.36036322615904365</v>
+        <f t="shared" si="25"/>
+        <v>0.28167323133594729</v>
       </c>
       <c r="AA65" s="15">
-        <f>Z65+$Q$73</f>
-        <v>0.36963432000563062</v>
+        <f t="shared" si="25"/>
+        <v>0.28478501395674921</v>
       </c>
       <c r="AB65" s="15">
-        <f>AA65+$Q$73</f>
-        <v>0.3789054138522176</v>
+        <f t="shared" si="25"/>
+        <v>0.28793117396951418</v>
       </c>
       <c r="AC65" s="15">
-        <f>AB65+$Q$73</f>
-        <v>0.38817650769880457</v>
+        <f t="shared" si="25"/>
+        <v>0.29111209115818665</v>
       </c>
       <c r="AD65" s="15">
-        <f>AC65+$Q$73</f>
-        <v>0.39744760154539155</v>
+        <f t="shared" si="25"/>
+        <v>0.29432814950237102</v>
       </c>
       <c r="AE65" s="15">
-        <f>AD65+$Q$73</f>
-        <v>0.40671869539197852</v>
-      </c>
-    </row>
-    <row r="66" spans="5:31">
+        <f t="shared" si="25"/>
+        <v>0.29757973722368314</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31">
+      <c r="B66" t="s">
+        <v>314</v>
+      </c>
       <c r="E66" s="17" t="s">
         <v>348</v>
       </c>
       <c r="O66" s="15">
-        <f>N11+$Q$73</f>
-        <v>0.26308409384658726</v>
+        <f t="shared" si="18"/>
+        <v>0.25432027614126185</v>
       </c>
       <c r="P66" s="15">
-        <f>O66+$Q$73</f>
-        <v>0.27235518769317424</v>
+        <f t="shared" ref="P66:AE66" si="26">O66*(1+$O$72)</f>
+        <v>0.25712987722284297</v>
       </c>
       <c r="Q66" s="15">
-        <f>P66+$Q$73</f>
-        <v>0.28162628153976121</v>
+        <f t="shared" si="26"/>
+        <v>0.25997051734840987</v>
       </c>
       <c r="R66" s="15">
-        <f>Q66+$Q$73</f>
-        <v>0.29089737538634819</v>
+        <f t="shared" si="26"/>
+        <v>0.26284253942153624</v>
       </c>
       <c r="S66" s="15">
-        <f>R66+$Q$73</f>
-        <v>0.30016846923293516</v>
+        <f t="shared" si="26"/>
+        <v>0.26574629013402007</v>
       </c>
       <c r="T66" s="15">
-        <f>S66+$Q$73</f>
-        <v>0.30943956307952214</v>
+        <f t="shared" si="26"/>
+        <v>0.26868212000773406</v>
       </c>
       <c r="U66" s="15">
-        <f>T66+$Q$73</f>
-        <v>0.31871065692610911</v>
+        <f t="shared" si="26"/>
+        <v>0.27165038343693831</v>
       </c>
       <c r="V66" s="15">
-        <f>U66+$Q$73</f>
-        <v>0.32798175077269609</v>
+        <f t="shared" si="26"/>
+        <v>0.27465143873106052</v>
       </c>
       <c r="W66" s="15">
-        <f>V66+$Q$73</f>
-        <v>0.33725284461928307</v>
+        <f t="shared" si="26"/>
+        <v>0.27768564815794861</v>
       </c>
       <c r="X66" s="15">
-        <f>W66+$Q$73</f>
-        <v>0.34652393846587004</v>
+        <f t="shared" si="26"/>
+        <v>0.28075337798760158</v>
       </c>
       <c r="Y66" s="15">
-        <f>X66+$Q$73</f>
-        <v>0.35579503231245702</v>
+        <f t="shared" si="26"/>
+        <v>0.28385499853638307</v>
       </c>
       <c r="Z66" s="15">
-        <f>Y66+$Q$73</f>
-        <v>0.36506612615904399</v>
+        <f t="shared" si="26"/>
+        <v>0.28699088421172358</v>
       </c>
       <c r="AA66" s="15">
-        <f>Z66+$Q$73</f>
-        <v>0.37433722000563097</v>
+        <f t="shared" si="26"/>
+        <v>0.29016141355731656</v>
       </c>
       <c r="AB66" s="15">
-        <f>AA66+$Q$73</f>
-        <v>0.38360831385221794</v>
+        <f t="shared" si="26"/>
+        <v>0.29336696929881362</v>
       </c>
       <c r="AC66" s="15">
-        <f>AB66+$Q$73</f>
-        <v>0.39287940769880492</v>
+        <f t="shared" si="26"/>
+        <v>0.29660793839002481</v>
       </c>
       <c r="AD66" s="15">
-        <f>AC66+$Q$73</f>
-        <v>0.40215050154539189</v>
+        <f t="shared" si="26"/>
+        <v>0.29988471205962902</v>
       </c>
       <c r="AE66" s="15">
-        <f>AD66+$Q$73</f>
-        <v>0.41142159539197887</v>
-      </c>
-    </row>
-    <row r="67" spans="5:31">
+        <f t="shared" si="26"/>
+        <v>0.30319768585840068</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31">
+      <c r="B67" t="s">
+        <v>315</v>
+      </c>
       <c r="E67" s="17" t="s">
         <v>348</v>
       </c>
       <c r="O67" s="15">
-        <f>N12+$Q$73</f>
-        <v>0.24259452784658694</v>
+        <f t="shared" si="18"/>
+        <v>0.23378975925231338</v>
       </c>
       <c r="P67" s="15">
-        <f>O67+$Q$73</f>
-        <v>0.25186562169317389</v>
+        <f t="shared" ref="P67:AE67" si="27">O67*(1+$O$72)</f>
+        <v>0.23637254962366797</v>
       </c>
       <c r="Q67" s="15">
-        <f>P67+$Q$73</f>
-        <v>0.26113671553976087</v>
+        <f t="shared" si="27"/>
+        <v>0.23898387334962157</v>
       </c>
       <c r="R67" s="15">
-        <f>Q67+$Q$73</f>
-        <v>0.27040780938634784</v>
+        <f t="shared" si="27"/>
+        <v>0.24162404565216572</v>
       </c>
       <c r="S67" s="15">
-        <f>R67+$Q$73</f>
-        <v>0.27967890323293482</v>
+        <f t="shared" si="27"/>
+        <v>0.24429338523570429</v>
       </c>
       <c r="T67" s="15">
-        <f>S67+$Q$73</f>
-        <v>0.28894999707952179</v>
+        <f t="shared" si="27"/>
+        <v>0.24699221432552529</v>
       </c>
       <c r="U67" s="15">
-        <f>T67+$Q$73</f>
-        <v>0.29822109092610877</v>
+        <f t="shared" si="27"/>
+        <v>0.24972085870669786</v>
       </c>
       <c r="V67" s="15">
-        <f>U67+$Q$73</f>
-        <v>0.30749218477269574</v>
+        <f t="shared" si="27"/>
+        <v>0.25247964776339893</v>
       </c>
       <c r="W67" s="15">
-        <f>V67+$Q$73</f>
-        <v>0.31676327861928272</v>
+        <f t="shared" si="27"/>
+        <v>0.25526891451867428</v>
       </c>
       <c r="X67" s="15">
-        <f>W67+$Q$73</f>
-        <v>0.32603437246586969</v>
+        <f t="shared" si="27"/>
+        <v>0.25808899567463894</v>
       </c>
       <c r="Y67" s="15">
-        <f>X67+$Q$73</f>
-        <v>0.33530546631245667</v>
+        <f t="shared" si="27"/>
+        <v>0.26094023165312175</v>
       </c>
       <c r="Z67" s="15">
-        <f>Y67+$Q$73</f>
-        <v>0.34457656015904364</v>
+        <f t="shared" si="27"/>
+        <v>0.26382296663675875</v>
       </c>
       <c r="AA67" s="15">
-        <f>Z67+$Q$73</f>
-        <v>0.35384765400563062</v>
+        <f t="shared" si="27"/>
+        <v>0.26673754861054072</v>
       </c>
       <c r="AB67" s="15">
-        <f>AA67+$Q$73</f>
-        <v>0.36311874785221759</v>
+        <f t="shared" si="27"/>
+        <v>0.2696843294038197</v>
       </c>
       <c r="AC67" s="15">
-        <f>AB67+$Q$73</f>
-        <v>0.37238984169880457</v>
+        <f t="shared" si="27"/>
+        <v>0.27266366473277942</v>
       </c>
       <c r="AD67" s="15">
-        <f>AC67+$Q$73</f>
-        <v>0.38166093554539154</v>
+        <f t="shared" si="27"/>
+        <v>0.27567591424337518</v>
       </c>
       <c r="AE67" s="15">
-        <f>AD67+$Q$73</f>
-        <v>0.39093202939197852</v>
-      </c>
-    </row>
-    <row r="68" spans="5:31">
+        <f t="shared" si="27"/>
+        <v>0.27872144155474787</v>
+      </c>
+    </row>
+    <row r="68" spans="2:31">
+      <c r="B68" t="s">
+        <v>316</v>
+      </c>
       <c r="E68" s="17" t="s">
         <v>348</v>
       </c>
       <c r="O68" s="15">
-        <f>N13+$Q$73</f>
-        <v>0.19463589768223219</v>
+        <f t="shared" si="18"/>
+        <v>0.18573527793435354</v>
       </c>
       <c r="P68" s="15">
-        <f>O68+$Q$73</f>
-        <v>0.20390699152881914</v>
+        <f t="shared" ref="P68:AE68" si="28">O68*(1+$O$72)</f>
+        <v>0.18778718683320308</v>
       </c>
       <c r="Q68" s="15">
-        <f>P68+$Q$73</f>
-        <v>0.21317808537540608</v>
+        <f t="shared" si="28"/>
+        <v>0.18986176417811201</v>
       </c>
       <c r="R68" s="15">
-        <f>Q68+$Q$73</f>
-        <v>0.22244917922199303</v>
+        <f t="shared" si="28"/>
+        <v>0.19195926039854483</v>
       </c>
       <c r="S68" s="15">
-        <f>R68+$Q$73</f>
-        <v>0.23172027306857998</v>
+        <f t="shared" si="28"/>
+        <v>0.19407992869058338</v>
       </c>
       <c r="T68" s="15">
-        <f>S68+$Q$73</f>
-        <v>0.24099136691516693</v>
+        <f t="shared" si="28"/>
+        <v>0.19622402504749112</v>
       </c>
       <c r="U68" s="15">
-        <f>T68+$Q$73</f>
-        <v>0.2502624607617539</v>
+        <f t="shared" si="28"/>
+        <v>0.19839180829061487</v>
       </c>
       <c r="V68" s="15">
-        <f>U68+$Q$73</f>
-        <v>0.25953355460834088</v>
+        <f t="shared" si="28"/>
+        <v>0.20058354010062807</v>
       </c>
       <c r="W68" s="15">
-        <f>V68+$Q$73</f>
-        <v>0.26880464845492785</v>
+        <f t="shared" si="28"/>
+        <v>0.20279948504911918</v>
       </c>
       <c r="X68" s="15">
-        <f>W68+$Q$73</f>
-        <v>0.27807574230151483</v>
+        <f t="shared" si="28"/>
+        <v>0.20503991063052904</v>
       </c>
       <c r="Y68" s="15">
-        <f>X68+$Q$73</f>
-        <v>0.2873468361481018</v>
+        <f t="shared" si="28"/>
+        <v>0.207305087294441</v>
       </c>
       <c r="Z68" s="15">
-        <f>Y68+$Q$73</f>
-        <v>0.29661792999468878</v>
+        <f t="shared" si="28"/>
+        <v>0.20959528847822789</v>
       </c>
       <c r="AA68" s="15">
-        <f>Z68+$Q$73</f>
-        <v>0.30588902384127575</v>
+        <f t="shared" si="28"/>
+        <v>0.21191079064005963</v>
       </c>
       <c r="AB68" s="15">
-        <f>AA68+$Q$73</f>
-        <v>0.31516011768786273</v>
+        <f t="shared" si="28"/>
+        <v>0.21425187329227535</v>
       </c>
       <c r="AC68" s="15">
-        <f>AB68+$Q$73</f>
-        <v>0.3244312115344497</v>
+        <f t="shared" si="28"/>
+        <v>0.21661881903512442</v>
       </c>
       <c r="AD68" s="15">
-        <f>AC68+$Q$73</f>
-        <v>0.33370230538103668</v>
+        <f t="shared" si="28"/>
+        <v>0.21901191359088001</v>
       </c>
       <c r="AE68" s="15">
-        <f>AD68+$Q$73</f>
-        <v>0.34297339922762365</v>
-      </c>
-    </row>
-    <row r="69" spans="5:31">
+        <f t="shared" si="28"/>
+        <v>0.22143144583832969</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31">
       <c r="E69" s="17"/>
     </row>
-    <row r="70" spans="5:31">
+    <row r="70" spans="2:31">
       <c r="E70" s="17"/>
     </row>
-    <row r="71" spans="5:31">
+    <row r="71" spans="2:31">
       <c r="O71" t="s">
         <v>349</v>
       </c>
@@ -27287,36 +27419,36 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="5:31">
+    <row r="72" spans="2:31">
       <c r="N72" t="s">
         <v>347</v>
       </c>
-      <c r="O72" s="25">
+      <c r="O72" s="24">
         <f>AVERAGE(O25:O35)</f>
         <v>1.1047491471032095E-2</v>
       </c>
-      <c r="P72" s="25">
+      <c r="P72" s="24">
         <f>AVERAGE(P25:P35)</f>
         <v>6.5065018990220005E-2</v>
       </c>
-      <c r="Q72" s="25">
+      <c r="Q72" s="24">
         <f>AVERAGE(Q25:Q35)</f>
         <v>6.1379348734473288E-2</v>
       </c>
     </row>
-    <row r="73" spans="5:31">
+    <row r="73" spans="2:31">
       <c r="N73" t="s">
         <v>346</v>
       </c>
-      <c r="O73" s="22">
+      <c r="O73" s="21">
         <f>AVERAGE(O36:O46)</f>
         <v>1.9986215885772272E-3</v>
       </c>
-      <c r="P73" s="22">
+      <c r="P73" s="21">
         <f>AVERAGE(P36:P46)</f>
         <v>1.0834568767411708E-2</v>
       </c>
-      <c r="Q73" s="22">
+      <c r="Q73" s="21">
         <f>AVERAGE(Q36:Q46)</f>
         <v>9.2710938465869492E-3</v>
       </c>

--- a/code/COSA_Data/electricity_price_data.xlsx
+++ b/code/COSA_Data/electricity_price_data.xlsx
@@ -7039,7 +7039,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7156,7 +7155,6 @@
         <c:idx val="21"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23153,7 +23151,7 @@
   <dimension ref="A1:AU73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G58" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+      <selection activeCell="Q84" sqref="Q84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
